--- a/BackTest/2020-01-13 BackTest PAY.xlsx
+++ b/BackTest/2020-01-13 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C2" t="n">
         <v>48.08</v>
       </c>
-      <c r="C2" t="n">
-        <v>48.8</v>
-      </c>
       <c r="D2" t="n">
-        <v>48.8</v>
+        <v>48.2</v>
       </c>
       <c r="E2" t="n">
-        <v>48.08</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>51602.0837</v>
+        <v>58897.2525</v>
       </c>
       <c r="G2" t="n">
-        <v>45.23083333333337</v>
+        <v>45.1741666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48.7</v>
+        <v>48.08</v>
       </c>
       <c r="C3" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="D3" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="E3" t="n">
-        <v>48.7</v>
+        <v>48.08</v>
       </c>
       <c r="F3" t="n">
-        <v>10524.7849</v>
+        <v>51602.0837</v>
       </c>
       <c r="G3" t="n">
-        <v>45.28583333333336</v>
+        <v>45.23083333333337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="C4" t="n">
-        <v>48.96</v>
+        <v>48.7</v>
       </c>
       <c r="D4" t="n">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="E4" t="n">
-        <v>48.3</v>
+        <v>48.7</v>
       </c>
       <c r="F4" t="n">
-        <v>90472.171</v>
+        <v>10524.7849</v>
       </c>
       <c r="G4" t="n">
-        <v>45.35183333333337</v>
+        <v>45.28583333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49.2</v>
+        <v>48.8</v>
       </c>
       <c r="C5" t="n">
-        <v>48.42</v>
+        <v>48.96</v>
       </c>
       <c r="D5" t="n">
         <v>49.2</v>
       </c>
       <c r="E5" t="n">
-        <v>48.31</v>
+        <v>48.3</v>
       </c>
       <c r="F5" t="n">
-        <v>56233.5457</v>
+        <v>90472.171</v>
       </c>
       <c r="G5" t="n">
-        <v>45.4151666666667</v>
+        <v>45.35183333333337</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48.95</v>
+        <v>49.2</v>
       </c>
       <c r="C6" t="n">
-        <v>48.01</v>
+        <v>48.42</v>
       </c>
       <c r="D6" t="n">
-        <v>48.95</v>
+        <v>49.2</v>
       </c>
       <c r="E6" t="n">
-        <v>48.01</v>
+        <v>48.31</v>
       </c>
       <c r="F6" t="n">
-        <v>67324.0603</v>
+        <v>56233.5457</v>
       </c>
       <c r="G6" t="n">
-        <v>45.45533333333337</v>
+        <v>45.4151666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48.01</v>
+        <v>48.95</v>
       </c>
       <c r="C7" t="n">
         <v>48.01</v>
       </c>
       <c r="D7" t="n">
+        <v>48.95</v>
+      </c>
+      <c r="E7" t="n">
         <v>48.01</v>
       </c>
-      <c r="E7" t="n">
-        <v>47.6</v>
-      </c>
       <c r="F7" t="n">
-        <v>29048.1525</v>
+        <v>67324.0603</v>
       </c>
       <c r="G7" t="n">
-        <v>45.50550000000005</v>
+        <v>45.45533333333337</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>47.9</v>
+        <v>48.01</v>
       </c>
       <c r="C8" t="n">
-        <v>47.6</v>
+        <v>48.01</v>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>48.01</v>
       </c>
       <c r="E8" t="n">
         <v>47.6</v>
       </c>
       <c r="F8" t="n">
-        <v>54983.7735</v>
+        <v>29048.1525</v>
       </c>
       <c r="G8" t="n">
-        <v>45.54883333333338</v>
+        <v>45.50550000000005</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>47.58</v>
+        <v>47.9</v>
       </c>
       <c r="C9" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="D9" t="n">
-        <v>47.58</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
-        <v>46.59</v>
+        <v>47.6</v>
       </c>
       <c r="F9" t="n">
-        <v>25991.5064</v>
+        <v>54983.7735</v>
       </c>
       <c r="G9" t="n">
-        <v>45.59050000000004</v>
+        <v>45.54883333333338</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>46.8</v>
+        <v>47.58</v>
       </c>
       <c r="C10" t="n">
-        <v>47.06</v>
+        <v>47.5</v>
       </c>
       <c r="D10" t="n">
-        <v>47.5</v>
+        <v>47.58</v>
       </c>
       <c r="E10" t="n">
         <v>46.59</v>
       </c>
       <c r="F10" t="n">
-        <v>12656.7849</v>
+        <v>25991.5064</v>
       </c>
       <c r="G10" t="n">
-        <v>45.62650000000004</v>
+        <v>45.59050000000004</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>46.79</v>
+        <v>46.8</v>
       </c>
       <c r="C11" t="n">
-        <v>45.8</v>
+        <v>47.06</v>
       </c>
       <c r="D11" t="n">
-        <v>46.79</v>
+        <v>47.5</v>
       </c>
       <c r="E11" t="n">
-        <v>45.8</v>
+        <v>46.59</v>
       </c>
       <c r="F11" t="n">
-        <v>37414.5486</v>
+        <v>12656.7849</v>
       </c>
       <c r="G11" t="n">
-        <v>45.62983333333338</v>
+        <v>45.62650000000004</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>46.3</v>
+        <v>46.79</v>
       </c>
       <c r="C12" t="n">
-        <v>46</v>
+        <v>45.8</v>
       </c>
       <c r="D12" t="n">
-        <v>46.3</v>
+        <v>46.79</v>
       </c>
       <c r="E12" t="n">
-        <v>45.28</v>
+        <v>45.8</v>
       </c>
       <c r="F12" t="n">
-        <v>59193.6256</v>
+        <v>37414.5486</v>
       </c>
       <c r="G12" t="n">
-        <v>45.64983333333338</v>
+        <v>45.62983333333338</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C13" t="n">
         <v>46</v>
-      </c>
-      <c r="C13" t="n">
-        <v>46.3</v>
       </c>
       <c r="D13" t="n">
         <v>46.3</v>
       </c>
       <c r="E13" t="n">
-        <v>46</v>
+        <v>45.28</v>
       </c>
       <c r="F13" t="n">
-        <v>44473.0054</v>
+        <v>59193.6256</v>
       </c>
       <c r="G13" t="n">
-        <v>45.65983333333338</v>
+        <v>45.64983333333338</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46.27</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
-        <v>46.27</v>
+        <v>46.3</v>
       </c>
       <c r="D14" t="n">
-        <v>46.27</v>
+        <v>46.3</v>
       </c>
       <c r="E14" t="n">
-        <v>46.27</v>
+        <v>46</v>
       </c>
       <c r="F14" t="n">
-        <v>3122.0853</v>
+        <v>44473.0054</v>
       </c>
       <c r="G14" t="n">
-        <v>45.68100000000005</v>
+        <v>45.65983333333338</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>45.3</v>
+        <v>46.27</v>
       </c>
       <c r="C15" t="n">
-        <v>46</v>
+        <v>46.27</v>
       </c>
       <c r="D15" t="n">
-        <v>46.17</v>
+        <v>46.27</v>
       </c>
       <c r="E15" t="n">
-        <v>45.3</v>
+        <v>46.27</v>
       </c>
       <c r="F15" t="n">
-        <v>27351.2979</v>
+        <v>3122.0853</v>
       </c>
       <c r="G15" t="n">
-        <v>45.69850000000005</v>
+        <v>45.68100000000005</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45.8</v>
+        <v>45.3</v>
       </c>
       <c r="C16" t="n">
-        <v>46.79</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>46.79</v>
+        <v>46.17</v>
       </c>
       <c r="E16" t="n">
-        <v>44.62</v>
+        <v>45.3</v>
       </c>
       <c r="F16" t="n">
-        <v>20979.4011</v>
+        <v>27351.2979</v>
       </c>
       <c r="G16" t="n">
-        <v>45.72916666666672</v>
+        <v>45.69850000000005</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46.2</v>
+        <v>45.8</v>
       </c>
       <c r="C17" t="n">
-        <v>46.2</v>
+        <v>46.79</v>
       </c>
       <c r="D17" t="n">
-        <v>46.2</v>
+        <v>46.79</v>
       </c>
       <c r="E17" t="n">
-        <v>46.2</v>
+        <v>44.62</v>
       </c>
       <c r="F17" t="n">
-        <v>66</v>
+        <v>20979.4011</v>
       </c>
       <c r="G17" t="n">
-        <v>45.75083333333338</v>
+        <v>45.72916666666672</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>46.68</v>
+        <v>46.2</v>
       </c>
       <c r="C18" t="n">
-        <v>45.1</v>
+        <v>46.2</v>
       </c>
       <c r="D18" t="n">
-        <v>46.68</v>
+        <v>46.2</v>
       </c>
       <c r="E18" t="n">
-        <v>44.9</v>
+        <v>46.2</v>
       </c>
       <c r="F18" t="n">
-        <v>5734.2237</v>
+        <v>66</v>
       </c>
       <c r="G18" t="n">
-        <v>45.75550000000005</v>
+        <v>45.75083333333338</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>46.68</v>
       </c>
       <c r="C19" t="n">
-        <v>46.1</v>
+        <v>45.1</v>
       </c>
       <c r="D19" t="n">
         <v>46.68</v>
       </c>
       <c r="E19" t="n">
-        <v>44.33</v>
+        <v>44.9</v>
       </c>
       <c r="F19" t="n">
-        <v>40537.3895</v>
+        <v>5734.2237</v>
       </c>
       <c r="G19" t="n">
-        <v>45.78400000000004</v>
+        <v>45.75550000000005</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45.8</v>
+        <v>46.68</v>
       </c>
       <c r="C20" t="n">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="D20" t="n">
-        <v>46.19</v>
+        <v>46.68</v>
       </c>
       <c r="E20" t="n">
-        <v>45.1</v>
+        <v>44.33</v>
       </c>
       <c r="F20" t="n">
-        <v>7425</v>
+        <v>40537.3895</v>
       </c>
       <c r="G20" t="n">
-        <v>45.80066666666671</v>
+        <v>45.78400000000004</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45.3</v>
+        <v>45.8</v>
       </c>
       <c r="C21" t="n">
-        <v>45.7</v>
+        <v>45.9</v>
       </c>
       <c r="D21" t="n">
-        <v>45.8</v>
+        <v>46.19</v>
       </c>
       <c r="E21" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="F21" t="n">
-        <v>44023.8804</v>
+        <v>7425</v>
       </c>
       <c r="G21" t="n">
-        <v>45.81400000000004</v>
+        <v>45.80066666666671</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>45.9</v>
+        <v>45.3</v>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>45.7</v>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>45.8</v>
       </c>
       <c r="E22" t="n">
-        <v>45.9</v>
+        <v>45.3</v>
       </c>
       <c r="F22" t="n">
-        <v>82</v>
+        <v>44023.8804</v>
       </c>
       <c r="G22" t="n">
-        <v>45.84450000000004</v>
+        <v>45.81400000000004</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45.1</v>
+        <v>45.9</v>
       </c>
       <c r="C23" t="n">
-        <v>45.8</v>
+        <v>46</v>
       </c>
       <c r="D23" t="n">
-        <v>45.8</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
-        <v>44.3</v>
+        <v>45.9</v>
       </c>
       <c r="F23" t="n">
-        <v>17540.6715</v>
+        <v>82</v>
       </c>
       <c r="G23" t="n">
-        <v>45.87166666666671</v>
+        <v>45.84450000000004</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>44.31</v>
+        <v>45.1</v>
       </c>
       <c r="C24" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="D24" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="E24" t="n">
-        <v>44.31</v>
+        <v>44.3</v>
       </c>
       <c r="F24" t="n">
-        <v>17552.6783</v>
+        <v>17540.6715</v>
       </c>
       <c r="G24" t="n">
-        <v>45.89716666666671</v>
+        <v>45.87166666666671</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>44.42</v>
+        <v>44.31</v>
       </c>
       <c r="C25" t="n">
-        <v>44.47</v>
+        <v>45.7</v>
       </c>
       <c r="D25" t="n">
-        <v>44.47</v>
+        <v>45.7</v>
       </c>
       <c r="E25" t="n">
-        <v>44.42</v>
+        <v>44.31</v>
       </c>
       <c r="F25" t="n">
-        <v>104</v>
+        <v>17552.6783</v>
       </c>
       <c r="G25" t="n">
-        <v>45.9021666666667</v>
+        <v>45.89716666666671</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,32 +1273,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44.48</v>
+        <v>44.42</v>
       </c>
       <c r="C26" t="n">
-        <v>45.4</v>
+        <v>44.47</v>
       </c>
       <c r="D26" t="n">
-        <v>45.4</v>
+        <v>44.47</v>
       </c>
       <c r="E26" t="n">
-        <v>44.48</v>
+        <v>44.42</v>
       </c>
       <c r="F26" t="n">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="G26" t="n">
-        <v>45.9226666666667</v>
+        <v>45.9021666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>45.7</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,32 +1314,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>45.6</v>
+        <v>44.48</v>
       </c>
       <c r="C27" t="n">
-        <v>45.6</v>
+        <v>45.4</v>
       </c>
       <c r="D27" t="n">
-        <v>45.6</v>
+        <v>45.4</v>
       </c>
       <c r="E27" t="n">
-        <v>45.6</v>
+        <v>44.48</v>
       </c>
       <c r="F27" t="n">
-        <v>66</v>
+        <v>332</v>
       </c>
       <c r="G27" t="n">
-        <v>45.94650000000003</v>
+        <v>45.9226666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>44.47</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,32 +1355,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>45.53</v>
+        <v>45.6</v>
       </c>
       <c r="C28" t="n">
-        <v>45.33</v>
+        <v>45.6</v>
       </c>
       <c r="D28" t="n">
-        <v>45.53</v>
+        <v>45.6</v>
       </c>
       <c r="E28" t="n">
-        <v>45.33</v>
+        <v>45.6</v>
       </c>
       <c r="F28" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" t="n">
-        <v>45.96750000000002</v>
+        <v>45.94650000000003</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>45.4</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,32 +1396,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>45.53</v>
+      </c>
+      <c r="C29" t="n">
         <v>45.33</v>
       </c>
-      <c r="C29" t="n">
-        <v>45.67</v>
-      </c>
       <c r="D29" t="n">
-        <v>45.68</v>
+        <v>45.53</v>
       </c>
       <c r="E29" t="n">
         <v>45.33</v>
       </c>
       <c r="F29" t="n">
-        <v>1156</v>
+        <v>67</v>
       </c>
       <c r="G29" t="n">
-        <v>45.99250000000003</v>
+        <v>45.96750000000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>45.6</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,32 +1437,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>45.21</v>
+        <v>45.33</v>
       </c>
       <c r="C30" t="n">
-        <v>45.41</v>
+        <v>45.67</v>
       </c>
       <c r="D30" t="n">
-        <v>45.49</v>
+        <v>45.68</v>
       </c>
       <c r="E30" t="n">
-        <v>45.1</v>
+        <v>45.33</v>
       </c>
       <c r="F30" t="n">
-        <v>4073</v>
+        <v>1156</v>
       </c>
       <c r="G30" t="n">
-        <v>46.01766666666669</v>
+        <v>45.99250000000003</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>45.33</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,32 +1478,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>45.17</v>
+        <v>45.21</v>
       </c>
       <c r="C31" t="n">
-        <v>45.17</v>
+        <v>45.41</v>
       </c>
       <c r="D31" t="n">
-        <v>45.17</v>
+        <v>45.49</v>
       </c>
       <c r="E31" t="n">
-        <v>45.17</v>
+        <v>45.1</v>
       </c>
       <c r="F31" t="n">
-        <v>430</v>
+        <v>4073</v>
       </c>
       <c r="G31" t="n">
-        <v>46.03883333333336</v>
+        <v>46.01766666666669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>45.67</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1519,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>45.19</v>
+        <v>45.17</v>
       </c>
       <c r="C32" t="n">
-        <v>45.07</v>
+        <v>45.17</v>
       </c>
       <c r="D32" t="n">
-        <v>45.2</v>
+        <v>45.17</v>
       </c>
       <c r="E32" t="n">
-        <v>45.07</v>
+        <v>45.17</v>
       </c>
       <c r="F32" t="n">
-        <v>542</v>
+        <v>430</v>
       </c>
       <c r="G32" t="n">
-        <v>46.05833333333336</v>
+        <v>46.03883333333336</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1544,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1558,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>44.99</v>
+        <v>45.19</v>
       </c>
       <c r="C33" t="n">
-        <v>44.97</v>
+        <v>45.07</v>
       </c>
       <c r="D33" t="n">
-        <v>44.99</v>
+        <v>45.2</v>
       </c>
       <c r="E33" t="n">
-        <v>44.97</v>
+        <v>45.07</v>
       </c>
       <c r="F33" t="n">
-        <v>47</v>
+        <v>542</v>
       </c>
       <c r="G33" t="n">
-        <v>46.07616666666669</v>
+        <v>46.05833333333336</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1583,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1597,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>45.09</v>
+        <v>44.99</v>
       </c>
       <c r="C34" t="n">
-        <v>45.18</v>
+        <v>44.97</v>
       </c>
       <c r="D34" t="n">
-        <v>45.18</v>
+        <v>44.99</v>
       </c>
       <c r="E34" t="n">
-        <v>45.09</v>
+        <v>44.97</v>
       </c>
       <c r="F34" t="n">
-        <v>700</v>
+        <v>47</v>
       </c>
       <c r="G34" t="n">
-        <v>46.08133333333335</v>
+        <v>46.07616666666669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1622,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1636,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>44.95</v>
+        <v>45.09</v>
       </c>
       <c r="C35" t="n">
-        <v>43.5</v>
+        <v>45.18</v>
       </c>
       <c r="D35" t="n">
-        <v>44.95</v>
+        <v>45.18</v>
       </c>
       <c r="E35" t="n">
-        <v>43.5</v>
+        <v>45.09</v>
       </c>
       <c r="F35" t="n">
-        <v>38761.7081</v>
+        <v>700</v>
       </c>
       <c r="G35" t="n">
-        <v>46.06316666666668</v>
+        <v>46.08133333333335</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1661,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1675,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>43.87</v>
+        <v>44.95</v>
       </c>
       <c r="C36" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="D36" t="n">
-        <v>44.89</v>
+        <v>44.95</v>
       </c>
       <c r="E36" t="n">
         <v>43.5</v>
       </c>
       <c r="F36" t="n">
-        <v>61785.2864</v>
+        <v>38761.7081</v>
       </c>
       <c r="G36" t="n">
-        <v>46.04650000000002</v>
+        <v>46.06316666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1700,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1714,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>43.87</v>
+      </c>
+      <c r="C37" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>44.89</v>
+      </c>
+      <c r="E37" t="n">
         <v>43.5</v>
       </c>
-      <c r="C37" t="n">
-        <v>43</v>
-      </c>
-      <c r="D37" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E37" t="n">
-        <v>43</v>
-      </c>
       <c r="F37" t="n">
-        <v>5300</v>
+        <v>61785.2864</v>
       </c>
       <c r="G37" t="n">
-        <v>46.01983333333335</v>
+        <v>46.04650000000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1739,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1753,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C38" t="n">
         <v>43</v>
       </c>
-      <c r="C38" t="n">
-        <v>42.33</v>
-      </c>
       <c r="D38" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E38" t="n">
         <v>43</v>
       </c>
-      <c r="E38" t="n">
-        <v>42.33</v>
-      </c>
       <c r="F38" t="n">
-        <v>12836.3583</v>
+        <v>5300</v>
       </c>
       <c r="G38" t="n">
-        <v>45.98216666666668</v>
+        <v>46.01983333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1778,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1792,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>43.11</v>
+        <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>43.51</v>
+        <v>42.33</v>
       </c>
       <c r="D39" t="n">
-        <v>43.51</v>
+        <v>43</v>
       </c>
       <c r="E39" t="n">
-        <v>43.11</v>
+        <v>42.33</v>
       </c>
       <c r="F39" t="n">
-        <v>4200</v>
+        <v>12836.3583</v>
       </c>
       <c r="G39" t="n">
-        <v>45.95900000000002</v>
+        <v>45.98216666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1817,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,36 +1831,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>43.61</v>
+        <v>43.11</v>
       </c>
       <c r="C40" t="n">
-        <v>44.99</v>
+        <v>43.51</v>
       </c>
       <c r="D40" t="n">
-        <v>44.99</v>
+        <v>43.51</v>
       </c>
       <c r="E40" t="n">
-        <v>43.61</v>
+        <v>43.11</v>
       </c>
       <c r="F40" t="n">
-        <v>9087</v>
+        <v>4200</v>
       </c>
       <c r="G40" t="n">
-        <v>45.96050000000001</v>
+        <v>45.95900000000002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="K40" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1802,38 +1870,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>43.5</v>
+        <v>43.61</v>
       </c>
       <c r="C41" t="n">
-        <v>44.44</v>
+        <v>44.99</v>
       </c>
       <c r="D41" t="n">
-        <v>44.44</v>
+        <v>44.99</v>
       </c>
       <c r="E41" t="n">
-        <v>43.5</v>
+        <v>43.61</v>
       </c>
       <c r="F41" t="n">
-        <v>7939.8573</v>
+        <v>9087</v>
       </c>
       <c r="G41" t="n">
-        <v>45.95283333333334</v>
+        <v>45.96050000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>44.99</v>
-      </c>
-      <c r="K41" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1845,22 +1909,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>44.31</v>
+        <v>43.5</v>
       </c>
       <c r="C42" t="n">
-        <v>44.31</v>
+        <v>44.44</v>
       </c>
       <c r="D42" t="n">
-        <v>44.31</v>
+        <v>44.44</v>
       </c>
       <c r="E42" t="n">
-        <v>44.31</v>
+        <v>43.5</v>
       </c>
       <c r="F42" t="n">
-        <v>351.5016</v>
+        <v>7939.8573</v>
       </c>
       <c r="G42" t="n">
-        <v>45.93633333333334</v>
+        <v>45.95283333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1869,9 +1933,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1886,22 +1948,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>43.5</v>
+        <v>44.31</v>
       </c>
       <c r="C43" t="n">
-        <v>44.69</v>
+        <v>44.31</v>
       </c>
       <c r="D43" t="n">
-        <v>44.69</v>
+        <v>44.31</v>
       </c>
       <c r="E43" t="n">
-        <v>42.51</v>
+        <v>44.31</v>
       </c>
       <c r="F43" t="n">
-        <v>4019.8837</v>
+        <v>351.5016</v>
       </c>
       <c r="G43" t="n">
-        <v>45.92616666666667</v>
+        <v>45.93633333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1910,9 +1972,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1927,22 +1987,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="C44" t="n">
-        <v>44.38</v>
+        <v>44.69</v>
       </c>
       <c r="D44" t="n">
-        <v>44.49</v>
+        <v>44.69</v>
       </c>
       <c r="E44" t="n">
-        <v>43.7</v>
+        <v>42.51</v>
       </c>
       <c r="F44" t="n">
-        <v>23514.1518</v>
+        <v>4019.8837</v>
       </c>
       <c r="G44" t="n">
-        <v>45.90916666666667</v>
+        <v>45.92616666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1951,9 +2011,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1968,22 +2026,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C45" t="n">
         <v>44.38</v>
-      </c>
-      <c r="C45" t="n">
-        <v>44.49</v>
       </c>
       <c r="D45" t="n">
         <v>44.49</v>
       </c>
       <c r="E45" t="n">
-        <v>43.3</v>
+        <v>43.7</v>
       </c>
       <c r="F45" t="n">
-        <v>17287.0899</v>
+        <v>23514.1518</v>
       </c>
       <c r="G45" t="n">
-        <v>45.89233333333333</v>
+        <v>45.90916666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1992,9 +2050,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2009,22 +2065,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>44.61</v>
+        <v>44.38</v>
       </c>
       <c r="C46" t="n">
-        <v>44.3</v>
+        <v>44.49</v>
       </c>
       <c r="D46" t="n">
-        <v>44.61</v>
+        <v>44.49</v>
       </c>
       <c r="E46" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="F46" t="n">
-        <v>5834.93</v>
+        <v>17287.0899</v>
       </c>
       <c r="G46" t="n">
-        <v>45.87233333333334</v>
+        <v>45.89233333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2033,9 +2089,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2050,22 +2104,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>43.9</v>
+        <v>44.61</v>
       </c>
       <c r="C47" t="n">
-        <v>44.5</v>
+        <v>44.3</v>
       </c>
       <c r="D47" t="n">
-        <v>44.5</v>
+        <v>44.61</v>
       </c>
       <c r="E47" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="F47" t="n">
-        <v>15206.7216</v>
+        <v>5834.93</v>
       </c>
       <c r="G47" t="n">
-        <v>45.85566666666667</v>
+        <v>45.87233333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2074,9 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2091,22 +2143,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>44.3</v>
+        <v>43.9</v>
       </c>
       <c r="C48" t="n">
-        <v>44.49</v>
+        <v>44.5</v>
       </c>
       <c r="D48" t="n">
-        <v>44.8</v>
+        <v>44.5</v>
       </c>
       <c r="E48" t="n">
-        <v>44.3</v>
+        <v>43.6</v>
       </c>
       <c r="F48" t="n">
-        <v>1699</v>
+        <v>15206.7216</v>
       </c>
       <c r="G48" t="n">
-        <v>45.8455</v>
+        <v>45.85566666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2115,9 +2167,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2132,22 +2182,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>44.48</v>
+        <v>44.3</v>
       </c>
       <c r="C49" t="n">
-        <v>44.5</v>
+        <v>44.49</v>
       </c>
       <c r="D49" t="n">
-        <v>44.5</v>
+        <v>44.8</v>
       </c>
       <c r="E49" t="n">
-        <v>44.46</v>
+        <v>44.3</v>
       </c>
       <c r="F49" t="n">
-        <v>2891.2436</v>
+        <v>1699</v>
       </c>
       <c r="G49" t="n">
-        <v>45.83883333333333</v>
+        <v>45.8455</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2156,9 +2206,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2173,22 +2221,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44.59</v>
+        <v>44.48</v>
       </c>
       <c r="C50" t="n">
-        <v>44.59</v>
+        <v>44.5</v>
       </c>
       <c r="D50" t="n">
-        <v>44.59</v>
+        <v>44.5</v>
       </c>
       <c r="E50" t="n">
-        <v>44.59</v>
+        <v>44.46</v>
       </c>
       <c r="F50" t="n">
-        <v>19</v>
+        <v>2891.2436</v>
       </c>
       <c r="G50" t="n">
-        <v>45.82033333333334</v>
+        <v>45.83883333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2197,9 +2245,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2214,22 +2260,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>44.48</v>
+        <v>44.59</v>
       </c>
       <c r="C51" t="n">
-        <v>44.48</v>
+        <v>44.59</v>
       </c>
       <c r="D51" t="n">
-        <v>44.48</v>
+        <v>44.59</v>
       </c>
       <c r="E51" t="n">
-        <v>44.48</v>
+        <v>44.59</v>
       </c>
       <c r="F51" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G51" t="n">
-        <v>45.82150000000001</v>
+        <v>45.82033333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,9 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2255,22 +2299,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="C52" t="n">
-        <v>44.19</v>
+        <v>44.48</v>
       </c>
       <c r="D52" t="n">
-        <v>44.38</v>
+        <v>44.48</v>
       </c>
       <c r="E52" t="n">
-        <v>44</v>
+        <v>44.48</v>
       </c>
       <c r="F52" t="n">
-        <v>5104</v>
+        <v>12</v>
       </c>
       <c r="G52" t="n">
-        <v>45.79966666666667</v>
+        <v>45.82150000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2279,9 +2323,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2296,22 +2338,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>44</v>
+        <v>44.38</v>
       </c>
       <c r="C53" t="n">
-        <v>44.29</v>
+        <v>44.19</v>
       </c>
       <c r="D53" t="n">
-        <v>44.29</v>
+        <v>44.38</v>
       </c>
       <c r="E53" t="n">
         <v>44</v>
       </c>
       <c r="F53" t="n">
-        <v>159</v>
+        <v>5104</v>
       </c>
       <c r="G53" t="n">
-        <v>45.77950000000001</v>
+        <v>45.79966666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2320,9 +2362,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2337,22 +2377,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>44.39</v>
+        <v>44</v>
       </c>
       <c r="C54" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="D54" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="E54" t="n">
         <v>44</v>
       </c>
-      <c r="D54" t="n">
-        <v>44.39</v>
-      </c>
-      <c r="E54" t="n">
-        <v>43.89</v>
-      </c>
       <c r="F54" t="n">
-        <v>8408.3218</v>
+        <v>159</v>
       </c>
       <c r="G54" t="n">
-        <v>45.75283333333334</v>
+        <v>45.77950000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2361,9 +2401,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2378,22 +2416,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>44.29</v>
+        <v>44.39</v>
       </c>
       <c r="C55" t="n">
-        <v>44.29</v>
+        <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>44.29</v>
+        <v>44.39</v>
       </c>
       <c r="E55" t="n">
-        <v>44.29</v>
+        <v>43.89</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>8408.3218</v>
       </c>
       <c r="G55" t="n">
-        <v>45.70800000000001</v>
+        <v>45.75283333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2402,9 +2440,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2419,22 +2455,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>44</v>
+        <v>44.29</v>
       </c>
       <c r="C56" t="n">
-        <v>43.9</v>
+        <v>44.29</v>
       </c>
       <c r="D56" t="n">
-        <v>44</v>
+        <v>44.29</v>
       </c>
       <c r="E56" t="n">
-        <v>43.9</v>
+        <v>44.29</v>
       </c>
       <c r="F56" t="n">
-        <v>2500</v>
+        <v>16</v>
       </c>
       <c r="G56" t="n">
-        <v>45.65633333333334</v>
+        <v>45.70800000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2443,9 +2479,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2460,22 +2494,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>44.2</v>
+        <v>44</v>
       </c>
       <c r="C57" t="n">
-        <v>44.29</v>
+        <v>43.9</v>
       </c>
       <c r="D57" t="n">
-        <v>44.29</v>
+        <v>44</v>
       </c>
       <c r="E57" t="n">
-        <v>44.2</v>
+        <v>43.9</v>
       </c>
       <c r="F57" t="n">
-        <v>29</v>
+        <v>2500</v>
       </c>
       <c r="G57" t="n">
-        <v>45.61116666666668</v>
+        <v>45.65633333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2484,9 +2518,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2501,22 +2533,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>43.9</v>
+        <v>44.2</v>
       </c>
       <c r="C58" t="n">
-        <v>43.6</v>
+        <v>44.29</v>
       </c>
       <c r="D58" t="n">
-        <v>43.9</v>
+        <v>44.29</v>
       </c>
       <c r="E58" t="n">
-        <v>42.72</v>
+        <v>44.2</v>
       </c>
       <c r="F58" t="n">
-        <v>70669.72289999999</v>
+        <v>29</v>
       </c>
       <c r="G58" t="n">
-        <v>45.53616666666667</v>
+        <v>45.61116666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2525,9 +2557,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2542,22 +2572,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="C59" t="n">
         <v>43.6</v>
       </c>
-      <c r="C59" t="n">
-        <v>43.88</v>
-      </c>
       <c r="D59" t="n">
-        <v>43.88</v>
+        <v>43.9</v>
       </c>
       <c r="E59" t="n">
         <v>42.72</v>
       </c>
       <c r="F59" t="n">
-        <v>29827.201</v>
+        <v>70669.72289999999</v>
       </c>
       <c r="G59" t="n">
-        <v>45.45183333333334</v>
+        <v>45.53616666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2566,9 +2596,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2583,22 +2611,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>43.08</v>
+        <v>43.6</v>
       </c>
       <c r="C60" t="n">
-        <v>43.48</v>
+        <v>43.88</v>
       </c>
       <c r="D60" t="n">
-        <v>43.9</v>
+        <v>43.88</v>
       </c>
       <c r="E60" t="n">
-        <v>42.73</v>
+        <v>42.72</v>
       </c>
       <c r="F60" t="n">
-        <v>46032.6282</v>
+        <v>29827.201</v>
       </c>
       <c r="G60" t="n">
-        <v>45.38483333333334</v>
+        <v>45.45183333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2607,9 +2635,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2624,22 +2650,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>43.58</v>
+        <v>43.08</v>
       </c>
       <c r="C61" t="n">
-        <v>43.58</v>
+        <v>43.48</v>
       </c>
       <c r="D61" t="n">
-        <v>43.58</v>
+        <v>43.9</v>
       </c>
       <c r="E61" t="n">
-        <v>42.83</v>
+        <v>42.73</v>
       </c>
       <c r="F61" t="n">
-        <v>25622</v>
+        <v>46032.6282</v>
       </c>
       <c r="G61" t="n">
-        <v>45.30983333333334</v>
+        <v>45.38483333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2648,9 +2674,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2665,22 +2689,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>43.78</v>
+        <v>43.58</v>
       </c>
       <c r="C62" t="n">
-        <v>43.8</v>
+        <v>43.58</v>
       </c>
       <c r="D62" t="n">
-        <v>43.8</v>
+        <v>43.58</v>
       </c>
       <c r="E62" t="n">
-        <v>43.67</v>
+        <v>42.83</v>
       </c>
       <c r="F62" t="n">
-        <v>2030</v>
+        <v>25622</v>
       </c>
       <c r="G62" t="n">
-        <v>45.22650000000001</v>
+        <v>45.30983333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2689,9 +2713,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2706,22 +2728,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>43.78</v>
+      </c>
+      <c r="C63" t="n">
         <v>43.8</v>
-      </c>
-      <c r="C63" t="n">
-        <v>43.57</v>
       </c>
       <c r="D63" t="n">
         <v>43.8</v>
       </c>
       <c r="E63" t="n">
-        <v>43.56</v>
+        <v>43.67</v>
       </c>
       <c r="F63" t="n">
-        <v>2118</v>
+        <v>2030</v>
       </c>
       <c r="G63" t="n">
-        <v>45.14100000000001</v>
+        <v>45.22650000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2730,9 +2752,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2747,22 +2767,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>43.89</v>
+        <v>43.8</v>
       </c>
       <c r="C64" t="n">
-        <v>43.6</v>
+        <v>43.57</v>
       </c>
       <c r="D64" t="n">
-        <v>43.89</v>
+        <v>43.8</v>
       </c>
       <c r="E64" t="n">
-        <v>43.54</v>
+        <v>43.56</v>
       </c>
       <c r="F64" t="n">
-        <v>12960.5572</v>
+        <v>2118</v>
       </c>
       <c r="G64" t="n">
-        <v>45.05166666666668</v>
+        <v>45.14100000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2771,9 +2791,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2788,22 +2806,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>43.1</v>
+        <v>43.89</v>
       </c>
       <c r="C65" t="n">
-        <v>43.1</v>
+        <v>43.6</v>
       </c>
       <c r="D65" t="n">
-        <v>43.1</v>
+        <v>43.89</v>
       </c>
       <c r="E65" t="n">
-        <v>43.1</v>
+        <v>43.54</v>
       </c>
       <c r="F65" t="n">
-        <v>16</v>
+        <v>12960.5572</v>
       </c>
       <c r="G65" t="n">
-        <v>44.96300000000001</v>
+        <v>45.05166666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2812,9 +2830,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2829,22 +2845,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>43.79</v>
+        <v>43.1</v>
       </c>
       <c r="C66" t="n">
-        <v>43.99</v>
+        <v>43.1</v>
       </c>
       <c r="D66" t="n">
-        <v>43.99</v>
+        <v>43.1</v>
       </c>
       <c r="E66" t="n">
-        <v>43.7</v>
+        <v>43.1</v>
       </c>
       <c r="F66" t="n">
-        <v>45027.4356</v>
+        <v>16</v>
       </c>
       <c r="G66" t="n">
-        <v>44.896</v>
+        <v>44.96300000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2853,9 +2869,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2870,22 +2884,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>43.61</v>
+        <v>43.79</v>
       </c>
       <c r="C67" t="n">
-        <v>44.71</v>
+        <v>43.99</v>
       </c>
       <c r="D67" t="n">
-        <v>44.71</v>
+        <v>43.99</v>
       </c>
       <c r="E67" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="F67" t="n">
-        <v>22488.6066</v>
+        <v>45027.4356</v>
       </c>
       <c r="G67" t="n">
-        <v>44.841</v>
+        <v>44.896</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2894,9 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2911,7 +2923,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>44.5</v>
+        <v>43.61</v>
       </c>
       <c r="C68" t="n">
         <v>44.71</v>
@@ -2920,13 +2932,13 @@
         <v>44.71</v>
       </c>
       <c r="E68" t="n">
-        <v>44.46</v>
+        <v>43.6</v>
       </c>
       <c r="F68" t="n">
-        <v>147.77</v>
+        <v>22488.6066</v>
       </c>
       <c r="G68" t="n">
-        <v>44.79283333333333</v>
+        <v>44.841</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2935,9 +2947,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2952,22 +2962,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>44.59</v>
+        <v>44.5</v>
       </c>
       <c r="C69" t="n">
-        <v>44.7</v>
+        <v>44.71</v>
       </c>
       <c r="D69" t="n">
-        <v>44.7</v>
+        <v>44.71</v>
       </c>
       <c r="E69" t="n">
         <v>44.46</v>
       </c>
       <c r="F69" t="n">
-        <v>20014.2711</v>
+        <v>147.77</v>
       </c>
       <c r="G69" t="n">
-        <v>44.74616666666667</v>
+        <v>44.79283333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2976,9 +2986,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2993,22 +3001,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>44.68</v>
+        <v>44.59</v>
       </c>
       <c r="C70" t="n">
-        <v>44.67</v>
+        <v>44.7</v>
       </c>
       <c r="D70" t="n">
-        <v>44.68</v>
+        <v>44.7</v>
       </c>
       <c r="E70" t="n">
-        <v>44.64</v>
+        <v>44.46</v>
       </c>
       <c r="F70" t="n">
-        <v>8650.3349</v>
+        <v>20014.2711</v>
       </c>
       <c r="G70" t="n">
-        <v>44.70633333333333</v>
+        <v>44.74616666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3017,9 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3034,22 +3040,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>44.68</v>
+      </c>
+      <c r="C71" t="n">
         <v>44.67</v>
-      </c>
-      <c r="C71" t="n">
-        <v>44.68</v>
       </c>
       <c r="D71" t="n">
         <v>44.68</v>
       </c>
       <c r="E71" t="n">
-        <v>44.38</v>
+        <v>44.64</v>
       </c>
       <c r="F71" t="n">
-        <v>457</v>
+        <v>8650.3349</v>
       </c>
       <c r="G71" t="n">
-        <v>44.68766666666667</v>
+        <v>44.70633333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3058,9 +3064,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3078,19 +3082,19 @@
         <v>44.67</v>
       </c>
       <c r="C72" t="n">
-        <v>44.67</v>
+        <v>44.68</v>
       </c>
       <c r="D72" t="n">
-        <v>44.67</v>
+        <v>44.68</v>
       </c>
       <c r="E72" t="n">
-        <v>44.67</v>
+        <v>44.38</v>
       </c>
       <c r="F72" t="n">
-        <v>19</v>
+        <v>457</v>
       </c>
       <c r="G72" t="n">
-        <v>44.66549999999999</v>
+        <v>44.68766666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3099,9 +3103,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3116,22 +3118,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>44.68</v>
+        <v>44.67</v>
       </c>
       <c r="C73" t="n">
-        <v>44.68</v>
+        <v>44.67</v>
       </c>
       <c r="D73" t="n">
-        <v>44.68</v>
+        <v>44.67</v>
       </c>
       <c r="E73" t="n">
-        <v>44.68</v>
+        <v>44.67</v>
       </c>
       <c r="F73" t="n">
         <v>19</v>
       </c>
       <c r="G73" t="n">
-        <v>44.63849999999999</v>
+        <v>44.66549999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3140,9 +3142,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3160,19 +3160,19 @@
         <v>44.68</v>
       </c>
       <c r="C74" t="n">
-        <v>44.82</v>
+        <v>44.68</v>
       </c>
       <c r="D74" t="n">
-        <v>44.82</v>
+        <v>44.68</v>
       </c>
       <c r="E74" t="n">
         <v>44.68</v>
       </c>
       <c r="F74" t="n">
-        <v>4000</v>
+        <v>19</v>
       </c>
       <c r="G74" t="n">
-        <v>44.61433333333333</v>
+        <v>44.63849999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3181,9 +3181,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3198,22 +3196,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>44.65</v>
+        <v>44.68</v>
       </c>
       <c r="C75" t="n">
-        <v>44.29</v>
+        <v>44.82</v>
       </c>
       <c r="D75" t="n">
-        <v>44.65</v>
+        <v>44.82</v>
       </c>
       <c r="E75" t="n">
-        <v>44.29</v>
+        <v>44.68</v>
       </c>
       <c r="F75" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="G75" t="n">
-        <v>44.58583333333333</v>
+        <v>44.61433333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3222,9 +3220,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3239,22 +3235,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>44.82</v>
+        <v>44.65</v>
       </c>
       <c r="C76" t="n">
-        <v>44.82</v>
+        <v>44.29</v>
       </c>
       <c r="D76" t="n">
-        <v>44.82</v>
+        <v>44.65</v>
       </c>
       <c r="E76" t="n">
-        <v>44.82</v>
+        <v>44.29</v>
       </c>
       <c r="F76" t="n">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="G76" t="n">
-        <v>44.553</v>
+        <v>44.58583333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3263,9 +3259,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,22 +3274,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>44.3</v>
+        <v>44.82</v>
       </c>
       <c r="C77" t="n">
-        <v>44.7</v>
+        <v>44.82</v>
       </c>
       <c r="D77" t="n">
-        <v>44.7</v>
+        <v>44.82</v>
       </c>
       <c r="E77" t="n">
-        <v>44.21</v>
+        <v>44.82</v>
       </c>
       <c r="F77" t="n">
-        <v>2447.7894</v>
+        <v>19</v>
       </c>
       <c r="G77" t="n">
-        <v>44.528</v>
+        <v>44.553</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3304,9 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3321,22 +3313,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="D78" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="E78" t="n">
         <v>44.21</v>
       </c>
-      <c r="C78" t="n">
-        <v>44</v>
-      </c>
-      <c r="D78" t="n">
-        <v>44.21</v>
-      </c>
-      <c r="E78" t="n">
-        <v>44</v>
-      </c>
       <c r="F78" t="n">
-        <v>49104.4746</v>
+        <v>2447.7894</v>
       </c>
       <c r="G78" t="n">
-        <v>44.50966666666667</v>
+        <v>44.528</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3345,9 +3337,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3362,22 +3352,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>44.1</v>
+        <v>44.21</v>
       </c>
       <c r="C79" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="D79" t="n">
-        <v>44.1</v>
+        <v>44.21</v>
       </c>
       <c r="E79" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="F79" t="n">
-        <v>5165.083</v>
+        <v>49104.4746</v>
       </c>
       <c r="G79" t="n">
-        <v>44.473</v>
+        <v>44.50966666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3386,9 +3376,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3403,22 +3391,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>44.3</v>
+        <v>44.1</v>
       </c>
       <c r="C80" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="D80" t="n">
-        <v>44.3</v>
+        <v>44.1</v>
       </c>
       <c r="E80" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="F80" t="n">
-        <v>30</v>
+        <v>5165.083</v>
       </c>
       <c r="G80" t="n">
-        <v>44.43633333333333</v>
+        <v>44.473</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3427,9 +3415,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3444,22 +3430,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>44</v>
+        <v>44.3</v>
       </c>
       <c r="C81" t="n">
-        <v>44</v>
+        <v>43.7</v>
       </c>
       <c r="D81" t="n">
-        <v>44</v>
+        <v>44.3</v>
       </c>
       <c r="E81" t="n">
-        <v>44</v>
+        <v>43.7</v>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G81" t="n">
-        <v>44.408</v>
+        <v>44.43633333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3468,9 +3454,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3488,19 +3472,19 @@
         <v>44</v>
       </c>
       <c r="C82" t="n">
-        <v>43.5</v>
+        <v>44</v>
       </c>
       <c r="D82" t="n">
         <v>44</v>
       </c>
       <c r="E82" t="n">
-        <v>43.5</v>
+        <v>44</v>
       </c>
       <c r="F82" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>44.36633333333334</v>
+        <v>44.408</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3509,9 +3493,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3529,19 +3511,19 @@
         <v>44</v>
       </c>
       <c r="C83" t="n">
-        <v>43.22</v>
+        <v>43.5</v>
       </c>
       <c r="D83" t="n">
         <v>44</v>
       </c>
       <c r="E83" t="n">
-        <v>43.22</v>
+        <v>43.5</v>
       </c>
       <c r="F83" t="n">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="G83" t="n">
-        <v>44.32333333333333</v>
+        <v>44.36633333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3550,9 +3532,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3570,19 +3550,19 @@
         <v>44</v>
       </c>
       <c r="C84" t="n">
-        <v>44.5</v>
+        <v>43.22</v>
       </c>
       <c r="D84" t="n">
-        <v>44.5</v>
+        <v>44</v>
       </c>
       <c r="E84" t="n">
-        <v>44</v>
+        <v>43.22</v>
       </c>
       <c r="F84" t="n">
-        <v>634.4028505617978</v>
+        <v>240</v>
       </c>
       <c r="G84" t="n">
-        <v>44.30333333333333</v>
+        <v>44.32333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3591,9 +3571,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3608,22 +3586,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="C85" t="n">
-        <v>43.46</v>
+        <v>44.5</v>
       </c>
       <c r="D85" t="n">
-        <v>44.1</v>
+        <v>44.5</v>
       </c>
       <c r="E85" t="n">
-        <v>43.46</v>
+        <v>44</v>
       </c>
       <c r="F85" t="n">
-        <v>38</v>
+        <v>634.4028505617978</v>
       </c>
       <c r="G85" t="n">
-        <v>44.2865</v>
+        <v>44.30333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3632,9 +3610,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3649,22 +3625,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="C86" t="n">
-        <v>44.2</v>
+        <v>43.46</v>
       </c>
       <c r="D86" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="E86" t="n">
-        <v>44.2</v>
+        <v>43.46</v>
       </c>
       <c r="F86" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G86" t="n">
-        <v>44.26649999999999</v>
+        <v>44.2865</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3673,9 +3649,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3690,22 +3664,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="C87" t="n">
-        <v>44.79</v>
+        <v>44.2</v>
       </c>
       <c r="D87" t="n">
-        <v>44.79</v>
+        <v>44.2</v>
       </c>
       <c r="E87" t="n">
         <v>44.2</v>
       </c>
       <c r="F87" t="n">
-        <v>10728.511</v>
+        <v>12</v>
       </c>
       <c r="G87" t="n">
-        <v>44.253</v>
+        <v>44.26649999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3714,9 +3688,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3731,22 +3703,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>44.69</v>
+        <v>44.3</v>
       </c>
       <c r="C88" t="n">
-        <v>45.3</v>
+        <v>44.79</v>
       </c>
       <c r="D88" t="n">
-        <v>45.45</v>
+        <v>44.79</v>
       </c>
       <c r="E88" t="n">
-        <v>43.71</v>
+        <v>44.2</v>
       </c>
       <c r="F88" t="n">
-        <v>99835.38280000001</v>
+        <v>10728.511</v>
       </c>
       <c r="G88" t="n">
-        <v>44.2525</v>
+        <v>44.253</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3755,9 +3727,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3772,22 +3742,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>44.69</v>
+      </c>
+      <c r="C89" t="n">
         <v>45.3</v>
       </c>
-      <c r="C89" t="n">
-        <v>44</v>
-      </c>
       <c r="D89" t="n">
-        <v>46.39</v>
+        <v>45.45</v>
       </c>
       <c r="E89" t="n">
-        <v>43.82</v>
+        <v>43.71</v>
       </c>
       <c r="F89" t="n">
-        <v>40003.2445</v>
+        <v>99835.38280000001</v>
       </c>
       <c r="G89" t="n">
-        <v>44.22466666666666</v>
+        <v>44.2525</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3796,9 +3766,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3813,22 +3781,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>45.85</v>
+        <v>45.3</v>
       </c>
       <c r="C90" t="n">
-        <v>45.4</v>
+        <v>44</v>
       </c>
       <c r="D90" t="n">
-        <v>45.85</v>
+        <v>46.39</v>
       </c>
       <c r="E90" t="n">
-        <v>45.1</v>
+        <v>43.82</v>
       </c>
       <c r="F90" t="n">
-        <v>137</v>
+        <v>40003.2445</v>
       </c>
       <c r="G90" t="n">
-        <v>44.22450000000001</v>
+        <v>44.22466666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3837,9 +3805,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3854,22 +3820,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>44.8</v>
+        <v>45.85</v>
       </c>
       <c r="C91" t="n">
-        <v>45.46</v>
+        <v>45.4</v>
       </c>
       <c r="D91" t="n">
-        <v>45.46</v>
+        <v>45.85</v>
       </c>
       <c r="E91" t="n">
-        <v>44.05</v>
+        <v>45.1</v>
       </c>
       <c r="F91" t="n">
-        <v>10820</v>
+        <v>137</v>
       </c>
       <c r="G91" t="n">
-        <v>44.22933333333334</v>
+        <v>44.22450000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3878,9 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3895,22 +3859,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>45.18</v>
+        <v>44.8</v>
       </c>
       <c r="C92" t="n">
-        <v>45.18</v>
+        <v>45.46</v>
       </c>
       <c r="D92" t="n">
-        <v>45.18</v>
+        <v>45.46</v>
       </c>
       <c r="E92" t="n">
-        <v>45.18</v>
+        <v>44.05</v>
       </c>
       <c r="F92" t="n">
-        <v>240</v>
+        <v>10820</v>
       </c>
       <c r="G92" t="n">
-        <v>44.23116666666667</v>
+        <v>44.22933333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3919,9 +3883,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3936,22 +3898,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>44.5</v>
+        <v>45.18</v>
       </c>
       <c r="C93" t="n">
-        <v>44.04</v>
+        <v>45.18</v>
       </c>
       <c r="D93" t="n">
-        <v>44.5</v>
+        <v>45.18</v>
       </c>
       <c r="E93" t="n">
-        <v>44.04</v>
+        <v>45.18</v>
       </c>
       <c r="F93" t="n">
-        <v>50000</v>
+        <v>240</v>
       </c>
       <c r="G93" t="n">
-        <v>44.21566666666667</v>
+        <v>44.23116666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3960,9 +3922,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3977,22 +3937,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="C94" t="n">
-        <v>44.7</v>
+        <v>44.04</v>
       </c>
       <c r="D94" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="E94" t="n">
-        <v>44.7</v>
+        <v>44.04</v>
       </c>
       <c r="F94" t="n">
-        <v>12</v>
+        <v>50000</v>
       </c>
       <c r="G94" t="n">
-        <v>44.20766666666667</v>
+        <v>44.21566666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4001,9 +3961,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,22 +3976,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="C95" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="D95" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="E95" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="F95" t="n">
         <v>12</v>
       </c>
       <c r="G95" t="n">
-        <v>44.22933333333334</v>
+        <v>44.20766666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4042,9 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4059,22 +4015,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>44.4</v>
+        <v>44.8</v>
       </c>
       <c r="C96" t="n">
-        <v>44.4</v>
+        <v>44.8</v>
       </c>
       <c r="D96" t="n">
-        <v>44.4</v>
+        <v>44.8</v>
       </c>
       <c r="E96" t="n">
-        <v>44.4</v>
+        <v>44.8</v>
       </c>
       <c r="F96" t="n">
-        <v>2000</v>
+        <v>12</v>
       </c>
       <c r="G96" t="n">
-        <v>44.24266666666667</v>
+        <v>44.22933333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4083,9 +4039,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4100,22 +4054,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>44.7</v>
+        <v>44.4</v>
       </c>
       <c r="C97" t="n">
-        <v>44.7</v>
+        <v>44.4</v>
       </c>
       <c r="D97" t="n">
-        <v>44.7</v>
+        <v>44.4</v>
       </c>
       <c r="E97" t="n">
-        <v>44.7</v>
+        <v>44.4</v>
       </c>
       <c r="F97" t="n">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="G97" t="n">
-        <v>44.271</v>
+        <v>44.24266666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4124,9 +4078,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4141,22 +4093,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="C98" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="D98" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="E98" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="F98" t="n">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="G98" t="n">
-        <v>44.31216666666668</v>
+        <v>44.271</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4165,9 +4117,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4182,22 +4132,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="C99" t="n">
         <v>44.8</v>
       </c>
-      <c r="C99" t="n">
-        <v>44.9</v>
-      </c>
       <c r="D99" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="E99" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="F99" t="n">
-        <v>5639</v>
+        <v>261</v>
       </c>
       <c r="G99" t="n">
-        <v>44.33533333333334</v>
+        <v>44.31216666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4206,9 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4223,7 +4171,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="C100" t="n">
         <v>44.9</v>
@@ -4232,13 +4180,13 @@
         <v>44.9</v>
       </c>
       <c r="E100" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="F100" t="n">
-        <v>4000</v>
+        <v>5639</v>
       </c>
       <c r="G100" t="n">
-        <v>44.33383333333335</v>
+        <v>44.33533333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4247,9 +4195,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4276,10 +4222,10 @@
         <v>44.9</v>
       </c>
       <c r="F101" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="G101" t="n">
-        <v>44.34150000000001</v>
+        <v>44.33383333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4288,9 +4234,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>43.51</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4308,36 +4252,73 @@
         <v>44.9</v>
       </c>
       <c r="C102" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="D102" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="E102" t="n">
         <v>44.9</v>
       </c>
       <c r="F102" t="n">
+        <v>400</v>
+      </c>
+      <c r="G102" t="n">
+        <v>44.34150000000001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C103" t="n">
+        <v>45</v>
+      </c>
+      <c r="D103" t="n">
+        <v>45</v>
+      </c>
+      <c r="E103" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F103" t="n">
         <v>3900</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G103" t="n">
         <v>44.35300000000002</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest PAY.xlsx
+++ b/BackTest/2020-01-13 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48.1</v>
+        <v>43.91</v>
       </c>
       <c r="C2" t="n">
-        <v>48.08</v>
+        <v>43.9</v>
       </c>
       <c r="D2" t="n">
-        <v>48.2</v>
+        <v>43.91</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>43.9</v>
       </c>
       <c r="F2" t="n">
-        <v>58897.2525</v>
+        <v>17000</v>
       </c>
       <c r="G2" t="n">
-        <v>46.38733333333334</v>
+        <v>-44239.26787680104</v>
       </c>
       <c r="H2" t="n">
-        <v>45.1741666666667</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48.08</v>
+        <v>44.01</v>
       </c>
       <c r="C3" t="n">
-        <v>48.8</v>
+        <v>43.9</v>
       </c>
       <c r="D3" t="n">
-        <v>48.8</v>
+        <v>44.01</v>
       </c>
       <c r="E3" t="n">
-        <v>48.08</v>
+        <v>43.9</v>
       </c>
       <c r="F3" t="n">
-        <v>51602.0837</v>
+        <v>3345.4116</v>
       </c>
       <c r="G3" t="n">
-        <v>46.60733333333334</v>
+        <v>-44239.26787680104</v>
       </c>
       <c r="H3" t="n">
-        <v>45.23083333333337</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +509,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48.7</v>
+        <v>43.91</v>
       </c>
       <c r="C4" t="n">
-        <v>48.7</v>
+        <v>44.87</v>
       </c>
       <c r="D4" t="n">
-        <v>48.7</v>
+        <v>44.87</v>
       </c>
       <c r="E4" t="n">
-        <v>48.7</v>
+        <v>43.91</v>
       </c>
       <c r="F4" t="n">
-        <v>10524.7849</v>
+        <v>20362.75</v>
       </c>
       <c r="G4" t="n">
-        <v>46.84733333333335</v>
+        <v>-23876.51787680104</v>
       </c>
       <c r="H4" t="n">
-        <v>45.28583333333336</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>43.9</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +550,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48.8</v>
+        <v>44.59</v>
       </c>
       <c r="C5" t="n">
-        <v>48.96</v>
+        <v>44.59</v>
       </c>
       <c r="D5" t="n">
-        <v>49.2</v>
+        <v>44.59</v>
       </c>
       <c r="E5" t="n">
-        <v>48.3</v>
+        <v>44.59</v>
       </c>
       <c r="F5" t="n">
-        <v>90472.171</v>
+        <v>3262</v>
       </c>
       <c r="G5" t="n">
-        <v>47.11800000000002</v>
+        <v>-27138.51787680104</v>
       </c>
       <c r="H5" t="n">
-        <v>45.35183333333337</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +589,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.2</v>
+        <v>44.6</v>
       </c>
       <c r="C6" t="n">
-        <v>48.42</v>
+        <v>44.6</v>
       </c>
       <c r="D6" t="n">
-        <v>49.2</v>
+        <v>44.6</v>
       </c>
       <c r="E6" t="n">
-        <v>48.31</v>
+        <v>44.6</v>
       </c>
       <c r="F6" t="n">
-        <v>56233.5457</v>
+        <v>3290</v>
       </c>
       <c r="G6" t="n">
-        <v>47.29933333333334</v>
+        <v>-23848.51787680104</v>
       </c>
       <c r="H6" t="n">
-        <v>45.4151666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +628,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48.95</v>
+        <v>44.6</v>
       </c>
       <c r="C7" t="n">
-        <v>48.01</v>
+        <v>44.6</v>
       </c>
       <c r="D7" t="n">
-        <v>48.95</v>
+        <v>44.6</v>
       </c>
       <c r="E7" t="n">
-        <v>48.01</v>
+        <v>44.6</v>
       </c>
       <c r="F7" t="n">
-        <v>67324.0603</v>
+        <v>19019.6156</v>
       </c>
       <c r="G7" t="n">
-        <v>47.53933333333335</v>
+        <v>-23848.51787680104</v>
       </c>
       <c r="H7" t="n">
-        <v>45.45533333333337</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>48.01</v>
+        <v>44.59</v>
       </c>
       <c r="C8" t="n">
-        <v>48.01</v>
+        <v>44.59</v>
       </c>
       <c r="D8" t="n">
-        <v>48.01</v>
+        <v>44.59</v>
       </c>
       <c r="E8" t="n">
-        <v>47.6</v>
+        <v>44.59</v>
       </c>
       <c r="F8" t="n">
-        <v>29048.1525</v>
+        <v>4578.8787</v>
       </c>
       <c r="G8" t="n">
-        <v>47.70666666666668</v>
+        <v>-28427.39657680105</v>
       </c>
       <c r="H8" t="n">
-        <v>45.50550000000005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +706,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>47.9</v>
+        <v>44.8</v>
       </c>
       <c r="C9" t="n">
-        <v>47.6</v>
+        <v>44.9</v>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9" t="n">
-        <v>47.6</v>
+        <v>44.8</v>
       </c>
       <c r="F9" t="n">
-        <v>54983.7735</v>
+        <v>53760.9114</v>
       </c>
       <c r="G9" t="n">
-        <v>47.84666666666668</v>
+        <v>25333.51482319895</v>
       </c>
       <c r="H9" t="n">
-        <v>45.54883333333338</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>44.59</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +747,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>47.58</v>
+        <v>44.9</v>
       </c>
       <c r="C10" t="n">
-        <v>47.5</v>
+        <v>44.9</v>
       </c>
       <c r="D10" t="n">
-        <v>47.58</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>46.59</v>
+        <v>44.9</v>
       </c>
       <c r="F10" t="n">
-        <v>25991.5064</v>
+        <v>11712.14</v>
       </c>
       <c r="G10" t="n">
-        <v>47.97333333333334</v>
+        <v>25333.51482319895</v>
       </c>
       <c r="H10" t="n">
-        <v>45.59050000000004</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +786,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>46.8</v>
+        <v>44.9</v>
       </c>
       <c r="C11" t="n">
-        <v>47.06</v>
+        <v>44.9</v>
       </c>
       <c r="D11" t="n">
-        <v>47.5</v>
+        <v>44.9</v>
       </c>
       <c r="E11" t="n">
-        <v>46.59</v>
+        <v>44.9</v>
       </c>
       <c r="F11" t="n">
-        <v>12656.7849</v>
+        <v>197.91</v>
       </c>
       <c r="G11" t="n">
-        <v>47.97866666666667</v>
+        <v>25333.51482319895</v>
       </c>
       <c r="H11" t="n">
-        <v>45.62650000000004</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +825,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>46.79</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>45.8</v>
+        <v>45.3</v>
       </c>
       <c r="D12" t="n">
-        <v>46.79</v>
+        <v>45.4</v>
       </c>
       <c r="E12" t="n">
-        <v>45.8</v>
+        <v>45</v>
       </c>
       <c r="F12" t="n">
-        <v>37414.5486</v>
+        <v>57970.5129</v>
       </c>
       <c r="G12" t="n">
-        <v>47.89866666666667</v>
+        <v>83304.02772319896</v>
       </c>
       <c r="H12" t="n">
-        <v>45.62983333333338</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +864,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>46.3</v>
+        <v>45.3</v>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>45.3</v>
       </c>
       <c r="D13" t="n">
-        <v>46.3</v>
+        <v>45.59</v>
       </c>
       <c r="E13" t="n">
-        <v>45.28</v>
+        <v>45.3</v>
       </c>
       <c r="F13" t="n">
-        <v>59193.6256</v>
+        <v>8154.9967</v>
       </c>
       <c r="G13" t="n">
-        <v>47.832</v>
+        <v>83304.02772319896</v>
       </c>
       <c r="H13" t="n">
-        <v>45.64983333333338</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +903,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46</v>
+        <v>45.45</v>
       </c>
       <c r="C14" t="n">
-        <v>46.3</v>
+        <v>45.4</v>
       </c>
       <c r="D14" t="n">
-        <v>46.3</v>
+        <v>45.45</v>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
+        <v>45.35</v>
       </c>
       <c r="F14" t="n">
-        <v>44473.0054</v>
+        <v>2591</v>
       </c>
       <c r="G14" t="n">
-        <v>47.712</v>
+        <v>85895.02772319896</v>
       </c>
       <c r="H14" t="n">
-        <v>45.65983333333338</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +942,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>46.27</v>
+        <v>45.4</v>
       </c>
       <c r="C15" t="n">
-        <v>46.27</v>
+        <v>45.5</v>
       </c>
       <c r="D15" t="n">
-        <v>46.27</v>
+        <v>45.79</v>
       </c>
       <c r="E15" t="n">
-        <v>46.27</v>
+        <v>45.4</v>
       </c>
       <c r="F15" t="n">
-        <v>3122.0853</v>
+        <v>89136.1767</v>
       </c>
       <c r="G15" t="n">
-        <v>47.534</v>
+        <v>175031.2044231989</v>
       </c>
       <c r="H15" t="n">
-        <v>45.68100000000005</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +981,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="C16" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="D16" t="n">
-        <v>46.17</v>
+        <v>45.5</v>
       </c>
       <c r="E16" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="F16" t="n">
-        <v>27351.2979</v>
+        <v>1376.44</v>
       </c>
       <c r="G16" t="n">
-        <v>47.434</v>
+        <v>175031.2044231989</v>
       </c>
       <c r="H16" t="n">
-        <v>45.69850000000005</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1011,33 +1023,34 @@
         <v>45.8</v>
       </c>
       <c r="C17" t="n">
-        <v>46.79</v>
+        <v>45.5</v>
       </c>
       <c r="D17" t="n">
-        <v>46.79</v>
+        <v>45.8</v>
       </c>
       <c r="E17" t="n">
-        <v>44.62</v>
+        <v>45.5</v>
       </c>
       <c r="F17" t="n">
-        <v>20979.4011</v>
+        <v>1889.562</v>
       </c>
       <c r="G17" t="n">
-        <v>47.34799999999999</v>
+        <v>175031.2044231989</v>
       </c>
       <c r="H17" t="n">
-        <v>45.72916666666672</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1059,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>46.2</v>
+        <v>45.5</v>
       </c>
       <c r="C18" t="n">
-        <v>46.2</v>
+        <v>45.1</v>
       </c>
       <c r="D18" t="n">
-        <v>46.2</v>
+        <v>45.8</v>
       </c>
       <c r="E18" t="n">
-        <v>46.2</v>
+        <v>45.1</v>
       </c>
       <c r="F18" t="n">
-        <v>66</v>
+        <v>38413.7527</v>
       </c>
       <c r="G18" t="n">
-        <v>47.17466666666667</v>
+        <v>136617.4517231989</v>
       </c>
       <c r="H18" t="n">
-        <v>45.75083333333338</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1098,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>46.68</v>
+        <v>45.78</v>
       </c>
       <c r="C19" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="D19" t="n">
-        <v>46.68</v>
+        <v>45.78</v>
       </c>
       <c r="E19" t="n">
         <v>44.9</v>
       </c>
       <c r="F19" t="n">
-        <v>5734.2237</v>
+        <v>22412.07</v>
       </c>
       <c r="G19" t="n">
-        <v>46.93466666666666</v>
+        <v>114205.3817231989</v>
       </c>
       <c r="H19" t="n">
-        <v>45.75550000000005</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1137,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>46.68</v>
+        <v>45.11</v>
       </c>
       <c r="C20" t="n">
-        <v>46.1</v>
+        <v>45.7</v>
       </c>
       <c r="D20" t="n">
-        <v>46.68</v>
+        <v>45.7</v>
       </c>
       <c r="E20" t="n">
-        <v>44.33</v>
+        <v>44.9</v>
       </c>
       <c r="F20" t="n">
-        <v>40537.3895</v>
+        <v>11398.1307</v>
       </c>
       <c r="G20" t="n">
-        <v>46.744</v>
+        <v>125603.5124231989</v>
       </c>
       <c r="H20" t="n">
-        <v>45.78400000000004</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1176,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45.8</v>
+        <v>44.83</v>
       </c>
       <c r="C21" t="n">
-        <v>45.9</v>
+        <v>44.41</v>
       </c>
       <c r="D21" t="n">
-        <v>46.19</v>
+        <v>44.83</v>
       </c>
       <c r="E21" t="n">
-        <v>45.1</v>
+        <v>44.41</v>
       </c>
       <c r="F21" t="n">
-        <v>7425</v>
+        <v>17107.666</v>
       </c>
       <c r="G21" t="n">
-        <v>46.576</v>
+        <v>108495.8464231989</v>
       </c>
       <c r="H21" t="n">
-        <v>45.80066666666671</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1215,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>45.3</v>
+        <v>44.4</v>
       </c>
       <c r="C22" t="n">
-        <v>45.7</v>
+        <v>45.5</v>
       </c>
       <c r="D22" t="n">
-        <v>45.8</v>
+        <v>45.5</v>
       </c>
       <c r="E22" t="n">
-        <v>45.3</v>
+        <v>44.4</v>
       </c>
       <c r="F22" t="n">
-        <v>44023.8804</v>
+        <v>786.395</v>
       </c>
       <c r="G22" t="n">
-        <v>46.422</v>
+        <v>109282.2414231989</v>
       </c>
       <c r="H22" t="n">
-        <v>45.81400000000004</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1254,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45.9</v>
+        <v>45.4</v>
       </c>
       <c r="C23" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="E23" t="n">
-        <v>45.9</v>
+        <v>45.4</v>
       </c>
       <c r="F23" t="n">
-        <v>82</v>
+        <v>16466.7184</v>
       </c>
       <c r="G23" t="n">
-        <v>46.288</v>
+        <v>109282.2414231989</v>
       </c>
       <c r="H23" t="n">
-        <v>45.84450000000004</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1293,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>45.1</v>
+        <v>45.6</v>
       </c>
       <c r="C24" t="n">
-        <v>45.8</v>
+        <v>45.6</v>
       </c>
       <c r="D24" t="n">
-        <v>45.8</v>
+        <v>45.6</v>
       </c>
       <c r="E24" t="n">
-        <v>44.3</v>
+        <v>45.6</v>
       </c>
       <c r="F24" t="n">
-        <v>17540.6715</v>
+        <v>4600</v>
       </c>
       <c r="G24" t="n">
-        <v>46.168</v>
+        <v>113882.2414231989</v>
       </c>
       <c r="H24" t="n">
-        <v>45.87166666666671</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1332,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>44.31</v>
+        <v>45.6</v>
       </c>
       <c r="C25" t="n">
-        <v>45.7</v>
+        <v>46.98</v>
       </c>
       <c r="D25" t="n">
-        <v>45.7</v>
+        <v>46.98</v>
       </c>
       <c r="E25" t="n">
-        <v>44.31</v>
+        <v>45.6</v>
       </c>
       <c r="F25" t="n">
-        <v>17552.6783</v>
+        <v>81551.9056</v>
       </c>
       <c r="G25" t="n">
-        <v>46.048</v>
+        <v>195434.1470231989</v>
       </c>
       <c r="H25" t="n">
-        <v>45.89716666666671</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1371,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44.42</v>
+        <v>46.88</v>
       </c>
       <c r="C26" t="n">
-        <v>44.47</v>
+        <v>47</v>
       </c>
       <c r="D26" t="n">
-        <v>44.47</v>
+        <v>47.2</v>
       </c>
       <c r="E26" t="n">
-        <v>44.42</v>
+        <v>46</v>
       </c>
       <c r="F26" t="n">
-        <v>104</v>
+        <v>40019.7812</v>
       </c>
       <c r="G26" t="n">
-        <v>45.87533333333334</v>
+        <v>235453.9282231989</v>
       </c>
       <c r="H26" t="n">
-        <v>45.9021666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1410,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44.48</v>
+        <v>46.4</v>
       </c>
       <c r="C27" t="n">
-        <v>45.4</v>
+        <v>47</v>
       </c>
       <c r="D27" t="n">
-        <v>45.4</v>
+        <v>47.3</v>
       </c>
       <c r="E27" t="n">
-        <v>44.48</v>
+        <v>46.3</v>
       </c>
       <c r="F27" t="n">
-        <v>332</v>
+        <v>127222.6631</v>
       </c>
       <c r="G27" t="n">
-        <v>45.84866666666667</v>
+        <v>235453.9282231989</v>
       </c>
       <c r="H27" t="n">
-        <v>45.9226666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1449,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>45.6</v>
+        <v>47</v>
       </c>
       <c r="C28" t="n">
-        <v>45.6</v>
+        <v>48.1</v>
       </c>
       <c r="D28" t="n">
-        <v>45.6</v>
+        <v>48.1</v>
       </c>
       <c r="E28" t="n">
-        <v>45.6</v>
+        <v>47</v>
       </c>
       <c r="F28" t="n">
-        <v>66</v>
+        <v>132833.4835</v>
       </c>
       <c r="G28" t="n">
-        <v>45.82200000000001</v>
+        <v>368287.411723199</v>
       </c>
       <c r="H28" t="n">
-        <v>45.94650000000003</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1488,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>45.53</v>
+        <v>47.5</v>
       </c>
       <c r="C29" t="n">
-        <v>45.33</v>
+        <v>48.94</v>
       </c>
       <c r="D29" t="n">
-        <v>45.53</v>
+        <v>48.94</v>
       </c>
       <c r="E29" t="n">
-        <v>45.33</v>
+        <v>47.43</v>
       </c>
       <c r="F29" t="n">
-        <v>67</v>
+        <v>194589.0117</v>
       </c>
       <c r="G29" t="n">
-        <v>45.75733333333335</v>
+        <v>562876.423423199</v>
       </c>
       <c r="H29" t="n">
-        <v>45.96750000000002</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1527,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>45.33</v>
+        <v>48</v>
       </c>
       <c r="C30" t="n">
-        <v>45.67</v>
+        <v>47.5</v>
       </c>
       <c r="D30" t="n">
-        <v>45.68</v>
+        <v>48.94</v>
       </c>
       <c r="E30" t="n">
-        <v>45.33</v>
+        <v>47.5</v>
       </c>
       <c r="F30" t="n">
-        <v>1156</v>
+        <v>58246.3561</v>
       </c>
       <c r="G30" t="n">
-        <v>45.71733333333335</v>
+        <v>504630.067323199</v>
       </c>
       <c r="H30" t="n">
-        <v>45.99250000000003</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1566,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>45.21</v>
+        <v>48.1</v>
       </c>
       <c r="C31" t="n">
-        <v>45.41</v>
+        <v>48.08</v>
       </c>
       <c r="D31" t="n">
-        <v>45.49</v>
+        <v>48.2</v>
       </c>
       <c r="E31" t="n">
-        <v>45.1</v>
+        <v>48</v>
       </c>
       <c r="F31" t="n">
-        <v>4073</v>
+        <v>58897.2525</v>
       </c>
       <c r="G31" t="n">
-        <v>45.67800000000001</v>
+        <v>563527.319823199</v>
       </c>
       <c r="H31" t="n">
-        <v>46.01766666666669</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1605,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>45.17</v>
+        <v>48.08</v>
       </c>
       <c r="C32" t="n">
-        <v>45.17</v>
+        <v>48.8</v>
       </c>
       <c r="D32" t="n">
-        <v>45.17</v>
+        <v>48.8</v>
       </c>
       <c r="E32" t="n">
-        <v>45.17</v>
+        <v>48.08</v>
       </c>
       <c r="F32" t="n">
-        <v>430</v>
+        <v>51602.0837</v>
       </c>
       <c r="G32" t="n">
-        <v>45.57000000000001</v>
+        <v>615129.4035231989</v>
       </c>
       <c r="H32" t="n">
-        <v>46.03883333333336</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1644,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>45.19</v>
+        <v>48.7</v>
       </c>
       <c r="C33" t="n">
-        <v>45.07</v>
+        <v>48.7</v>
       </c>
       <c r="D33" t="n">
-        <v>45.2</v>
+        <v>48.7</v>
       </c>
       <c r="E33" t="n">
-        <v>45.07</v>
+        <v>48.7</v>
       </c>
       <c r="F33" t="n">
-        <v>542</v>
+        <v>10524.7849</v>
       </c>
       <c r="G33" t="n">
-        <v>45.49466666666668</v>
+        <v>604604.6186231989</v>
       </c>
       <c r="H33" t="n">
-        <v>46.05833333333336</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1683,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>44.99</v>
+        <v>48.8</v>
       </c>
       <c r="C34" t="n">
-        <v>44.97</v>
+        <v>48.96</v>
       </c>
       <c r="D34" t="n">
-        <v>44.99</v>
+        <v>49.2</v>
       </c>
       <c r="E34" t="n">
-        <v>44.97</v>
+        <v>48.3</v>
       </c>
       <c r="F34" t="n">
-        <v>47</v>
+        <v>90472.171</v>
       </c>
       <c r="G34" t="n">
-        <v>45.48600000000001</v>
+        <v>695076.7896231989</v>
       </c>
       <c r="H34" t="n">
-        <v>46.07616666666669</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,74 +1722,70 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>45.09</v>
+        <v>49.2</v>
       </c>
       <c r="C35" t="n">
-        <v>45.18</v>
+        <v>48.42</v>
       </c>
       <c r="D35" t="n">
-        <v>45.18</v>
+        <v>49.2</v>
       </c>
       <c r="E35" t="n">
-        <v>45.09</v>
+        <v>48.31</v>
       </c>
       <c r="F35" t="n">
-        <v>700</v>
+        <v>56233.5457</v>
       </c>
       <c r="G35" t="n">
-        <v>45.42466666666667</v>
+        <v>638843.2439231989</v>
       </c>
       <c r="H35" t="n">
-        <v>46.08133333333335</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>44.95</v>
+        <v>48.95</v>
       </c>
       <c r="C36" t="n">
-        <v>43.5</v>
+        <v>48.01</v>
       </c>
       <c r="D36" t="n">
-        <v>44.95</v>
+        <v>48.95</v>
       </c>
       <c r="E36" t="n">
-        <v>43.5</v>
+        <v>48.01</v>
       </c>
       <c r="F36" t="n">
-        <v>38761.7081</v>
+        <v>67324.0603</v>
       </c>
       <c r="G36" t="n">
-        <v>45.26466666666668</v>
+        <v>571519.1836231989</v>
       </c>
       <c r="H36" t="n">
-        <v>46.06316666666668</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1794,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>43.87</v>
+        <v>48.01</v>
       </c>
       <c r="C37" t="n">
-        <v>43.6</v>
+        <v>48.01</v>
       </c>
       <c r="D37" t="n">
-        <v>44.89</v>
+        <v>48.01</v>
       </c>
       <c r="E37" t="n">
-        <v>43.5</v>
+        <v>47.6</v>
       </c>
       <c r="F37" t="n">
-        <v>61785.2864</v>
+        <v>29048.1525</v>
       </c>
       <c r="G37" t="n">
-        <v>45.12466666666668</v>
+        <v>571519.1836231989</v>
       </c>
       <c r="H37" t="n">
-        <v>46.04650000000002</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1829,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>43.5</v>
+        <v>47.9</v>
       </c>
       <c r="C38" t="n">
-        <v>43</v>
+        <v>47.6</v>
       </c>
       <c r="D38" t="n">
-        <v>43.5</v>
+        <v>48</v>
       </c>
       <c r="E38" t="n">
-        <v>43</v>
+        <v>47.6</v>
       </c>
       <c r="F38" t="n">
-        <v>5300</v>
+        <v>54983.7735</v>
       </c>
       <c r="G38" t="n">
-        <v>44.92466666666667</v>
+        <v>516535.4101231989</v>
       </c>
       <c r="H38" t="n">
-        <v>46.01983333333335</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1864,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>43</v>
+        <v>47.58</v>
       </c>
       <c r="C39" t="n">
-        <v>42.33</v>
+        <v>47.5</v>
       </c>
       <c r="D39" t="n">
-        <v>43</v>
+        <v>47.58</v>
       </c>
       <c r="E39" t="n">
-        <v>42.33</v>
+        <v>46.59</v>
       </c>
       <c r="F39" t="n">
-        <v>12836.3583</v>
+        <v>25991.5064</v>
       </c>
       <c r="G39" t="n">
-        <v>44.69333333333335</v>
+        <v>490543.9037231989</v>
       </c>
       <c r="H39" t="n">
-        <v>45.98216666666668</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1899,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>43.11</v>
+        <v>46.8</v>
       </c>
       <c r="C40" t="n">
-        <v>43.51</v>
+        <v>47.06</v>
       </c>
       <c r="D40" t="n">
-        <v>43.51</v>
+        <v>47.5</v>
       </c>
       <c r="E40" t="n">
-        <v>43.11</v>
+        <v>46.59</v>
       </c>
       <c r="F40" t="n">
-        <v>4200</v>
+        <v>12656.7849</v>
       </c>
       <c r="G40" t="n">
-        <v>44.54733333333334</v>
+        <v>477887.1188231988</v>
       </c>
       <c r="H40" t="n">
-        <v>45.95900000000002</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1934,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>43.61</v>
+        <v>46.79</v>
       </c>
       <c r="C41" t="n">
-        <v>44.99</v>
+        <v>45.8</v>
       </c>
       <c r="D41" t="n">
-        <v>44.99</v>
+        <v>46.79</v>
       </c>
       <c r="E41" t="n">
-        <v>43.61</v>
+        <v>45.8</v>
       </c>
       <c r="F41" t="n">
-        <v>9087</v>
+        <v>37414.5486</v>
       </c>
       <c r="G41" t="n">
-        <v>44.58200000000001</v>
+        <v>440472.5702231989</v>
       </c>
       <c r="H41" t="n">
-        <v>45.96050000000001</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1969,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>43.5</v>
+        <v>46.3</v>
       </c>
       <c r="C42" t="n">
-        <v>44.44</v>
+        <v>46</v>
       </c>
       <c r="D42" t="n">
-        <v>44.44</v>
+        <v>46.3</v>
       </c>
       <c r="E42" t="n">
-        <v>43.5</v>
+        <v>45.28</v>
       </c>
       <c r="F42" t="n">
-        <v>7939.8573</v>
+        <v>59193.6256</v>
       </c>
       <c r="G42" t="n">
-        <v>44.51800000000001</v>
+        <v>499666.1958231989</v>
       </c>
       <c r="H42" t="n">
-        <v>45.95283333333334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2004,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>44.31</v>
+        <v>46</v>
       </c>
       <c r="C43" t="n">
-        <v>44.31</v>
+        <v>46.3</v>
       </c>
       <c r="D43" t="n">
-        <v>44.31</v>
+        <v>46.3</v>
       </c>
       <c r="E43" t="n">
-        <v>44.31</v>
+        <v>46</v>
       </c>
       <c r="F43" t="n">
-        <v>351.5016</v>
+        <v>44473.0054</v>
       </c>
       <c r="G43" t="n">
-        <v>44.43200000000001</v>
+        <v>544139.2012231989</v>
       </c>
       <c r="H43" t="n">
-        <v>45.93633333333334</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2039,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>43.5</v>
+        <v>46.27</v>
       </c>
       <c r="C44" t="n">
-        <v>44.69</v>
+        <v>46.27</v>
       </c>
       <c r="D44" t="n">
-        <v>44.69</v>
+        <v>46.27</v>
       </c>
       <c r="E44" t="n">
-        <v>42.51</v>
+        <v>46.27</v>
       </c>
       <c r="F44" t="n">
-        <v>4019.8837</v>
+        <v>3122.0853</v>
       </c>
       <c r="G44" t="n">
-        <v>44.38933333333333</v>
+        <v>541017.1159231989</v>
       </c>
       <c r="H44" t="n">
-        <v>45.92616666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2074,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>43.7</v>
+        <v>45.3</v>
       </c>
       <c r="C45" t="n">
-        <v>44.38</v>
+        <v>46</v>
       </c>
       <c r="D45" t="n">
-        <v>44.49</v>
+        <v>46.17</v>
       </c>
       <c r="E45" t="n">
-        <v>43.7</v>
+        <v>45.3</v>
       </c>
       <c r="F45" t="n">
-        <v>23514.1518</v>
+        <v>27351.2979</v>
       </c>
       <c r="G45" t="n">
-        <v>44.30333333333333</v>
+        <v>513665.8180231989</v>
       </c>
       <c r="H45" t="n">
-        <v>45.90916666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2109,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>44.38</v>
+        <v>45.8</v>
       </c>
       <c r="C46" t="n">
-        <v>44.49</v>
+        <v>46.79</v>
       </c>
       <c r="D46" t="n">
-        <v>44.49</v>
+        <v>46.79</v>
       </c>
       <c r="E46" t="n">
-        <v>43.3</v>
+        <v>44.62</v>
       </c>
       <c r="F46" t="n">
-        <v>17287.0899</v>
+        <v>20979.4011</v>
       </c>
       <c r="G46" t="n">
-        <v>44.242</v>
+        <v>534645.2191231989</v>
       </c>
       <c r="H46" t="n">
-        <v>45.89233333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2144,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>44.61</v>
+        <v>46.2</v>
       </c>
       <c r="C47" t="n">
-        <v>44.3</v>
+        <v>46.2</v>
       </c>
       <c r="D47" t="n">
-        <v>44.61</v>
+        <v>46.2</v>
       </c>
       <c r="E47" t="n">
-        <v>43.5</v>
+        <v>46.2</v>
       </c>
       <c r="F47" t="n">
-        <v>5834.93</v>
+        <v>66</v>
       </c>
       <c r="G47" t="n">
-        <v>44.184</v>
+        <v>534579.2191231989</v>
       </c>
       <c r="H47" t="n">
-        <v>45.87233333333334</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2179,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>43.9</v>
+        <v>46.68</v>
       </c>
       <c r="C48" t="n">
-        <v>44.5</v>
+        <v>45.1</v>
       </c>
       <c r="D48" t="n">
-        <v>44.5</v>
+        <v>46.68</v>
       </c>
       <c r="E48" t="n">
-        <v>43.6</v>
+        <v>44.9</v>
       </c>
       <c r="F48" t="n">
-        <v>15206.7216</v>
+        <v>5734.2237</v>
       </c>
       <c r="G48" t="n">
-        <v>44.146</v>
+        <v>528844.9954231989</v>
       </c>
       <c r="H48" t="n">
-        <v>45.85566666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2214,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>44.3</v>
+        <v>46.68</v>
       </c>
       <c r="C49" t="n">
-        <v>44.49</v>
+        <v>46.1</v>
       </c>
       <c r="D49" t="n">
-        <v>44.8</v>
+        <v>46.68</v>
       </c>
       <c r="E49" t="n">
-        <v>44.3</v>
+        <v>44.33</v>
       </c>
       <c r="F49" t="n">
-        <v>1699</v>
+        <v>40537.3895</v>
       </c>
       <c r="G49" t="n">
-        <v>44.114</v>
+        <v>569382.384923199</v>
       </c>
       <c r="H49" t="n">
-        <v>45.8455</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2249,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44.48</v>
+        <v>45.8</v>
       </c>
       <c r="C50" t="n">
-        <v>44.5</v>
+        <v>45.9</v>
       </c>
       <c r="D50" t="n">
-        <v>44.5</v>
+        <v>46.19</v>
       </c>
       <c r="E50" t="n">
-        <v>44.46</v>
+        <v>45.1</v>
       </c>
       <c r="F50" t="n">
-        <v>2891.2436</v>
+        <v>7425</v>
       </c>
       <c r="G50" t="n">
-        <v>44.06866666666667</v>
+        <v>561957.384923199</v>
       </c>
       <c r="H50" t="n">
-        <v>45.83883333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2284,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>44.59</v>
+        <v>45.3</v>
       </c>
       <c r="C51" t="n">
-        <v>44.59</v>
+        <v>45.7</v>
       </c>
       <c r="D51" t="n">
-        <v>44.59</v>
+        <v>45.8</v>
       </c>
       <c r="E51" t="n">
-        <v>44.59</v>
+        <v>45.3</v>
       </c>
       <c r="F51" t="n">
-        <v>19</v>
+        <v>44023.8804</v>
       </c>
       <c r="G51" t="n">
-        <v>44.14133333333334</v>
+        <v>517933.5045231989</v>
       </c>
       <c r="H51" t="n">
-        <v>45.82033333333334</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2319,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>44.48</v>
+        <v>45.9</v>
       </c>
       <c r="C52" t="n">
-        <v>44.48</v>
+        <v>46</v>
       </c>
       <c r="D52" t="n">
-        <v>44.48</v>
+        <v>46</v>
       </c>
       <c r="E52" t="n">
-        <v>44.48</v>
+        <v>45.9</v>
       </c>
       <c r="F52" t="n">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G52" t="n">
-        <v>44.20000000000001</v>
+        <v>518015.5045231989</v>
       </c>
       <c r="H52" t="n">
-        <v>45.82150000000001</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2354,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>44.38</v>
+        <v>45.1</v>
       </c>
       <c r="C53" t="n">
-        <v>44.19</v>
+        <v>45.8</v>
       </c>
       <c r="D53" t="n">
-        <v>44.38</v>
+        <v>45.8</v>
       </c>
       <c r="E53" t="n">
-        <v>44</v>
+        <v>44.3</v>
       </c>
       <c r="F53" t="n">
-        <v>5104</v>
+        <v>17540.6715</v>
       </c>
       <c r="G53" t="n">
-        <v>44.27933333333333</v>
+        <v>500474.8330231989</v>
       </c>
       <c r="H53" t="n">
-        <v>45.79966666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2389,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>44</v>
+        <v>44.31</v>
       </c>
       <c r="C54" t="n">
-        <v>44.29</v>
+        <v>45.7</v>
       </c>
       <c r="D54" t="n">
-        <v>44.29</v>
+        <v>45.7</v>
       </c>
       <c r="E54" t="n">
-        <v>44</v>
+        <v>44.31</v>
       </c>
       <c r="F54" t="n">
-        <v>159</v>
+        <v>17552.6783</v>
       </c>
       <c r="G54" t="n">
-        <v>44.41</v>
+        <v>482922.154723199</v>
       </c>
       <c r="H54" t="n">
-        <v>45.77950000000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2424,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>44.39</v>
+        <v>44.42</v>
       </c>
       <c r="C55" t="n">
-        <v>44</v>
+        <v>44.47</v>
       </c>
       <c r="D55" t="n">
-        <v>44.39</v>
+        <v>44.47</v>
       </c>
       <c r="E55" t="n">
-        <v>43.89</v>
+        <v>44.42</v>
       </c>
       <c r="F55" t="n">
-        <v>8408.3218</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
-        <v>44.44266666666667</v>
+        <v>482818.154723199</v>
       </c>
       <c r="H55" t="n">
-        <v>45.75283333333334</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2459,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>44.29</v>
+        <v>44.48</v>
       </c>
       <c r="C56" t="n">
-        <v>44.29</v>
+        <v>45.4</v>
       </c>
       <c r="D56" t="n">
-        <v>44.29</v>
+        <v>45.4</v>
       </c>
       <c r="E56" t="n">
-        <v>44.29</v>
+        <v>44.48</v>
       </c>
       <c r="F56" t="n">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="G56" t="n">
-        <v>44.39599999999999</v>
+        <v>483150.154723199</v>
       </c>
       <c r="H56" t="n">
-        <v>45.70800000000001</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2494,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>44</v>
+        <v>45.6</v>
       </c>
       <c r="C57" t="n">
-        <v>43.9</v>
+        <v>45.6</v>
       </c>
       <c r="D57" t="n">
-        <v>44</v>
+        <v>45.6</v>
       </c>
       <c r="E57" t="n">
-        <v>43.9</v>
+        <v>45.6</v>
       </c>
       <c r="F57" t="n">
-        <v>2500</v>
+        <v>66</v>
       </c>
       <c r="G57" t="n">
-        <v>44.35999999999999</v>
+        <v>483216.154723199</v>
       </c>
       <c r="H57" t="n">
-        <v>45.65633333333334</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2529,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>44.2</v>
+        <v>45.53</v>
       </c>
       <c r="C58" t="n">
-        <v>44.29</v>
+        <v>45.33</v>
       </c>
       <c r="D58" t="n">
-        <v>44.29</v>
+        <v>45.53</v>
       </c>
       <c r="E58" t="n">
-        <v>44.2</v>
+        <v>45.33</v>
       </c>
       <c r="F58" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G58" t="n">
-        <v>44.35866666666666</v>
+        <v>483149.154723199</v>
       </c>
       <c r="H58" t="n">
-        <v>45.61116666666668</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2564,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>43.9</v>
+        <v>45.33</v>
       </c>
       <c r="C59" t="n">
-        <v>43.6</v>
+        <v>45.67</v>
       </c>
       <c r="D59" t="n">
-        <v>43.9</v>
+        <v>45.68</v>
       </c>
       <c r="E59" t="n">
-        <v>42.72</v>
+        <v>45.33</v>
       </c>
       <c r="F59" t="n">
-        <v>70669.72289999999</v>
+        <v>1156</v>
       </c>
       <c r="G59" t="n">
-        <v>44.28599999999999</v>
+        <v>484305.154723199</v>
       </c>
       <c r="H59" t="n">
-        <v>45.53616666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2599,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>43.6</v>
+        <v>45.21</v>
       </c>
       <c r="C60" t="n">
-        <v>43.88</v>
+        <v>45.41</v>
       </c>
       <c r="D60" t="n">
-        <v>43.88</v>
+        <v>45.49</v>
       </c>
       <c r="E60" t="n">
-        <v>42.72</v>
+        <v>45.1</v>
       </c>
       <c r="F60" t="n">
-        <v>29827.201</v>
+        <v>4073</v>
       </c>
       <c r="G60" t="n">
-        <v>44.25266666666666</v>
+        <v>480232.154723199</v>
       </c>
       <c r="H60" t="n">
-        <v>45.45183333333334</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2634,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>43.08</v>
+        <v>45.17</v>
       </c>
       <c r="C61" t="n">
-        <v>43.48</v>
+        <v>45.17</v>
       </c>
       <c r="D61" t="n">
-        <v>43.9</v>
+        <v>45.17</v>
       </c>
       <c r="E61" t="n">
-        <v>42.73</v>
+        <v>45.17</v>
       </c>
       <c r="F61" t="n">
-        <v>46032.6282</v>
+        <v>430</v>
       </c>
       <c r="G61" t="n">
-        <v>44.18533333333333</v>
+        <v>479802.154723199</v>
       </c>
       <c r="H61" t="n">
-        <v>45.38483333333334</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2669,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>43.58</v>
+        <v>45.19</v>
       </c>
       <c r="C62" t="n">
-        <v>43.58</v>
+        <v>45.07</v>
       </c>
       <c r="D62" t="n">
-        <v>43.58</v>
+        <v>45.2</v>
       </c>
       <c r="E62" t="n">
-        <v>42.83</v>
+        <v>45.07</v>
       </c>
       <c r="F62" t="n">
-        <v>25622</v>
+        <v>542</v>
       </c>
       <c r="G62" t="n">
-        <v>44.13733333333334</v>
+        <v>479260.154723199</v>
       </c>
       <c r="H62" t="n">
-        <v>45.30983333333334</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2704,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>43.78</v>
+        <v>44.99</v>
       </c>
       <c r="C63" t="n">
-        <v>43.8</v>
+        <v>44.97</v>
       </c>
       <c r="D63" t="n">
-        <v>43.8</v>
+        <v>44.99</v>
       </c>
       <c r="E63" t="n">
-        <v>43.67</v>
+        <v>44.97</v>
       </c>
       <c r="F63" t="n">
-        <v>2030</v>
+        <v>47</v>
       </c>
       <c r="G63" t="n">
-        <v>44.09066666666667</v>
+        <v>479213.154723199</v>
       </c>
       <c r="H63" t="n">
-        <v>45.22650000000001</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2739,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>43.8</v>
+        <v>45.09</v>
       </c>
       <c r="C64" t="n">
-        <v>43.57</v>
+        <v>45.18</v>
       </c>
       <c r="D64" t="n">
-        <v>43.8</v>
+        <v>45.18</v>
       </c>
       <c r="E64" t="n">
-        <v>43.56</v>
+        <v>45.09</v>
       </c>
       <c r="F64" t="n">
-        <v>2118</v>
+        <v>700</v>
       </c>
       <c r="G64" t="n">
-        <v>44.02933333333333</v>
+        <v>479913.154723199</v>
       </c>
       <c r="H64" t="n">
-        <v>45.14100000000001</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2774,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>43.89</v>
+        <v>44.95</v>
       </c>
       <c r="C65" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="D65" t="n">
-        <v>43.89</v>
+        <v>44.95</v>
       </c>
       <c r="E65" t="n">
-        <v>43.54</v>
+        <v>43.5</v>
       </c>
       <c r="F65" t="n">
-        <v>12960.5572</v>
+        <v>38761.7081</v>
       </c>
       <c r="G65" t="n">
-        <v>43.96933333333334</v>
+        <v>441151.446623199</v>
       </c>
       <c r="H65" t="n">
-        <v>45.05166666666668</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2809,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>43.1</v>
+        <v>43.87</v>
       </c>
       <c r="C66" t="n">
-        <v>43.1</v>
+        <v>43.6</v>
       </c>
       <c r="D66" t="n">
-        <v>43.1</v>
+        <v>44.89</v>
       </c>
       <c r="E66" t="n">
-        <v>43.1</v>
+        <v>43.5</v>
       </c>
       <c r="F66" t="n">
-        <v>16</v>
+        <v>61785.2864</v>
       </c>
       <c r="G66" t="n">
-        <v>43.87</v>
+        <v>502936.733023199</v>
       </c>
       <c r="H66" t="n">
-        <v>44.96300000000001</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2844,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>43.79</v>
+        <v>43.5</v>
       </c>
       <c r="C67" t="n">
-        <v>43.99</v>
+        <v>43</v>
       </c>
       <c r="D67" t="n">
-        <v>43.99</v>
+        <v>43.5</v>
       </c>
       <c r="E67" t="n">
-        <v>43.7</v>
+        <v>43</v>
       </c>
       <c r="F67" t="n">
-        <v>45027.4356</v>
+        <v>5300</v>
       </c>
       <c r="G67" t="n">
-        <v>43.83733333333334</v>
+        <v>497636.733023199</v>
       </c>
       <c r="H67" t="n">
-        <v>44.896</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2879,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>43.61</v>
+        <v>43</v>
       </c>
       <c r="C68" t="n">
-        <v>44.71</v>
+        <v>42.33</v>
       </c>
       <c r="D68" t="n">
-        <v>44.71</v>
+        <v>43</v>
       </c>
       <c r="E68" t="n">
-        <v>43.6</v>
+        <v>42.33</v>
       </c>
       <c r="F68" t="n">
-        <v>22488.6066</v>
+        <v>12836.3583</v>
       </c>
       <c r="G68" t="n">
-        <v>43.87200000000001</v>
+        <v>484800.3747231989</v>
       </c>
       <c r="H68" t="n">
-        <v>44.841</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2914,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>44.5</v>
+        <v>43.11</v>
       </c>
       <c r="C69" t="n">
-        <v>44.71</v>
+        <v>43.51</v>
       </c>
       <c r="D69" t="n">
-        <v>44.71</v>
+        <v>43.51</v>
       </c>
       <c r="E69" t="n">
-        <v>44.46</v>
+        <v>43.11</v>
       </c>
       <c r="F69" t="n">
-        <v>147.77</v>
+        <v>4200</v>
       </c>
       <c r="G69" t="n">
-        <v>43.90000000000001</v>
+        <v>489000.3747231989</v>
       </c>
       <c r="H69" t="n">
-        <v>44.79283333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2949,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>44.59</v>
+        <v>43.61</v>
       </c>
       <c r="C70" t="n">
-        <v>44.7</v>
+        <v>44.99</v>
       </c>
       <c r="D70" t="n">
-        <v>44.7</v>
+        <v>44.99</v>
       </c>
       <c r="E70" t="n">
-        <v>44.46</v>
+        <v>43.61</v>
       </c>
       <c r="F70" t="n">
-        <v>20014.2711</v>
+        <v>9087</v>
       </c>
       <c r="G70" t="n">
-        <v>43.94666666666669</v>
+        <v>498087.3747231989</v>
       </c>
       <c r="H70" t="n">
-        <v>44.74616666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2984,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>44.68</v>
+        <v>43.5</v>
       </c>
       <c r="C71" t="n">
-        <v>44.67</v>
+        <v>44.44</v>
       </c>
       <c r="D71" t="n">
-        <v>44.68</v>
+        <v>44.44</v>
       </c>
       <c r="E71" t="n">
-        <v>44.64</v>
+        <v>43.5</v>
       </c>
       <c r="F71" t="n">
-        <v>8650.3349</v>
+        <v>7939.8573</v>
       </c>
       <c r="G71" t="n">
-        <v>43.97200000000002</v>
+        <v>490147.517423199</v>
       </c>
       <c r="H71" t="n">
-        <v>44.70633333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3019,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>44.67</v>
+        <v>44.31</v>
       </c>
       <c r="C72" t="n">
-        <v>44.68</v>
+        <v>44.31</v>
       </c>
       <c r="D72" t="n">
-        <v>44.68</v>
+        <v>44.31</v>
       </c>
       <c r="E72" t="n">
-        <v>44.38</v>
+        <v>44.31</v>
       </c>
       <c r="F72" t="n">
-        <v>457</v>
+        <v>351.5016</v>
       </c>
       <c r="G72" t="n">
-        <v>44.02400000000002</v>
+        <v>489796.0158231989</v>
       </c>
       <c r="H72" t="n">
-        <v>44.68766666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3054,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>44.67</v>
+        <v>43.5</v>
       </c>
       <c r="C73" t="n">
-        <v>44.67</v>
+        <v>44.69</v>
       </c>
       <c r="D73" t="n">
-        <v>44.67</v>
+        <v>44.69</v>
       </c>
       <c r="E73" t="n">
-        <v>44.67</v>
+        <v>42.51</v>
       </c>
       <c r="F73" t="n">
-        <v>19</v>
+        <v>4019.8837</v>
       </c>
       <c r="G73" t="n">
-        <v>44.04933333333335</v>
+        <v>493815.899523199</v>
       </c>
       <c r="H73" t="n">
-        <v>44.66549999999999</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3089,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>44.68</v>
+        <v>43.7</v>
       </c>
       <c r="C74" t="n">
-        <v>44.68</v>
+        <v>44.38</v>
       </c>
       <c r="D74" t="n">
-        <v>44.68</v>
+        <v>44.49</v>
       </c>
       <c r="E74" t="n">
-        <v>44.68</v>
+        <v>43.7</v>
       </c>
       <c r="F74" t="n">
-        <v>19</v>
+        <v>23514.1518</v>
       </c>
       <c r="G74" t="n">
-        <v>44.12133333333335</v>
+        <v>470301.747723199</v>
       </c>
       <c r="H74" t="n">
-        <v>44.63849999999999</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3124,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>44.68</v>
+        <v>44.38</v>
       </c>
       <c r="C75" t="n">
-        <v>44.82</v>
+        <v>44.49</v>
       </c>
       <c r="D75" t="n">
-        <v>44.82</v>
+        <v>44.49</v>
       </c>
       <c r="E75" t="n">
-        <v>44.68</v>
+        <v>43.3</v>
       </c>
       <c r="F75" t="n">
-        <v>4000</v>
+        <v>17287.0899</v>
       </c>
       <c r="G75" t="n">
-        <v>44.18400000000001</v>
+        <v>487588.837623199</v>
       </c>
       <c r="H75" t="n">
-        <v>44.61433333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3159,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>44.65</v>
+        <v>44.61</v>
       </c>
       <c r="C76" t="n">
-        <v>44.29</v>
+        <v>44.3</v>
       </c>
       <c r="D76" t="n">
-        <v>44.65</v>
+        <v>44.61</v>
       </c>
       <c r="E76" t="n">
-        <v>44.29</v>
+        <v>43.5</v>
       </c>
       <c r="F76" t="n">
-        <v>400</v>
+        <v>5834.93</v>
       </c>
       <c r="G76" t="n">
-        <v>44.23800000000001</v>
+        <v>481753.907623199</v>
       </c>
       <c r="H76" t="n">
-        <v>44.58583333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3194,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>44.82</v>
+        <v>43.9</v>
       </c>
       <c r="C77" t="n">
-        <v>44.82</v>
+        <v>44.5</v>
       </c>
       <c r="D77" t="n">
-        <v>44.82</v>
+        <v>44.5</v>
       </c>
       <c r="E77" t="n">
-        <v>44.82</v>
+        <v>43.6</v>
       </c>
       <c r="F77" t="n">
-        <v>19</v>
+        <v>15206.7216</v>
       </c>
       <c r="G77" t="n">
-        <v>44.32066666666667</v>
+        <v>496960.629223199</v>
       </c>
       <c r="H77" t="n">
-        <v>44.553</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3329,33 +3232,30 @@
         <v>44.3</v>
       </c>
       <c r="C78" t="n">
-        <v>44.7</v>
+        <v>44.49</v>
       </c>
       <c r="D78" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="E78" t="n">
-        <v>44.21</v>
+        <v>44.3</v>
       </c>
       <c r="F78" t="n">
-        <v>2447.7894</v>
+        <v>1699</v>
       </c>
       <c r="G78" t="n">
-        <v>44.38066666666668</v>
+        <v>495261.629223199</v>
       </c>
       <c r="H78" t="n">
-        <v>44.528</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3264,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>44.21</v>
+        <v>44.48</v>
       </c>
       <c r="C79" t="n">
-        <v>44</v>
+        <v>44.5</v>
       </c>
       <c r="D79" t="n">
-        <v>44.21</v>
+        <v>44.5</v>
       </c>
       <c r="E79" t="n">
-        <v>44</v>
+        <v>44.46</v>
       </c>
       <c r="F79" t="n">
-        <v>49104.4746</v>
+        <v>2891.2436</v>
       </c>
       <c r="G79" t="n">
-        <v>44.40933333333335</v>
+        <v>498152.872823199</v>
       </c>
       <c r="H79" t="n">
-        <v>44.50966666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3299,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>44.1</v>
+        <v>44.59</v>
       </c>
       <c r="C80" t="n">
-        <v>43.9</v>
+        <v>44.59</v>
       </c>
       <c r="D80" t="n">
-        <v>44.1</v>
+        <v>44.59</v>
       </c>
       <c r="E80" t="n">
-        <v>43.9</v>
+        <v>44.59</v>
       </c>
       <c r="F80" t="n">
-        <v>5165.083</v>
+        <v>19</v>
       </c>
       <c r="G80" t="n">
-        <v>44.42933333333335</v>
+        <v>498171.872823199</v>
       </c>
       <c r="H80" t="n">
-        <v>44.473</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3334,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>44.3</v>
+        <v>44.48</v>
       </c>
       <c r="C81" t="n">
-        <v>43.7</v>
+        <v>44.48</v>
       </c>
       <c r="D81" t="n">
-        <v>44.3</v>
+        <v>44.48</v>
       </c>
       <c r="E81" t="n">
-        <v>43.7</v>
+        <v>44.48</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>44.46933333333335</v>
+        <v>498159.872823199</v>
       </c>
       <c r="H81" t="n">
-        <v>44.43633333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3369,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>44</v>
+        <v>44.38</v>
       </c>
       <c r="C82" t="n">
-        <v>44</v>
+        <v>44.19</v>
       </c>
       <c r="D82" t="n">
-        <v>44</v>
+        <v>44.38</v>
       </c>
       <c r="E82" t="n">
         <v>44</v>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>5104</v>
       </c>
       <c r="G82" t="n">
-        <v>44.47000000000001</v>
+        <v>493055.872823199</v>
       </c>
       <c r="H82" t="n">
-        <v>44.408</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3519,39 +3407,30 @@
         <v>44</v>
       </c>
       <c r="C83" t="n">
-        <v>43.5</v>
+        <v>44.29</v>
       </c>
       <c r="D83" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="E83" t="n">
         <v>44</v>
       </c>
-      <c r="E83" t="n">
-        <v>43.5</v>
-      </c>
       <c r="F83" t="n">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
-        <v>44.38933333333334</v>
+        <v>493214.872823199</v>
       </c>
       <c r="H83" t="n">
-        <v>44.36633333333334</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3560,42 +3439,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="C84" t="n">
         <v>44</v>
       </c>
-      <c r="C84" t="n">
-        <v>43.22</v>
-      </c>
       <c r="D84" t="n">
-        <v>44</v>
+        <v>44.39</v>
       </c>
       <c r="E84" t="n">
-        <v>43.22</v>
+        <v>43.89</v>
       </c>
       <c r="F84" t="n">
-        <v>240</v>
+        <v>8408.3218</v>
       </c>
       <c r="G84" t="n">
-        <v>44.29000000000001</v>
+        <v>484806.551023199</v>
       </c>
       <c r="H84" t="n">
-        <v>44.32333333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>43.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3604,42 +3474,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>44</v>
+        <v>44.29</v>
       </c>
       <c r="C85" t="n">
-        <v>44.5</v>
+        <v>44.29</v>
       </c>
       <c r="D85" t="n">
-        <v>44.5</v>
+        <v>44.29</v>
       </c>
       <c r="E85" t="n">
-        <v>44</v>
+        <v>44.29</v>
       </c>
       <c r="F85" t="n">
-        <v>634.4028505617978</v>
+        <v>16</v>
       </c>
       <c r="G85" t="n">
-        <v>44.27666666666667</v>
+        <v>484822.551023199</v>
       </c>
       <c r="H85" t="n">
-        <v>44.30333333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>43.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,40 +3509,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="C86" t="n">
-        <v>43.46</v>
+        <v>43.9</v>
       </c>
       <c r="D86" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="E86" t="n">
-        <v>43.46</v>
+        <v>43.9</v>
       </c>
       <c r="F86" t="n">
-        <v>38</v>
+        <v>2500</v>
       </c>
       <c r="G86" t="n">
-        <v>44.19600000000001</v>
+        <v>482322.551023199</v>
       </c>
       <c r="H86" t="n">
-        <v>44.2865</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3693,37 +3547,30 @@
         <v>44.2</v>
       </c>
       <c r="C87" t="n">
-        <v>44.2</v>
+        <v>44.29</v>
       </c>
       <c r="D87" t="n">
-        <v>44.2</v>
+        <v>44.29</v>
       </c>
       <c r="E87" t="n">
         <v>44.2</v>
       </c>
       <c r="F87" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G87" t="n">
-        <v>44.16400000000002</v>
+        <v>482351.551023199</v>
       </c>
       <c r="H87" t="n">
-        <v>44.26649999999999</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,40 +3579,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>44.3</v>
+        <v>43.9</v>
       </c>
       <c r="C88" t="n">
-        <v>44.79</v>
+        <v>43.6</v>
       </c>
       <c r="D88" t="n">
-        <v>44.79</v>
+        <v>43.9</v>
       </c>
       <c r="E88" t="n">
-        <v>44.2</v>
+        <v>42.72</v>
       </c>
       <c r="F88" t="n">
-        <v>10728.511</v>
+        <v>70669.72289999999</v>
       </c>
       <c r="G88" t="n">
-        <v>44.17200000000002</v>
+        <v>411681.828123199</v>
       </c>
       <c r="H88" t="n">
-        <v>44.253</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,40 +3614,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>44.69</v>
+        <v>43.6</v>
       </c>
       <c r="C89" t="n">
-        <v>45.3</v>
+        <v>43.88</v>
       </c>
       <c r="D89" t="n">
-        <v>45.45</v>
+        <v>43.88</v>
       </c>
       <c r="E89" t="n">
-        <v>43.71</v>
+        <v>42.72</v>
       </c>
       <c r="F89" t="n">
-        <v>99835.38280000001</v>
+        <v>29827.201</v>
       </c>
       <c r="G89" t="n">
-        <v>44.21333333333335</v>
+        <v>441509.029123199</v>
       </c>
       <c r="H89" t="n">
-        <v>44.2525</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,40 +3649,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>45.3</v>
+        <v>43.08</v>
       </c>
       <c r="C90" t="n">
-        <v>44</v>
+        <v>43.48</v>
       </c>
       <c r="D90" t="n">
-        <v>46.39</v>
+        <v>43.9</v>
       </c>
       <c r="E90" t="n">
-        <v>43.82</v>
+        <v>42.73</v>
       </c>
       <c r="F90" t="n">
-        <v>40003.2445</v>
+        <v>46032.6282</v>
       </c>
       <c r="G90" t="n">
-        <v>44.15866666666668</v>
+        <v>395476.400923199</v>
       </c>
       <c r="H90" t="n">
-        <v>44.22466666666666</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,40 +3684,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>45.85</v>
+        <v>43.58</v>
       </c>
       <c r="C91" t="n">
-        <v>45.4</v>
+        <v>43.58</v>
       </c>
       <c r="D91" t="n">
-        <v>45.85</v>
+        <v>43.58</v>
       </c>
       <c r="E91" t="n">
-        <v>45.1</v>
+        <v>42.83</v>
       </c>
       <c r="F91" t="n">
-        <v>137</v>
+        <v>25622</v>
       </c>
       <c r="G91" t="n">
-        <v>44.23266666666668</v>
+        <v>421098.400923199</v>
       </c>
       <c r="H91" t="n">
-        <v>44.22450000000001</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,40 +3719,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>44.8</v>
+        <v>43.78</v>
       </c>
       <c r="C92" t="n">
-        <v>45.46</v>
+        <v>43.8</v>
       </c>
       <c r="D92" t="n">
-        <v>45.46</v>
+        <v>43.8</v>
       </c>
       <c r="E92" t="n">
-        <v>44.05</v>
+        <v>43.67</v>
       </c>
       <c r="F92" t="n">
-        <v>10820</v>
+        <v>2030</v>
       </c>
       <c r="G92" t="n">
-        <v>44.27533333333335</v>
+        <v>423128.400923199</v>
       </c>
       <c r="H92" t="n">
-        <v>44.22933333333334</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,40 +3754,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>45.18</v>
+        <v>43.8</v>
       </c>
       <c r="C93" t="n">
-        <v>45.18</v>
+        <v>43.57</v>
       </c>
       <c r="D93" t="n">
-        <v>45.18</v>
+        <v>43.8</v>
       </c>
       <c r="E93" t="n">
-        <v>45.18</v>
+        <v>43.56</v>
       </c>
       <c r="F93" t="n">
-        <v>240</v>
+        <v>2118</v>
       </c>
       <c r="G93" t="n">
-        <v>44.30733333333334</v>
+        <v>421010.400923199</v>
       </c>
       <c r="H93" t="n">
-        <v>44.23116666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,40 +3789,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>44.5</v>
+        <v>43.89</v>
       </c>
       <c r="C94" t="n">
-        <v>44.04</v>
+        <v>43.6</v>
       </c>
       <c r="D94" t="n">
-        <v>44.5</v>
+        <v>43.89</v>
       </c>
       <c r="E94" t="n">
-        <v>44.04</v>
+        <v>43.54</v>
       </c>
       <c r="F94" t="n">
-        <v>50000</v>
+        <v>12960.5572</v>
       </c>
       <c r="G94" t="n">
-        <v>44.31000000000001</v>
+        <v>433970.958123199</v>
       </c>
       <c r="H94" t="n">
-        <v>44.21566666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,40 +3824,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>44.7</v>
+        <v>43.1</v>
       </c>
       <c r="C95" t="n">
-        <v>44.7</v>
+        <v>43.1</v>
       </c>
       <c r="D95" t="n">
-        <v>44.7</v>
+        <v>43.1</v>
       </c>
       <c r="E95" t="n">
-        <v>44.7</v>
+        <v>43.1</v>
       </c>
       <c r="F95" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G95" t="n">
-        <v>44.36333333333334</v>
+        <v>433954.958123199</v>
       </c>
       <c r="H95" t="n">
-        <v>44.20766666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4068,40 +3859,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>44.8</v>
+        <v>43.79</v>
       </c>
       <c r="C96" t="n">
-        <v>44.8</v>
+        <v>43.99</v>
       </c>
       <c r="D96" t="n">
-        <v>44.8</v>
+        <v>43.99</v>
       </c>
       <c r="E96" t="n">
-        <v>44.8</v>
+        <v>43.7</v>
       </c>
       <c r="F96" t="n">
-        <v>12</v>
+        <v>45027.4356</v>
       </c>
       <c r="G96" t="n">
-        <v>44.43666666666667</v>
+        <v>478982.393723199</v>
       </c>
       <c r="H96" t="n">
-        <v>44.22933333333334</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4110,40 +3894,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>44.4</v>
+        <v>43.61</v>
       </c>
       <c r="C97" t="n">
-        <v>44.4</v>
+        <v>44.71</v>
       </c>
       <c r="D97" t="n">
-        <v>44.4</v>
+        <v>44.71</v>
       </c>
       <c r="E97" t="n">
-        <v>44.4</v>
+        <v>43.6</v>
       </c>
       <c r="F97" t="n">
-        <v>2000</v>
+        <v>22488.6066</v>
       </c>
       <c r="G97" t="n">
-        <v>44.46333333333334</v>
+        <v>501471.000323199</v>
       </c>
       <c r="H97" t="n">
-        <v>44.24266666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4152,40 +3929,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="C98" t="n">
-        <v>44.7</v>
+        <v>44.71</v>
       </c>
       <c r="D98" t="n">
-        <v>44.7</v>
+        <v>44.71</v>
       </c>
       <c r="E98" t="n">
-        <v>44.7</v>
+        <v>44.46</v>
       </c>
       <c r="F98" t="n">
-        <v>12</v>
+        <v>147.77</v>
       </c>
       <c r="G98" t="n">
-        <v>44.54333333333334</v>
+        <v>501471.000323199</v>
       </c>
       <c r="H98" t="n">
-        <v>44.271</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,40 +3964,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>44.6</v>
+        <v>44.59</v>
       </c>
       <c r="C99" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="D99" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="E99" t="n">
-        <v>44.6</v>
+        <v>44.46</v>
       </c>
       <c r="F99" t="n">
-        <v>261</v>
+        <v>20014.2711</v>
       </c>
       <c r="G99" t="n">
-        <v>44.64866666666667</v>
+        <v>481456.729223199</v>
       </c>
       <c r="H99" t="n">
-        <v>44.31216666666668</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,42 +3999,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>44.8</v>
+        <v>44.68</v>
       </c>
       <c r="C100" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="D100" t="n">
-        <v>44.9</v>
+        <v>44.68</v>
       </c>
       <c r="E100" t="n">
-        <v>44.8</v>
+        <v>44.64</v>
       </c>
       <c r="F100" t="n">
-        <v>5639</v>
+        <v>8650.3349</v>
       </c>
       <c r="G100" t="n">
-        <v>44.67533333333333</v>
+        <v>472806.394323199</v>
       </c>
       <c r="H100" t="n">
-        <v>44.33533333333334</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>44.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,42 +4034,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="C101" t="n">
-        <v>44.9</v>
+        <v>44.68</v>
       </c>
       <c r="D101" t="n">
-        <v>44.9</v>
+        <v>44.68</v>
       </c>
       <c r="E101" t="n">
-        <v>44.9</v>
+        <v>44.38</v>
       </c>
       <c r="F101" t="n">
-        <v>4000</v>
+        <v>457</v>
       </c>
       <c r="G101" t="n">
-        <v>44.77133333333333</v>
+        <v>473263.394323199</v>
       </c>
       <c r="H101" t="n">
-        <v>44.33383333333335</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>44.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,40 +4069,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="C102" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="D102" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="E102" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="F102" t="n">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="G102" t="n">
-        <v>44.81799999999999</v>
+        <v>473244.394323199</v>
       </c>
       <c r="H102" t="n">
-        <v>44.34150000000001</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,40 +4104,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>44.9</v>
+        <v>44.68</v>
       </c>
       <c r="C103" t="n">
-        <v>45</v>
+        <v>44.68</v>
       </c>
       <c r="D103" t="n">
-        <v>45</v>
+        <v>44.68</v>
       </c>
       <c r="E103" t="n">
-        <v>44.9</v>
+        <v>44.68</v>
       </c>
       <c r="F103" t="n">
-        <v>3900</v>
+        <v>19</v>
       </c>
       <c r="G103" t="n">
-        <v>44.83199999999999</v>
+        <v>473263.394323199</v>
       </c>
       <c r="H103" t="n">
-        <v>44.35300000000002</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,40 +4139,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>45</v>
+        <v>44.68</v>
       </c>
       <c r="C104" t="n">
-        <v>45.05</v>
+        <v>44.82</v>
       </c>
       <c r="D104" t="n">
-        <v>45.05</v>
+        <v>44.82</v>
       </c>
       <c r="E104" t="n">
-        <v>45</v>
+        <v>44.68</v>
       </c>
       <c r="F104" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="G104" t="n">
-        <v>44.81533333333333</v>
+        <v>477263.394323199</v>
       </c>
       <c r="H104" t="n">
-        <v>44.35900000000002</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,40 +4174,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>44.41</v>
+        <v>44.65</v>
       </c>
       <c r="C105" t="n">
-        <v>44.94</v>
+        <v>44.29</v>
       </c>
       <c r="D105" t="n">
-        <v>44.94</v>
+        <v>44.65</v>
       </c>
       <c r="E105" t="n">
-        <v>44.41</v>
+        <v>44.29</v>
       </c>
       <c r="F105" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="G105" t="n">
-        <v>44.87799999999999</v>
+        <v>476863.394323199</v>
       </c>
       <c r="H105" t="n">
-        <v>44.36833333333335</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,40 +4209,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>44.94</v>
+        <v>44.82</v>
       </c>
       <c r="C106" t="n">
-        <v>45.05</v>
+        <v>44.82</v>
       </c>
       <c r="D106" t="n">
-        <v>45.05</v>
+        <v>44.82</v>
       </c>
       <c r="E106" t="n">
-        <v>44.94</v>
+        <v>44.82</v>
       </c>
       <c r="F106" t="n">
-        <v>5968</v>
+        <v>19</v>
       </c>
       <c r="G106" t="n">
-        <v>44.85466666666665</v>
+        <v>476882.394323199</v>
       </c>
       <c r="H106" t="n">
-        <v>44.37766666666668</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,40 +4244,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>45.03</v>
+        <v>44.3</v>
       </c>
       <c r="C107" t="n">
-        <v>44.94</v>
+        <v>44.7</v>
       </c>
       <c r="D107" t="n">
-        <v>45.03</v>
+        <v>44.7</v>
       </c>
       <c r="E107" t="n">
-        <v>44.94</v>
+        <v>44.21</v>
       </c>
       <c r="F107" t="n">
-        <v>22235</v>
+        <v>2447.7894</v>
       </c>
       <c r="G107" t="n">
-        <v>44.81999999999998</v>
+        <v>474434.604923199</v>
       </c>
       <c r="H107" t="n">
-        <v>44.38833333333335</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,40 +4279,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>45.04</v>
+        <v>44.21</v>
       </c>
       <c r="C108" t="n">
-        <v>45.04</v>
+        <v>44</v>
       </c>
       <c r="D108" t="n">
-        <v>45.04</v>
+        <v>44.21</v>
       </c>
       <c r="E108" t="n">
-        <v>45.04</v>
+        <v>44</v>
       </c>
       <c r="F108" t="n">
-        <v>19</v>
+        <v>49104.4746</v>
       </c>
       <c r="G108" t="n">
-        <v>44.81066666666665</v>
+        <v>425330.130323199</v>
       </c>
       <c r="H108" t="n">
-        <v>44.39733333333335</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,40 +4314,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>44.94</v>
+        <v>44.1</v>
       </c>
       <c r="C109" t="n">
-        <v>44.7</v>
+        <v>43.9</v>
       </c>
       <c r="D109" t="n">
-        <v>44.94</v>
+        <v>44.1</v>
       </c>
       <c r="E109" t="n">
-        <v>44.7</v>
+        <v>43.9</v>
       </c>
       <c r="F109" t="n">
-        <v>1498.9139</v>
+        <v>5165.083</v>
       </c>
       <c r="G109" t="n">
-        <v>44.85466666666665</v>
+        <v>420165.047323199</v>
       </c>
       <c r="H109" t="n">
-        <v>44.40083333333335</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,40 +4349,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>45</v>
+        <v>44.3</v>
       </c>
       <c r="C110" t="n">
-        <v>45.03</v>
+        <v>43.7</v>
       </c>
       <c r="D110" t="n">
-        <v>45.03</v>
+        <v>44.3</v>
       </c>
       <c r="E110" t="n">
-        <v>44.95</v>
+        <v>43.7</v>
       </c>
       <c r="F110" t="n">
-        <v>3572.114175734695</v>
+        <v>30</v>
       </c>
       <c r="G110" t="n">
-        <v>44.87666666666665</v>
+        <v>420135.047323199</v>
       </c>
       <c r="H110" t="n">
-        <v>44.40966666666669</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,42 +4384,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>44.7</v>
+        <v>44</v>
       </c>
       <c r="C111" t="n">
-        <v>44.94</v>
+        <v>44</v>
       </c>
       <c r="D111" t="n">
-        <v>44.94</v>
+        <v>44</v>
       </c>
       <c r="E111" t="n">
-        <v>44.7</v>
+        <v>44</v>
       </c>
       <c r="F111" t="n">
-        <v>2013</v>
+        <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>44.88599999999998</v>
+        <v>420235.047323199</v>
       </c>
       <c r="H111" t="n">
-        <v>44.41550000000002</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>45.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4746,42 +4419,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>44.71</v>
+        <v>44</v>
       </c>
       <c r="C112" t="n">
-        <v>44.9</v>
+        <v>43.5</v>
       </c>
       <c r="D112" t="n">
-        <v>44.9</v>
+        <v>44</v>
       </c>
       <c r="E112" t="n">
-        <v>44.71</v>
+        <v>43.5</v>
       </c>
       <c r="F112" t="n">
-        <v>4719.3196</v>
+        <v>38</v>
       </c>
       <c r="G112" t="n">
-        <v>44.91933333333331</v>
+        <v>420197.047323199</v>
       </c>
       <c r="H112" t="n">
-        <v>44.42250000000002</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>44.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,42 +4454,1048 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>44</v>
+      </c>
+      <c r="C113" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="D113" t="n">
+        <v>44</v>
+      </c>
+      <c r="E113" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="F113" t="n">
+        <v>240</v>
+      </c>
+      <c r="G113" t="n">
+        <v>419957.047323199</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>44</v>
+      </c>
+      <c r="C114" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>44</v>
+      </c>
+      <c r="F114" t="n">
+        <v>634.4028505617978</v>
+      </c>
+      <c r="G114" t="n">
+        <v>420591.4501737608</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="D115" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="F115" t="n">
+        <v>38</v>
+      </c>
+      <c r="G115" t="n">
+        <v>420553.4501737608</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12</v>
+      </c>
+      <c r="G116" t="n">
+        <v>420565.4501737608</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>44.79</v>
+      </c>
+      <c r="D117" t="n">
+        <v>44.79</v>
+      </c>
+      <c r="E117" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>10728.511</v>
+      </c>
+      <c r="G117" t="n">
+        <v>431293.9611737608</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>44.69</v>
+      </c>
+      <c r="C118" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="E118" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="F118" t="n">
+        <v>99835.38280000001</v>
+      </c>
+      <c r="G118" t="n">
+        <v>531129.3439737607</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>44</v>
+      </c>
+      <c r="D119" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="E119" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="F119" t="n">
+        <v>40003.2445</v>
+      </c>
+      <c r="G119" t="n">
+        <v>491126.0994737607</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="C120" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="E120" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>137</v>
+      </c>
+      <c r="G120" t="n">
+        <v>491263.0994737607</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="C121" t="n">
+        <v>45.46</v>
+      </c>
+      <c r="D121" t="n">
+        <v>45.46</v>
+      </c>
+      <c r="E121" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10820</v>
+      </c>
+      <c r="G121" t="n">
+        <v>502083.0994737607</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="C122" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="D122" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="E122" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="F122" t="n">
+        <v>240</v>
+      </c>
+      <c r="G122" t="n">
+        <v>501843.0994737607</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>44.04</v>
+      </c>
+      <c r="D123" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>44.04</v>
+      </c>
+      <c r="F123" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>451843.0994737607</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
         <v>44.7</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C124" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12</v>
+      </c>
+      <c r="G124" t="n">
+        <v>451855.0994737607</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12</v>
+      </c>
+      <c r="G125" t="n">
+        <v>451867.0994737607</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>449867.0994737607</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12</v>
+      </c>
+      <c r="G127" t="n">
+        <v>449879.0994737607</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="F128" t="n">
+        <v>261</v>
+      </c>
+      <c r="G128" t="n">
+        <v>450140.0994737607</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="C129" t="n">
         <v>44.9</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D129" t="n">
         <v>44.9</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E129" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5639</v>
+      </c>
+      <c r="G129" t="n">
+        <v>455779.0994737607</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>455779.0994737607</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>400</v>
+      </c>
+      <c r="G131" t="n">
+        <v>455779.0994737607</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>45</v>
+      </c>
+      <c r="D132" t="n">
+        <v>45</v>
+      </c>
+      <c r="E132" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3900</v>
+      </c>
+      <c r="G132" t="n">
+        <v>459679.0994737607</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>45</v>
+      </c>
+      <c r="C133" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="D133" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>45</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4600</v>
+      </c>
+      <c r="G133" t="n">
+        <v>464279.0994737607</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>44.41</v>
+      </c>
+      <c r="C134" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="D134" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="E134" t="n">
+        <v>44.41</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G134" t="n">
+        <v>462579.0994737607</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="C135" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="D135" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="E135" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5968</v>
+      </c>
+      <c r="G135" t="n">
+        <v>468547.0994737607</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="C136" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="D136" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="E136" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="F136" t="n">
+        <v>22235</v>
+      </c>
+      <c r="G136" t="n">
+        <v>446312.0994737607</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="C137" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="D137" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="E137" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="F137" t="n">
+        <v>19</v>
+      </c>
+      <c r="G137" t="n">
+        <v>446331.0994737607</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="C138" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="E138" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1498.9139</v>
+      </c>
+      <c r="G138" t="n">
+        <v>444832.1855737607</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>45</v>
+      </c>
+      <c r="C139" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="D139" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="E139" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3572.114175734695</v>
+      </c>
+      <c r="G139" t="n">
+        <v>448404.2997494954</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="D140" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="E140" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G140" t="n">
+        <v>446391.2997494954</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="C141" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4719.3196</v>
+      </c>
+      <c r="G141" t="n">
+        <v>441671.9801494954</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E142" t="n">
         <v>44.68</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F142" t="n">
         <v>2626.9385</v>
       </c>
-      <c r="G113" t="n">
-        <v>44.93266666666664</v>
-      </c>
-      <c r="H113" t="n">
-        <v>44.43433333333336</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="G142" t="n">
+        <v>441671.9801494954</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest PAY.xlsx
+++ b/BackTest/2020-01-13 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,6 +509,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -583,6 +591,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,6 +631,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -661,6 +671,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -700,6 +711,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -741,6 +753,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,6 +793,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -819,6 +833,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,6 +873,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -897,6 +913,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -936,6 +953,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -975,6 +993,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1014,6 +1033,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1053,6 +1073,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,6 +1113,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1131,6 +1153,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1170,6 +1193,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1209,6 +1233,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1248,6 +1273,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1287,6 +1313,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1326,6 +1353,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1365,6 +1393,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,6 +1433,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1443,6 +1473,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1482,6 +1513,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1521,6 +1553,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1560,6 +1593,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1599,6 +1633,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1638,6 +1673,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1677,6 +1713,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1704,17 +1741,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>1.000227790432802</v>
       </c>
     </row>
     <row r="35">
@@ -1747,12 +1785,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1788,6 +1825,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1823,6 +1861,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1850,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1858,6 +1897,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1885,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1893,6 +1933,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1920,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1928,6 +1969,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1955,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1963,6 +2005,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1990,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1998,6 +2041,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2033,6 +2077,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2068,6 +2113,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2095,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2103,6 +2149,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2138,6 +2185,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2173,6 +2221,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2208,6 +2257,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2243,6 +2293,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2278,6 +2329,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2313,6 +2365,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2348,6 +2401,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2383,6 +2437,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2418,6 +2473,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2453,6 +2509,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2488,6 +2545,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2523,6 +2581,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2558,6 +2617,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2593,6 +2653,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2628,6 +2689,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2663,6 +2725,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2698,6 +2761,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2733,6 +2797,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2768,6 +2833,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2803,6 +2869,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2838,6 +2905,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2873,6 +2941,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2908,6 +2977,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2943,6 +3013,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2978,6 +3049,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3013,6 +3085,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3048,6 +3121,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3083,6 +3157,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3118,6 +3193,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3153,6 +3229,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3188,6 +3265,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3223,6 +3301,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3258,6 +3337,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3293,6 +3373,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3328,6 +3409,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3363,6 +3445,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3398,6 +3481,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3433,6 +3517,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3468,6 +3553,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3503,6 +3589,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3538,6 +3625,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3573,6 +3661,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3608,6 +3697,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3643,6 +3733,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3678,6 +3769,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3713,6 +3805,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3748,6 +3841,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3783,6 +3877,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3818,6 +3913,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3853,6 +3949,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3888,6 +3985,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3923,6 +4021,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3958,6 +4057,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3993,6 +4093,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4028,6 +4129,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4063,6 +4165,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4098,6 +4201,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4133,6 +4237,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4168,6 +4273,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4203,6 +4309,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4238,6 +4345,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4273,6 +4381,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4308,6 +4417,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4343,6 +4453,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4378,6 +4489,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4413,6 +4525,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4448,6 +4561,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4483,6 +4597,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4518,6 +4633,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4553,6 +4669,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4588,6 +4705,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4623,6 +4741,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4658,6 +4777,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4693,6 +4813,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4728,6 +4849,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4763,6 +4885,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4798,6 +4921,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4833,6 +4957,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4868,6 +4993,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4903,6 +5029,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4938,6 +5065,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4973,6 +5101,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5008,6 +5137,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5043,6 +5173,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5078,6 +5209,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5113,6 +5245,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5148,6 +5281,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5183,6 +5317,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5218,6 +5353,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5253,6 +5389,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5288,6 +5425,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5323,6 +5461,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5358,6 +5497,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5393,6 +5533,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5428,6 +5569,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5463,6 +5605,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,6 +5641,7 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest PAY.xlsx
+++ b/BackTest/2020-01-13 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>43.91</v>
+        <v>45.4</v>
       </c>
       <c r="C2" t="n">
-        <v>43.9</v>
+        <v>45.4</v>
       </c>
       <c r="D2" t="n">
-        <v>43.91</v>
+        <v>45.4</v>
       </c>
       <c r="E2" t="n">
-        <v>43.9</v>
+        <v>45.4</v>
       </c>
       <c r="F2" t="n">
-        <v>17000</v>
+        <v>8547.5843</v>
       </c>
       <c r="G2" t="n">
-        <v>-44239.26787680104</v>
+        <v>-40408.97897680105</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>44.01</v>
+        <v>45.28</v>
       </c>
       <c r="C3" t="n">
-        <v>43.9</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>44.01</v>
+        <v>45.28</v>
       </c>
       <c r="E3" t="n">
-        <v>43.9</v>
+        <v>44.9</v>
       </c>
       <c r="F3" t="n">
-        <v>3345.4116</v>
+        <v>8014.782</v>
       </c>
       <c r="G3" t="n">
-        <v>-44239.26787680104</v>
+        <v>-48423.76097680105</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>43.9</v>
+        <v>45.4</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -516,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43.91</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>44.87</v>
+        <v>44.62</v>
       </c>
       <c r="D4" t="n">
-        <v>44.87</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>43.91</v>
+        <v>44.62</v>
       </c>
       <c r="F4" t="n">
-        <v>20362.75</v>
+        <v>7665.1138</v>
       </c>
       <c r="G4" t="n">
-        <v>-23876.51787680104</v>
+        <v>-56088.87477680105</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>43.9</v>
+        <v>45</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
@@ -558,30 +558,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44.59</v>
+        <v>44.8</v>
       </c>
       <c r="C5" t="n">
-        <v>44.59</v>
+        <v>45.6</v>
       </c>
       <c r="D5" t="n">
-        <v>44.59</v>
+        <v>45.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44.59</v>
+        <v>44.8</v>
       </c>
       <c r="F5" t="n">
-        <v>3262</v>
+        <v>13486</v>
       </c>
       <c r="G5" t="n">
-        <v>-27138.51787680104</v>
+        <v>-42602.87477680105</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>44.62</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
@@ -598,30 +600,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="C6" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="F6" t="n">
-        <v>3290</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>-23848.51787680104</v>
+        <v>-42684.33477680105</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>45.6</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
@@ -638,30 +642,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>44.6</v>
+        <v>45.1</v>
       </c>
       <c r="E7" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>19019.6156</v>
+        <v>97583.9097</v>
       </c>
       <c r="G7" t="n">
-        <v>-23848.51787680104</v>
+        <v>-42684.33477680105</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>45</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -678,30 +684,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.59</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>44.59</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
-        <v>44.59</v>
+        <v>45</v>
       </c>
       <c r="E8" t="n">
-        <v>44.59</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>4578.8787</v>
+        <v>713.9473</v>
       </c>
       <c r="G8" t="n">
-        <v>-28427.39657680105</v>
+        <v>-42684.33477680105</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>45</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -718,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="C9" t="n">
         <v>44.9</v>
@@ -727,13 +735,13 @@
         <v>45</v>
       </c>
       <c r="E9" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="F9" t="n">
-        <v>53760.9114</v>
+        <v>2400</v>
       </c>
       <c r="G9" t="n">
-        <v>25333.51482319895</v>
+        <v>-45084.33477680105</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -742,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>44.59</v>
+        <v>45</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
@@ -760,30 +768,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16121.8856</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-28962.44917680105</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>44.9</v>
       </c>
-      <c r="C10" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>45</v>
-      </c>
-      <c r="E10" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11712.14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>25333.51482319895</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
@@ -800,30 +810,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44.9</v>
+        <v>45.6</v>
       </c>
       <c r="C11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="D11" t="n">
-        <v>44.9</v>
+        <v>45.6</v>
       </c>
       <c r="E11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="F11" t="n">
-        <v>197.91</v>
+        <v>12648.5683</v>
       </c>
       <c r="G11" t="n">
-        <v>25333.51482319895</v>
+        <v>-41611.01747680105</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>45.6</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
@@ -840,30 +852,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="C12" t="n">
-        <v>45.3</v>
+        <v>45.7</v>
       </c>
       <c r="D12" t="n">
-        <v>45.4</v>
+        <v>45.7</v>
       </c>
       <c r="E12" t="n">
         <v>45</v>
       </c>
       <c r="F12" t="n">
-        <v>57970.5129</v>
+        <v>101184.7263</v>
       </c>
       <c r="G12" t="n">
-        <v>83304.02772319896</v>
+        <v>59573.70882319895</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>44.8</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -880,22 +894,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>45.3</v>
+        <v>45.7</v>
       </c>
       <c r="C13" t="n">
-        <v>45.3</v>
+        <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>45.59</v>
+        <v>45.8</v>
       </c>
       <c r="E13" t="n">
-        <v>45.3</v>
+        <v>45</v>
       </c>
       <c r="F13" t="n">
-        <v>8154.9967</v>
+        <v>25085.1623</v>
       </c>
       <c r="G13" t="n">
-        <v>83304.02772319896</v>
+        <v>34488.54652319895</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -920,22 +934,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>45.45</v>
+        <v>45.1</v>
       </c>
       <c r="C14" t="n">
-        <v>45.4</v>
+        <v>44.95</v>
       </c>
       <c r="D14" t="n">
-        <v>45.45</v>
+        <v>45.1</v>
       </c>
       <c r="E14" t="n">
-        <v>45.35</v>
+        <v>44.95</v>
       </c>
       <c r="F14" t="n">
-        <v>2591</v>
+        <v>7862.3695</v>
       </c>
       <c r="G14" t="n">
-        <v>85895.02772319896</v>
+        <v>26626.17702319895</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -960,22 +974,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>45.4</v>
+        <v>44.95</v>
       </c>
       <c r="C15" t="n">
-        <v>45.5</v>
+        <v>44.95</v>
       </c>
       <c r="D15" t="n">
-        <v>45.79</v>
+        <v>44.95</v>
       </c>
       <c r="E15" t="n">
-        <v>45.4</v>
+        <v>44.95</v>
       </c>
       <c r="F15" t="n">
-        <v>89136.1767</v>
+        <v>20734.7383</v>
       </c>
       <c r="G15" t="n">
-        <v>175031.2044231989</v>
+        <v>26626.17702319895</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1000,30 +1014,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45.5</v>
+        <v>44.9</v>
       </c>
       <c r="C16" t="n">
-        <v>45.5</v>
+        <v>44.9</v>
       </c>
       <c r="D16" t="n">
-        <v>45.5</v>
+        <v>44.9</v>
       </c>
       <c r="E16" t="n">
-        <v>45.5</v>
+        <v>44.9</v>
       </c>
       <c r="F16" t="n">
-        <v>1376.44</v>
+        <v>1767.3972</v>
       </c>
       <c r="G16" t="n">
-        <v>175031.2044231989</v>
+        <v>24858.77982319895</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>44.95</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1040,30 +1056,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45.8</v>
+        <v>44.85</v>
       </c>
       <c r="C17" t="n">
-        <v>45.5</v>
+        <v>44.82</v>
       </c>
       <c r="D17" t="n">
-        <v>45.8</v>
+        <v>44.85</v>
       </c>
       <c r="E17" t="n">
-        <v>45.5</v>
+        <v>44.82</v>
       </c>
       <c r="F17" t="n">
-        <v>1889.562</v>
+        <v>31632.6182</v>
       </c>
       <c r="G17" t="n">
-        <v>175031.2044231989</v>
+        <v>-6773.83837680105</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>44.9</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1080,30 +1098,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.5</v>
+        <v>44.4</v>
       </c>
       <c r="C18" t="n">
-        <v>45.1</v>
+        <v>44.39</v>
       </c>
       <c r="D18" t="n">
-        <v>45.8</v>
+        <v>44.4</v>
       </c>
       <c r="E18" t="n">
-        <v>45.1</v>
+        <v>44.39</v>
       </c>
       <c r="F18" t="n">
-        <v>38413.7527</v>
+        <v>2710.617</v>
       </c>
       <c r="G18" t="n">
-        <v>136617.4517231989</v>
+        <v>-9484.45537680105</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>44.82</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1120,30 +1140,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45.78</v>
+        <v>44.3</v>
       </c>
       <c r="C19" t="n">
         <v>44.9</v>
       </c>
       <c r="D19" t="n">
-        <v>45.78</v>
+        <v>44.9</v>
       </c>
       <c r="E19" t="n">
-        <v>44.9</v>
+        <v>44.3</v>
       </c>
       <c r="F19" t="n">
-        <v>22412.07</v>
+        <v>2367.478</v>
       </c>
       <c r="G19" t="n">
-        <v>114205.3817231989</v>
+        <v>-7116.97737680105</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>44.39</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1160,30 +1182,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45.11</v>
+        <v>44.9</v>
       </c>
       <c r="C20" t="n">
-        <v>45.7</v>
+        <v>44.9</v>
       </c>
       <c r="D20" t="n">
-        <v>45.7</v>
+        <v>44.9</v>
       </c>
       <c r="E20" t="n">
         <v>44.9</v>
       </c>
       <c r="F20" t="n">
-        <v>11398.1307</v>
+        <v>465.3886</v>
       </c>
       <c r="G20" t="n">
-        <v>125603.5124231989</v>
+        <v>-7116.97737680105</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>44.9</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1200,30 +1224,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.83</v>
+        <v>44.9</v>
       </c>
       <c r="C21" t="n">
-        <v>44.41</v>
+        <v>44.17</v>
       </c>
       <c r="D21" t="n">
-        <v>44.83</v>
+        <v>44.9</v>
       </c>
       <c r="E21" t="n">
-        <v>44.41</v>
+        <v>44.17</v>
       </c>
       <c r="F21" t="n">
-        <v>17107.666</v>
+        <v>10983.908</v>
       </c>
       <c r="G21" t="n">
-        <v>108495.8464231989</v>
+        <v>-18100.88537680105</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>44.9</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1240,30 +1266,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44.4</v>
+        <v>44.17</v>
       </c>
       <c r="C22" t="n">
-        <v>45.5</v>
+        <v>44.17</v>
       </c>
       <c r="D22" t="n">
-        <v>45.5</v>
+        <v>44.17</v>
       </c>
       <c r="E22" t="n">
-        <v>44.4</v>
+        <v>44.17</v>
       </c>
       <c r="F22" t="n">
-        <v>786.395</v>
+        <v>1139.2305</v>
       </c>
       <c r="G22" t="n">
-        <v>109282.2414231989</v>
+        <v>-18100.88537680105</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>44.17</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1280,30 +1308,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45.4</v>
+        <v>44.17</v>
       </c>
       <c r="C23" t="n">
-        <v>45.5</v>
+        <v>44.17</v>
       </c>
       <c r="D23" t="n">
-        <v>45.5</v>
+        <v>44.17</v>
       </c>
       <c r="E23" t="n">
-        <v>45.4</v>
+        <v>44.17</v>
       </c>
       <c r="F23" t="n">
-        <v>16466.7184</v>
+        <v>92.76949999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>109282.2414231989</v>
+        <v>-18100.88537680105</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>44.17</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1320,30 +1350,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>45.6</v>
+        <v>44.17</v>
       </c>
       <c r="C24" t="n">
-        <v>45.6</v>
+        <v>44.17</v>
       </c>
       <c r="D24" t="n">
-        <v>45.6</v>
+        <v>44.17</v>
       </c>
       <c r="E24" t="n">
-        <v>45.6</v>
+        <v>44.17</v>
       </c>
       <c r="F24" t="n">
-        <v>4600</v>
+        <v>2724</v>
       </c>
       <c r="G24" t="n">
-        <v>113882.2414231989</v>
+        <v>-18100.88537680105</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>44.17</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1360,30 +1392,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45.6</v>
+        <v>44.17</v>
       </c>
       <c r="C25" t="n">
-        <v>46.98</v>
+        <v>44.17</v>
       </c>
       <c r="D25" t="n">
-        <v>46.98</v>
+        <v>44.17</v>
       </c>
       <c r="E25" t="n">
-        <v>45.6</v>
+        <v>44.17</v>
       </c>
       <c r="F25" t="n">
-        <v>81551.9056</v>
+        <v>6028.8226</v>
       </c>
       <c r="G25" t="n">
-        <v>195434.1470231989</v>
+        <v>-18100.88537680105</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>44.17</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1400,30 +1434,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>46.88</v>
+        <v>44.17</v>
       </c>
       <c r="C26" t="n">
-        <v>47</v>
+        <v>44.17</v>
       </c>
       <c r="D26" t="n">
-        <v>47.2</v>
+        <v>44.17</v>
       </c>
       <c r="E26" t="n">
-        <v>46</v>
+        <v>44.17</v>
       </c>
       <c r="F26" t="n">
-        <v>40019.7812</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="n">
-        <v>235453.9282231989</v>
+        <v>-18100.88537680105</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>44.17</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1440,30 +1476,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>46.4</v>
+        <v>44.07</v>
       </c>
       <c r="C27" t="n">
-        <v>47</v>
+        <v>44.07</v>
       </c>
       <c r="D27" t="n">
-        <v>47.3</v>
+        <v>44.07</v>
       </c>
       <c r="E27" t="n">
-        <v>46.3</v>
+        <v>44.07</v>
       </c>
       <c r="F27" t="n">
-        <v>127222.6631</v>
+        <v>24966</v>
       </c>
       <c r="G27" t="n">
-        <v>235453.9282231989</v>
+        <v>-43066.88537680104</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>44.17</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1480,30 +1518,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>47</v>
+        <v>44.17</v>
       </c>
       <c r="C28" t="n">
-        <v>48.1</v>
+        <v>44.17</v>
       </c>
       <c r="D28" t="n">
-        <v>48.1</v>
+        <v>44.17</v>
       </c>
       <c r="E28" t="n">
-        <v>47</v>
+        <v>44.17</v>
       </c>
       <c r="F28" t="n">
-        <v>132833.4835</v>
+        <v>9800.366900000001</v>
       </c>
       <c r="G28" t="n">
-        <v>368287.411723199</v>
+        <v>-33266.51847680104</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>44.07</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1520,30 +1560,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>47.5</v>
+        <v>44.17</v>
       </c>
       <c r="C29" t="n">
-        <v>48.94</v>
+        <v>43.9</v>
       </c>
       <c r="D29" t="n">
-        <v>48.94</v>
+        <v>44.17</v>
       </c>
       <c r="E29" t="n">
-        <v>47.43</v>
+        <v>43.9</v>
       </c>
       <c r="F29" t="n">
-        <v>194589.0117</v>
+        <v>10972.7494</v>
       </c>
       <c r="G29" t="n">
-        <v>562876.423423199</v>
+        <v>-44239.26787680104</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>44.17</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1560,30 +1602,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" t="n">
-        <v>47.5</v>
+        <v>43.9</v>
       </c>
       <c r="D30" t="n">
-        <v>48.94</v>
+        <v>44</v>
       </c>
       <c r="E30" t="n">
-        <v>47.5</v>
+        <v>43.9</v>
       </c>
       <c r="F30" t="n">
-        <v>58246.3561</v>
+        <v>90000</v>
       </c>
       <c r="G30" t="n">
-        <v>504630.067323199</v>
+        <v>-44239.26787680104</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>43.9</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1600,30 +1644,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>48.1</v>
+        <v>43.91</v>
       </c>
       <c r="C31" t="n">
-        <v>48.08</v>
+        <v>43.9</v>
       </c>
       <c r="D31" t="n">
-        <v>48.2</v>
+        <v>43.91</v>
       </c>
       <c r="E31" t="n">
-        <v>48</v>
+        <v>43.9</v>
       </c>
       <c r="F31" t="n">
-        <v>58897.2525</v>
+        <v>17000</v>
       </c>
       <c r="G31" t="n">
-        <v>563527.319823199</v>
+        <v>-44239.26787680104</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>43.9</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1640,30 +1686,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>48.08</v>
+        <v>44.01</v>
       </c>
       <c r="C32" t="n">
-        <v>48.8</v>
+        <v>43.9</v>
       </c>
       <c r="D32" t="n">
-        <v>48.8</v>
+        <v>44.01</v>
       </c>
       <c r="E32" t="n">
-        <v>48.08</v>
+        <v>43.9</v>
       </c>
       <c r="F32" t="n">
-        <v>51602.0837</v>
+        <v>3345.4116</v>
       </c>
       <c r="G32" t="n">
-        <v>615129.4035231989</v>
+        <v>-44239.26787680104</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>43.9</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1680,30 +1728,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>48.7</v>
+        <v>43.91</v>
       </c>
       <c r="C33" t="n">
-        <v>48.7</v>
+        <v>44.87</v>
       </c>
       <c r="D33" t="n">
-        <v>48.7</v>
+        <v>44.87</v>
       </c>
       <c r="E33" t="n">
-        <v>48.7</v>
+        <v>43.91</v>
       </c>
       <c r="F33" t="n">
-        <v>10524.7849</v>
+        <v>20362.75</v>
       </c>
       <c r="G33" t="n">
-        <v>604604.6186231989</v>
+        <v>-23876.51787680104</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>43.9</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1720,72 +1770,78 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>48.8</v>
+        <v>44.59</v>
       </c>
       <c r="C34" t="n">
-        <v>48.96</v>
+        <v>44.59</v>
       </c>
       <c r="D34" t="n">
-        <v>49.2</v>
+        <v>44.59</v>
       </c>
       <c r="E34" t="n">
-        <v>48.3</v>
+        <v>44.59</v>
       </c>
       <c r="F34" t="n">
-        <v>90472.171</v>
+        <v>3262</v>
       </c>
       <c r="G34" t="n">
-        <v>695076.7896231989</v>
+        <v>-27138.51787680104</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>44.87</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
-        <v>1.000227790432802</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>49.2</v>
+        <v>44.6</v>
       </c>
       <c r="C35" t="n">
-        <v>48.42</v>
+        <v>44.6</v>
       </c>
       <c r="D35" t="n">
-        <v>49.2</v>
+        <v>44.6</v>
       </c>
       <c r="E35" t="n">
-        <v>48.31</v>
+        <v>44.6</v>
       </c>
       <c r="F35" t="n">
-        <v>56233.5457</v>
+        <v>3290</v>
       </c>
       <c r="G35" t="n">
-        <v>638843.2439231989</v>
+        <v>-23848.51787680104</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1796,32 +1852,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>48.95</v>
+        <v>44.6</v>
       </c>
       <c r="C36" t="n">
-        <v>48.01</v>
+        <v>44.6</v>
       </c>
       <c r="D36" t="n">
-        <v>48.95</v>
+        <v>44.6</v>
       </c>
       <c r="E36" t="n">
-        <v>48.01</v>
+        <v>44.6</v>
       </c>
       <c r="F36" t="n">
-        <v>67324.0603</v>
+        <v>19019.6156</v>
       </c>
       <c r="G36" t="n">
-        <v>571519.1836231989</v>
+        <v>-23848.51787680104</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1832,32 +1892,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>48.01</v>
+        <v>44.59</v>
       </c>
       <c r="C37" t="n">
-        <v>48.01</v>
+        <v>44.59</v>
       </c>
       <c r="D37" t="n">
-        <v>48.01</v>
+        <v>44.59</v>
       </c>
       <c r="E37" t="n">
-        <v>47.6</v>
+        <v>44.59</v>
       </c>
       <c r="F37" t="n">
-        <v>29048.1525</v>
+        <v>4578.8787</v>
       </c>
       <c r="G37" t="n">
-        <v>571519.1836231989</v>
+        <v>-28427.39657680105</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1868,32 +1932,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>47.9</v>
+        <v>44.8</v>
       </c>
       <c r="C38" t="n">
-        <v>47.6</v>
+        <v>44.9</v>
       </c>
       <c r="D38" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E38" t="n">
-        <v>47.6</v>
+        <v>44.8</v>
       </c>
       <c r="F38" t="n">
-        <v>54983.7735</v>
+        <v>53760.9114</v>
       </c>
       <c r="G38" t="n">
-        <v>516535.4101231989</v>
+        <v>25333.51482319895</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1904,32 +1972,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>47.58</v>
+        <v>44.9</v>
       </c>
       <c r="C39" t="n">
-        <v>47.5</v>
+        <v>44.9</v>
       </c>
       <c r="D39" t="n">
-        <v>47.58</v>
+        <v>45</v>
       </c>
       <c r="E39" t="n">
-        <v>46.59</v>
+        <v>44.9</v>
       </c>
       <c r="F39" t="n">
-        <v>25991.5064</v>
+        <v>11712.14</v>
       </c>
       <c r="G39" t="n">
-        <v>490543.9037231989</v>
+        <v>25333.51482319895</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1940,32 +2012,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>46.8</v>
+        <v>44.9</v>
       </c>
       <c r="C40" t="n">
-        <v>47.06</v>
+        <v>44.9</v>
       </c>
       <c r="D40" t="n">
-        <v>47.5</v>
+        <v>44.9</v>
       </c>
       <c r="E40" t="n">
-        <v>46.59</v>
+        <v>44.9</v>
       </c>
       <c r="F40" t="n">
-        <v>12656.7849</v>
+        <v>197.91</v>
       </c>
       <c r="G40" t="n">
-        <v>477887.1188231988</v>
+        <v>25333.51482319895</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1976,32 +2052,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>46.79</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>45.8</v>
+        <v>45.3</v>
       </c>
       <c r="D41" t="n">
-        <v>46.79</v>
+        <v>45.4</v>
       </c>
       <c r="E41" t="n">
-        <v>45.8</v>
+        <v>45</v>
       </c>
       <c r="F41" t="n">
-        <v>37414.5486</v>
+        <v>57970.5129</v>
       </c>
       <c r="G41" t="n">
-        <v>440472.5702231989</v>
+        <v>83304.02772319896</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2012,32 +2092,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>46.3</v>
+        <v>45.3</v>
       </c>
       <c r="C42" t="n">
-        <v>46</v>
+        <v>45.3</v>
       </c>
       <c r="D42" t="n">
-        <v>46.3</v>
+        <v>45.59</v>
       </c>
       <c r="E42" t="n">
-        <v>45.28</v>
+        <v>45.3</v>
       </c>
       <c r="F42" t="n">
-        <v>59193.6256</v>
+        <v>8154.9967</v>
       </c>
       <c r="G42" t="n">
-        <v>499666.1958231989</v>
+        <v>83304.02772319896</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2048,22 +2132,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>46</v>
+        <v>45.45</v>
       </c>
       <c r="C43" t="n">
-        <v>46.3</v>
+        <v>45.4</v>
       </c>
       <c r="D43" t="n">
-        <v>46.3</v>
+        <v>45.45</v>
       </c>
       <c r="E43" t="n">
-        <v>46</v>
+        <v>45.35</v>
       </c>
       <c r="F43" t="n">
-        <v>44473.0054</v>
+        <v>2591</v>
       </c>
       <c r="G43" t="n">
-        <v>544139.2012231989</v>
+        <v>85895.02772319896</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2073,7 +2157,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2084,22 +2172,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>46.27</v>
+        <v>45.4</v>
       </c>
       <c r="C44" t="n">
-        <v>46.27</v>
+        <v>45.5</v>
       </c>
       <c r="D44" t="n">
-        <v>46.27</v>
+        <v>45.79</v>
       </c>
       <c r="E44" t="n">
-        <v>46.27</v>
+        <v>45.4</v>
       </c>
       <c r="F44" t="n">
-        <v>3122.0853</v>
+        <v>89136.1767</v>
       </c>
       <c r="G44" t="n">
-        <v>541017.1159231989</v>
+        <v>175031.2044231989</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2109,7 +2197,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2120,32 +2212,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="C45" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="D45" t="n">
-        <v>46.17</v>
+        <v>45.5</v>
       </c>
       <c r="E45" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="F45" t="n">
-        <v>27351.2979</v>
+        <v>1376.44</v>
       </c>
       <c r="G45" t="n">
-        <v>513665.8180231989</v>
+        <v>175031.2044231989</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2159,19 +2255,19 @@
         <v>45.8</v>
       </c>
       <c r="C46" t="n">
-        <v>46.79</v>
+        <v>45.5</v>
       </c>
       <c r="D46" t="n">
-        <v>46.79</v>
+        <v>45.8</v>
       </c>
       <c r="E46" t="n">
-        <v>44.62</v>
+        <v>45.5</v>
       </c>
       <c r="F46" t="n">
-        <v>20979.4011</v>
+        <v>1889.562</v>
       </c>
       <c r="G46" t="n">
-        <v>534645.2191231989</v>
+        <v>175031.2044231989</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2181,7 +2277,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2192,22 +2292,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>46.2</v>
+        <v>45.5</v>
       </c>
       <c r="C47" t="n">
-        <v>46.2</v>
+        <v>45.1</v>
       </c>
       <c r="D47" t="n">
-        <v>46.2</v>
+        <v>45.8</v>
       </c>
       <c r="E47" t="n">
-        <v>46.2</v>
+        <v>45.1</v>
       </c>
       <c r="F47" t="n">
-        <v>66</v>
+        <v>38413.7527</v>
       </c>
       <c r="G47" t="n">
-        <v>534579.2191231989</v>
+        <v>136617.4517231989</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2217,7 +2317,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2228,22 +2332,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>46.68</v>
+        <v>45.78</v>
       </c>
       <c r="C48" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="D48" t="n">
-        <v>46.68</v>
+        <v>45.78</v>
       </c>
       <c r="E48" t="n">
         <v>44.9</v>
       </c>
       <c r="F48" t="n">
-        <v>5734.2237</v>
+        <v>22412.07</v>
       </c>
       <c r="G48" t="n">
-        <v>528844.9954231989</v>
+        <v>114205.3817231989</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2253,7 +2357,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2264,22 +2372,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>46.68</v>
+        <v>45.11</v>
       </c>
       <c r="C49" t="n">
-        <v>46.1</v>
+        <v>45.7</v>
       </c>
       <c r="D49" t="n">
-        <v>46.68</v>
+        <v>45.7</v>
       </c>
       <c r="E49" t="n">
-        <v>44.33</v>
+        <v>44.9</v>
       </c>
       <c r="F49" t="n">
-        <v>40537.3895</v>
+        <v>11398.1307</v>
       </c>
       <c r="G49" t="n">
-        <v>569382.384923199</v>
+        <v>125603.5124231989</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2289,7 +2397,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2300,22 +2412,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>45.8</v>
+        <v>44.83</v>
       </c>
       <c r="C50" t="n">
-        <v>45.9</v>
+        <v>44.41</v>
       </c>
       <c r="D50" t="n">
-        <v>46.19</v>
+        <v>44.83</v>
       </c>
       <c r="E50" t="n">
-        <v>45.1</v>
+        <v>44.41</v>
       </c>
       <c r="F50" t="n">
-        <v>7425</v>
+        <v>17107.666</v>
       </c>
       <c r="G50" t="n">
-        <v>561957.384923199</v>
+        <v>108495.8464231989</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2325,7 +2437,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2336,22 +2452,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>45.3</v>
+        <v>44.4</v>
       </c>
       <c r="C51" t="n">
-        <v>45.7</v>
+        <v>45.5</v>
       </c>
       <c r="D51" t="n">
-        <v>45.8</v>
+        <v>45.5</v>
       </c>
       <c r="E51" t="n">
-        <v>45.3</v>
+        <v>44.4</v>
       </c>
       <c r="F51" t="n">
-        <v>44023.8804</v>
+        <v>786.395</v>
       </c>
       <c r="G51" t="n">
-        <v>517933.5045231989</v>
+        <v>109282.2414231989</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2361,7 +2477,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2372,22 +2492,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>45.9</v>
+        <v>45.4</v>
       </c>
       <c r="C52" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="D52" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="E52" t="n">
-        <v>45.9</v>
+        <v>45.4</v>
       </c>
       <c r="F52" t="n">
-        <v>82</v>
+        <v>16466.7184</v>
       </c>
       <c r="G52" t="n">
-        <v>518015.5045231989</v>
+        <v>109282.2414231989</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2397,7 +2517,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2408,22 +2532,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>45.1</v>
+        <v>45.6</v>
       </c>
       <c r="C53" t="n">
-        <v>45.8</v>
+        <v>45.6</v>
       </c>
       <c r="D53" t="n">
-        <v>45.8</v>
+        <v>45.6</v>
       </c>
       <c r="E53" t="n">
-        <v>44.3</v>
+        <v>45.6</v>
       </c>
       <c r="F53" t="n">
-        <v>17540.6715</v>
+        <v>4600</v>
       </c>
       <c r="G53" t="n">
-        <v>500474.8330231989</v>
+        <v>113882.2414231989</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2433,7 +2557,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2444,22 +2572,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>44.31</v>
+        <v>45.6</v>
       </c>
       <c r="C54" t="n">
-        <v>45.7</v>
+        <v>46.98</v>
       </c>
       <c r="D54" t="n">
-        <v>45.7</v>
+        <v>46.98</v>
       </c>
       <c r="E54" t="n">
-        <v>44.31</v>
+        <v>45.6</v>
       </c>
       <c r="F54" t="n">
-        <v>17552.6783</v>
+        <v>81551.9056</v>
       </c>
       <c r="G54" t="n">
-        <v>482922.154723199</v>
+        <v>195434.1470231989</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2469,7 +2597,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2480,22 +2612,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>44.42</v>
+        <v>46.88</v>
       </c>
       <c r="C55" t="n">
-        <v>44.47</v>
+        <v>47</v>
       </c>
       <c r="D55" t="n">
-        <v>44.47</v>
+        <v>47.2</v>
       </c>
       <c r="E55" t="n">
-        <v>44.42</v>
+        <v>46</v>
       </c>
       <c r="F55" t="n">
-        <v>104</v>
+        <v>40019.7812</v>
       </c>
       <c r="G55" t="n">
-        <v>482818.154723199</v>
+        <v>235453.9282231989</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2505,7 +2637,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2516,22 +2652,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>44.48</v>
+        <v>46.4</v>
       </c>
       <c r="C56" t="n">
-        <v>45.4</v>
+        <v>47</v>
       </c>
       <c r="D56" t="n">
-        <v>45.4</v>
+        <v>47.3</v>
       </c>
       <c r="E56" t="n">
-        <v>44.48</v>
+        <v>46.3</v>
       </c>
       <c r="F56" t="n">
-        <v>332</v>
+        <v>127222.6631</v>
       </c>
       <c r="G56" t="n">
-        <v>483150.154723199</v>
+        <v>235453.9282231989</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2541,7 +2677,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2552,22 +2692,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>45.6</v>
+        <v>47</v>
       </c>
       <c r="C57" t="n">
-        <v>45.6</v>
+        <v>48.1</v>
       </c>
       <c r="D57" t="n">
-        <v>45.6</v>
+        <v>48.1</v>
       </c>
       <c r="E57" t="n">
-        <v>45.6</v>
+        <v>47</v>
       </c>
       <c r="F57" t="n">
-        <v>66</v>
+        <v>132833.4835</v>
       </c>
       <c r="G57" t="n">
-        <v>483216.154723199</v>
+        <v>368287.411723199</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2577,7 +2717,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2588,22 +2732,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>45.53</v>
+        <v>47.5</v>
       </c>
       <c r="C58" t="n">
-        <v>45.33</v>
+        <v>48.94</v>
       </c>
       <c r="D58" t="n">
-        <v>45.53</v>
+        <v>48.94</v>
       </c>
       <c r="E58" t="n">
-        <v>45.33</v>
+        <v>47.43</v>
       </c>
       <c r="F58" t="n">
-        <v>67</v>
+        <v>194589.0117</v>
       </c>
       <c r="G58" t="n">
-        <v>483149.154723199</v>
+        <v>562876.423423199</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2613,7 +2757,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2624,22 +2772,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>45.33</v>
+        <v>48</v>
       </c>
       <c r="C59" t="n">
-        <v>45.67</v>
+        <v>47.5</v>
       </c>
       <c r="D59" t="n">
-        <v>45.68</v>
+        <v>48.94</v>
       </c>
       <c r="E59" t="n">
-        <v>45.33</v>
+        <v>47.5</v>
       </c>
       <c r="F59" t="n">
-        <v>1156</v>
+        <v>58246.3561</v>
       </c>
       <c r="G59" t="n">
-        <v>484305.154723199</v>
+        <v>504630.067323199</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2649,7 +2797,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2660,22 +2812,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>45.21</v>
+        <v>48.1</v>
       </c>
       <c r="C60" t="n">
-        <v>45.41</v>
+        <v>48.08</v>
       </c>
       <c r="D60" t="n">
-        <v>45.49</v>
+        <v>48.2</v>
       </c>
       <c r="E60" t="n">
-        <v>45.1</v>
+        <v>48</v>
       </c>
       <c r="F60" t="n">
-        <v>4073</v>
+        <v>58897.2525</v>
       </c>
       <c r="G60" t="n">
-        <v>480232.154723199</v>
+        <v>563527.319823199</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2685,7 +2837,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2696,22 +2852,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>45.17</v>
+        <v>48.08</v>
       </c>
       <c r="C61" t="n">
-        <v>45.17</v>
+        <v>48.8</v>
       </c>
       <c r="D61" t="n">
-        <v>45.17</v>
+        <v>48.8</v>
       </c>
       <c r="E61" t="n">
-        <v>45.17</v>
+        <v>48.08</v>
       </c>
       <c r="F61" t="n">
-        <v>430</v>
+        <v>51602.0837</v>
       </c>
       <c r="G61" t="n">
-        <v>479802.154723199</v>
+        <v>615129.4035231989</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2721,7 +2877,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2732,22 +2892,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>45.19</v>
+        <v>48.7</v>
       </c>
       <c r="C62" t="n">
-        <v>45.07</v>
+        <v>48.7</v>
       </c>
       <c r="D62" t="n">
-        <v>45.2</v>
+        <v>48.7</v>
       </c>
       <c r="E62" t="n">
-        <v>45.07</v>
+        <v>48.7</v>
       </c>
       <c r="F62" t="n">
-        <v>542</v>
+        <v>10524.7849</v>
       </c>
       <c r="G62" t="n">
-        <v>479260.154723199</v>
+        <v>604604.6186231989</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2757,7 +2917,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2768,22 +2932,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>44.99</v>
+        <v>48.8</v>
       </c>
       <c r="C63" t="n">
-        <v>44.97</v>
+        <v>48.96</v>
       </c>
       <c r="D63" t="n">
-        <v>44.99</v>
+        <v>49.2</v>
       </c>
       <c r="E63" t="n">
-        <v>44.97</v>
+        <v>48.3</v>
       </c>
       <c r="F63" t="n">
-        <v>47</v>
+        <v>90472.171</v>
       </c>
       <c r="G63" t="n">
-        <v>479213.154723199</v>
+        <v>695076.7896231989</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2793,7 +2957,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2804,35 +2972,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>45.09</v>
+        <v>49.2</v>
       </c>
       <c r="C64" t="n">
-        <v>45.18</v>
+        <v>48.42</v>
       </c>
       <c r="D64" t="n">
-        <v>45.18</v>
+        <v>49.2</v>
       </c>
       <c r="E64" t="n">
-        <v>45.09</v>
+        <v>48.31</v>
       </c>
       <c r="F64" t="n">
-        <v>700</v>
+        <v>56233.5457</v>
       </c>
       <c r="G64" t="n">
-        <v>479913.154723199</v>
+        <v>638843.2439231989</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2840,28 +3010,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>44.95</v>
+        <v>48.95</v>
       </c>
       <c r="C65" t="n">
-        <v>43.5</v>
+        <v>48.01</v>
       </c>
       <c r="D65" t="n">
-        <v>44.95</v>
+        <v>48.95</v>
       </c>
       <c r="E65" t="n">
-        <v>43.5</v>
+        <v>48.01</v>
       </c>
       <c r="F65" t="n">
-        <v>38761.7081</v>
+        <v>67324.0603</v>
       </c>
       <c r="G65" t="n">
-        <v>441151.446623199</v>
+        <v>571519.1836231989</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2876,28 +3046,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>43.87</v>
+        <v>48.01</v>
       </c>
       <c r="C66" t="n">
-        <v>43.6</v>
+        <v>48.01</v>
       </c>
       <c r="D66" t="n">
-        <v>44.89</v>
+        <v>48.01</v>
       </c>
       <c r="E66" t="n">
-        <v>43.5</v>
+        <v>47.6</v>
       </c>
       <c r="F66" t="n">
-        <v>61785.2864</v>
+        <v>29048.1525</v>
       </c>
       <c r="G66" t="n">
-        <v>502936.733023199</v>
+        <v>571519.1836231989</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2912,28 +3082,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>43.5</v>
+        <v>47.9</v>
       </c>
       <c r="C67" t="n">
-        <v>43</v>
+        <v>47.6</v>
       </c>
       <c r="D67" t="n">
-        <v>43.5</v>
+        <v>48</v>
       </c>
       <c r="E67" t="n">
-        <v>43</v>
+        <v>47.6</v>
       </c>
       <c r="F67" t="n">
-        <v>5300</v>
+        <v>54983.7735</v>
       </c>
       <c r="G67" t="n">
-        <v>497636.733023199</v>
+        <v>516535.4101231989</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2948,28 +3118,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>43</v>
+        <v>47.58</v>
       </c>
       <c r="C68" t="n">
-        <v>42.33</v>
+        <v>47.5</v>
       </c>
       <c r="D68" t="n">
-        <v>43</v>
+        <v>47.58</v>
       </c>
       <c r="E68" t="n">
-        <v>42.33</v>
+        <v>46.59</v>
       </c>
       <c r="F68" t="n">
-        <v>12836.3583</v>
+        <v>25991.5064</v>
       </c>
       <c r="G68" t="n">
-        <v>484800.3747231989</v>
+        <v>490543.9037231989</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2984,22 +3154,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>43.11</v>
+        <v>46.8</v>
       </c>
       <c r="C69" t="n">
-        <v>43.51</v>
+        <v>47.06</v>
       </c>
       <c r="D69" t="n">
-        <v>43.51</v>
+        <v>47.5</v>
       </c>
       <c r="E69" t="n">
-        <v>43.11</v>
+        <v>46.59</v>
       </c>
       <c r="F69" t="n">
-        <v>4200</v>
+        <v>12656.7849</v>
       </c>
       <c r="G69" t="n">
-        <v>489000.3747231989</v>
+        <v>477887.1188231988</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3020,22 +3190,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>43.61</v>
+        <v>46.79</v>
       </c>
       <c r="C70" t="n">
-        <v>44.99</v>
+        <v>45.8</v>
       </c>
       <c r="D70" t="n">
-        <v>44.99</v>
+        <v>46.79</v>
       </c>
       <c r="E70" t="n">
-        <v>43.61</v>
+        <v>45.8</v>
       </c>
       <c r="F70" t="n">
-        <v>9087</v>
+        <v>37414.5486</v>
       </c>
       <c r="G70" t="n">
-        <v>498087.3747231989</v>
+        <v>440472.5702231989</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3056,22 +3226,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>43.5</v>
+        <v>46.3</v>
       </c>
       <c r="C71" t="n">
-        <v>44.44</v>
+        <v>46</v>
       </c>
       <c r="D71" t="n">
-        <v>44.44</v>
+        <v>46.3</v>
       </c>
       <c r="E71" t="n">
-        <v>43.5</v>
+        <v>45.28</v>
       </c>
       <c r="F71" t="n">
-        <v>7939.8573</v>
+        <v>59193.6256</v>
       </c>
       <c r="G71" t="n">
-        <v>490147.517423199</v>
+        <v>499666.1958231989</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3092,22 +3262,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>44.31</v>
+        <v>46</v>
       </c>
       <c r="C72" t="n">
-        <v>44.31</v>
+        <v>46.3</v>
       </c>
       <c r="D72" t="n">
-        <v>44.31</v>
+        <v>46.3</v>
       </c>
       <c r="E72" t="n">
-        <v>44.31</v>
+        <v>46</v>
       </c>
       <c r="F72" t="n">
-        <v>351.5016</v>
+        <v>44473.0054</v>
       </c>
       <c r="G72" t="n">
-        <v>489796.0158231989</v>
+        <v>544139.2012231989</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3128,22 +3298,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>43.5</v>
+        <v>46.27</v>
       </c>
       <c r="C73" t="n">
-        <v>44.69</v>
+        <v>46.27</v>
       </c>
       <c r="D73" t="n">
-        <v>44.69</v>
+        <v>46.27</v>
       </c>
       <c r="E73" t="n">
-        <v>42.51</v>
+        <v>46.27</v>
       </c>
       <c r="F73" t="n">
-        <v>4019.8837</v>
+        <v>3122.0853</v>
       </c>
       <c r="G73" t="n">
-        <v>493815.899523199</v>
+        <v>541017.1159231989</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3164,22 +3334,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>43.7</v>
+        <v>45.3</v>
       </c>
       <c r="C74" t="n">
-        <v>44.38</v>
+        <v>46</v>
       </c>
       <c r="D74" t="n">
-        <v>44.49</v>
+        <v>46.17</v>
       </c>
       <c r="E74" t="n">
-        <v>43.7</v>
+        <v>45.3</v>
       </c>
       <c r="F74" t="n">
-        <v>23514.1518</v>
+        <v>27351.2979</v>
       </c>
       <c r="G74" t="n">
-        <v>470301.747723199</v>
+        <v>513665.8180231989</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3200,22 +3370,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>44.38</v>
+        <v>45.8</v>
       </c>
       <c r="C75" t="n">
-        <v>44.49</v>
+        <v>46.79</v>
       </c>
       <c r="D75" t="n">
-        <v>44.49</v>
+        <v>46.79</v>
       </c>
       <c r="E75" t="n">
-        <v>43.3</v>
+        <v>44.62</v>
       </c>
       <c r="F75" t="n">
-        <v>17287.0899</v>
+        <v>20979.4011</v>
       </c>
       <c r="G75" t="n">
-        <v>487588.837623199</v>
+        <v>534645.2191231989</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3236,22 +3406,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>44.61</v>
+        <v>46.2</v>
       </c>
       <c r="C76" t="n">
-        <v>44.3</v>
+        <v>46.2</v>
       </c>
       <c r="D76" t="n">
-        <v>44.61</v>
+        <v>46.2</v>
       </c>
       <c r="E76" t="n">
-        <v>43.5</v>
+        <v>46.2</v>
       </c>
       <c r="F76" t="n">
-        <v>5834.93</v>
+        <v>66</v>
       </c>
       <c r="G76" t="n">
-        <v>481753.907623199</v>
+        <v>534579.2191231989</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3272,22 +3442,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>43.9</v>
+        <v>46.68</v>
       </c>
       <c r="C77" t="n">
-        <v>44.5</v>
+        <v>45.1</v>
       </c>
       <c r="D77" t="n">
-        <v>44.5</v>
+        <v>46.68</v>
       </c>
       <c r="E77" t="n">
-        <v>43.6</v>
+        <v>44.9</v>
       </c>
       <c r="F77" t="n">
-        <v>15206.7216</v>
+        <v>5734.2237</v>
       </c>
       <c r="G77" t="n">
-        <v>496960.629223199</v>
+        <v>528844.9954231989</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3308,22 +3478,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>44.3</v>
+        <v>46.68</v>
       </c>
       <c r="C78" t="n">
-        <v>44.49</v>
+        <v>46.1</v>
       </c>
       <c r="D78" t="n">
-        <v>44.8</v>
+        <v>46.68</v>
       </c>
       <c r="E78" t="n">
-        <v>44.3</v>
+        <v>44.33</v>
       </c>
       <c r="F78" t="n">
-        <v>1699</v>
+        <v>40537.3895</v>
       </c>
       <c r="G78" t="n">
-        <v>495261.629223199</v>
+        <v>569382.384923199</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3344,22 +3514,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>44.48</v>
+        <v>45.8</v>
       </c>
       <c r="C79" t="n">
-        <v>44.5</v>
+        <v>45.9</v>
       </c>
       <c r="D79" t="n">
-        <v>44.5</v>
+        <v>46.19</v>
       </c>
       <c r="E79" t="n">
-        <v>44.46</v>
+        <v>45.1</v>
       </c>
       <c r="F79" t="n">
-        <v>2891.2436</v>
+        <v>7425</v>
       </c>
       <c r="G79" t="n">
-        <v>498152.872823199</v>
+        <v>561957.384923199</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3380,22 +3550,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>44.59</v>
+        <v>45.3</v>
       </c>
       <c r="C80" t="n">
-        <v>44.59</v>
+        <v>45.7</v>
       </c>
       <c r="D80" t="n">
-        <v>44.59</v>
+        <v>45.8</v>
       </c>
       <c r="E80" t="n">
-        <v>44.59</v>
+        <v>45.3</v>
       </c>
       <c r="F80" t="n">
-        <v>19</v>
+        <v>44023.8804</v>
       </c>
       <c r="G80" t="n">
-        <v>498171.872823199</v>
+        <v>517933.5045231989</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3416,22 +3586,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>44.48</v>
+        <v>45.9</v>
       </c>
       <c r="C81" t="n">
-        <v>44.48</v>
+        <v>46</v>
       </c>
       <c r="D81" t="n">
-        <v>44.48</v>
+        <v>46</v>
       </c>
       <c r="E81" t="n">
-        <v>44.48</v>
+        <v>45.9</v>
       </c>
       <c r="F81" t="n">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G81" t="n">
-        <v>498159.872823199</v>
+        <v>518015.5045231989</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3452,22 +3622,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>44.38</v>
+        <v>45.1</v>
       </c>
       <c r="C82" t="n">
-        <v>44.19</v>
+        <v>45.8</v>
       </c>
       <c r="D82" t="n">
-        <v>44.38</v>
+        <v>45.8</v>
       </c>
       <c r="E82" t="n">
-        <v>44</v>
+        <v>44.3</v>
       </c>
       <c r="F82" t="n">
-        <v>5104</v>
+        <v>17540.6715</v>
       </c>
       <c r="G82" t="n">
-        <v>493055.872823199</v>
+        <v>500474.8330231989</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3488,22 +3658,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>44</v>
+        <v>44.31</v>
       </c>
       <c r="C83" t="n">
-        <v>44.29</v>
+        <v>45.7</v>
       </c>
       <c r="D83" t="n">
-        <v>44.29</v>
+        <v>45.7</v>
       </c>
       <c r="E83" t="n">
-        <v>44</v>
+        <v>44.31</v>
       </c>
       <c r="F83" t="n">
-        <v>159</v>
+        <v>17552.6783</v>
       </c>
       <c r="G83" t="n">
-        <v>493214.872823199</v>
+        <v>482922.154723199</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3524,22 +3694,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>44.39</v>
+        <v>44.42</v>
       </c>
       <c r="C84" t="n">
-        <v>44</v>
+        <v>44.47</v>
       </c>
       <c r="D84" t="n">
-        <v>44.39</v>
+        <v>44.47</v>
       </c>
       <c r="E84" t="n">
-        <v>43.89</v>
+        <v>44.42</v>
       </c>
       <c r="F84" t="n">
-        <v>8408.3218</v>
+        <v>104</v>
       </c>
       <c r="G84" t="n">
-        <v>484806.551023199</v>
+        <v>482818.154723199</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3560,22 +3730,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>44.29</v>
+        <v>44.48</v>
       </c>
       <c r="C85" t="n">
-        <v>44.29</v>
+        <v>45.4</v>
       </c>
       <c r="D85" t="n">
-        <v>44.29</v>
+        <v>45.4</v>
       </c>
       <c r="E85" t="n">
-        <v>44.29</v>
+        <v>44.48</v>
       </c>
       <c r="F85" t="n">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="G85" t="n">
-        <v>484822.551023199</v>
+        <v>483150.154723199</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3596,22 +3766,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>44</v>
+        <v>45.6</v>
       </c>
       <c r="C86" t="n">
-        <v>43.9</v>
+        <v>45.6</v>
       </c>
       <c r="D86" t="n">
-        <v>44</v>
+        <v>45.6</v>
       </c>
       <c r="E86" t="n">
-        <v>43.9</v>
+        <v>45.6</v>
       </c>
       <c r="F86" t="n">
-        <v>2500</v>
+        <v>66</v>
       </c>
       <c r="G86" t="n">
-        <v>482322.551023199</v>
+        <v>483216.154723199</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3632,22 +3802,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>44.2</v>
+        <v>45.53</v>
       </c>
       <c r="C87" t="n">
-        <v>44.29</v>
+        <v>45.33</v>
       </c>
       <c r="D87" t="n">
-        <v>44.29</v>
+        <v>45.53</v>
       </c>
       <c r="E87" t="n">
-        <v>44.2</v>
+        <v>45.33</v>
       </c>
       <c r="F87" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G87" t="n">
-        <v>482351.551023199</v>
+        <v>483149.154723199</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3668,22 +3838,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>43.9</v>
+        <v>45.33</v>
       </c>
       <c r="C88" t="n">
-        <v>43.6</v>
+        <v>45.67</v>
       </c>
       <c r="D88" t="n">
-        <v>43.9</v>
+        <v>45.68</v>
       </c>
       <c r="E88" t="n">
-        <v>42.72</v>
+        <v>45.33</v>
       </c>
       <c r="F88" t="n">
-        <v>70669.72289999999</v>
+        <v>1156</v>
       </c>
       <c r="G88" t="n">
-        <v>411681.828123199</v>
+        <v>484305.154723199</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3704,22 +3874,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>43.6</v>
+        <v>45.21</v>
       </c>
       <c r="C89" t="n">
-        <v>43.88</v>
+        <v>45.41</v>
       </c>
       <c r="D89" t="n">
-        <v>43.88</v>
+        <v>45.49</v>
       </c>
       <c r="E89" t="n">
-        <v>42.72</v>
+        <v>45.1</v>
       </c>
       <c r="F89" t="n">
-        <v>29827.201</v>
+        <v>4073</v>
       </c>
       <c r="G89" t="n">
-        <v>441509.029123199</v>
+        <v>480232.154723199</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3740,22 +3910,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>43.08</v>
+        <v>45.17</v>
       </c>
       <c r="C90" t="n">
-        <v>43.48</v>
+        <v>45.17</v>
       </c>
       <c r="D90" t="n">
-        <v>43.9</v>
+        <v>45.17</v>
       </c>
       <c r="E90" t="n">
-        <v>42.73</v>
+        <v>45.17</v>
       </c>
       <c r="F90" t="n">
-        <v>46032.6282</v>
+        <v>430</v>
       </c>
       <c r="G90" t="n">
-        <v>395476.400923199</v>
+        <v>479802.154723199</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3776,22 +3946,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>43.58</v>
+        <v>45.19</v>
       </c>
       <c r="C91" t="n">
-        <v>43.58</v>
+        <v>45.07</v>
       </c>
       <c r="D91" t="n">
-        <v>43.58</v>
+        <v>45.2</v>
       </c>
       <c r="E91" t="n">
-        <v>42.83</v>
+        <v>45.07</v>
       </c>
       <c r="F91" t="n">
-        <v>25622</v>
+        <v>542</v>
       </c>
       <c r="G91" t="n">
-        <v>421098.400923199</v>
+        <v>479260.154723199</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3812,22 +3982,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>43.78</v>
+        <v>44.99</v>
       </c>
       <c r="C92" t="n">
-        <v>43.8</v>
+        <v>44.97</v>
       </c>
       <c r="D92" t="n">
-        <v>43.8</v>
+        <v>44.99</v>
       </c>
       <c r="E92" t="n">
-        <v>43.67</v>
+        <v>44.97</v>
       </c>
       <c r="F92" t="n">
-        <v>2030</v>
+        <v>47</v>
       </c>
       <c r="G92" t="n">
-        <v>423128.400923199</v>
+        <v>479213.154723199</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3848,22 +4018,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>43.8</v>
+        <v>45.09</v>
       </c>
       <c r="C93" t="n">
-        <v>43.57</v>
+        <v>45.18</v>
       </c>
       <c r="D93" t="n">
-        <v>43.8</v>
+        <v>45.18</v>
       </c>
       <c r="E93" t="n">
-        <v>43.56</v>
+        <v>45.09</v>
       </c>
       <c r="F93" t="n">
-        <v>2118</v>
+        <v>700</v>
       </c>
       <c r="G93" t="n">
-        <v>421010.400923199</v>
+        <v>479913.154723199</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3884,22 +4054,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>43.89</v>
+        <v>44.95</v>
       </c>
       <c r="C94" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="D94" t="n">
-        <v>43.89</v>
+        <v>44.95</v>
       </c>
       <c r="E94" t="n">
-        <v>43.54</v>
+        <v>43.5</v>
       </c>
       <c r="F94" t="n">
-        <v>12960.5572</v>
+        <v>38761.7081</v>
       </c>
       <c r="G94" t="n">
-        <v>433970.958123199</v>
+        <v>441151.446623199</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3920,22 +4090,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>43.1</v>
+        <v>43.87</v>
       </c>
       <c r="C95" t="n">
-        <v>43.1</v>
+        <v>43.6</v>
       </c>
       <c r="D95" t="n">
-        <v>43.1</v>
+        <v>44.89</v>
       </c>
       <c r="E95" t="n">
-        <v>43.1</v>
+        <v>43.5</v>
       </c>
       <c r="F95" t="n">
-        <v>16</v>
+        <v>61785.2864</v>
       </c>
       <c r="G95" t="n">
-        <v>433954.958123199</v>
+        <v>502936.733023199</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3956,22 +4126,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>43.79</v>
+        <v>43.5</v>
       </c>
       <c r="C96" t="n">
-        <v>43.99</v>
+        <v>43</v>
       </c>
       <c r="D96" t="n">
-        <v>43.99</v>
+        <v>43.5</v>
       </c>
       <c r="E96" t="n">
-        <v>43.7</v>
+        <v>43</v>
       </c>
       <c r="F96" t="n">
-        <v>45027.4356</v>
+        <v>5300</v>
       </c>
       <c r="G96" t="n">
-        <v>478982.393723199</v>
+        <v>497636.733023199</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3992,22 +4162,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>43.61</v>
+        <v>43</v>
       </c>
       <c r="C97" t="n">
-        <v>44.71</v>
+        <v>42.33</v>
       </c>
       <c r="D97" t="n">
-        <v>44.71</v>
+        <v>43</v>
       </c>
       <c r="E97" t="n">
-        <v>43.6</v>
+        <v>42.33</v>
       </c>
       <c r="F97" t="n">
-        <v>22488.6066</v>
+        <v>12836.3583</v>
       </c>
       <c r="G97" t="n">
-        <v>501471.000323199</v>
+        <v>484800.3747231989</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4028,22 +4198,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>44.5</v>
+        <v>43.11</v>
       </c>
       <c r="C98" t="n">
-        <v>44.71</v>
+        <v>43.51</v>
       </c>
       <c r="D98" t="n">
-        <v>44.71</v>
+        <v>43.51</v>
       </c>
       <c r="E98" t="n">
-        <v>44.46</v>
+        <v>43.11</v>
       </c>
       <c r="F98" t="n">
-        <v>147.77</v>
+        <v>4200</v>
       </c>
       <c r="G98" t="n">
-        <v>501471.000323199</v>
+        <v>489000.3747231989</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4064,22 +4234,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>44.59</v>
+        <v>43.61</v>
       </c>
       <c r="C99" t="n">
-        <v>44.7</v>
+        <v>44.99</v>
       </c>
       <c r="D99" t="n">
-        <v>44.7</v>
+        <v>44.99</v>
       </c>
       <c r="E99" t="n">
-        <v>44.46</v>
+        <v>43.61</v>
       </c>
       <c r="F99" t="n">
-        <v>20014.2711</v>
+        <v>9087</v>
       </c>
       <c r="G99" t="n">
-        <v>481456.729223199</v>
+        <v>498087.3747231989</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4100,22 +4270,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>44.68</v>
+        <v>43.5</v>
       </c>
       <c r="C100" t="n">
-        <v>44.67</v>
+        <v>44.44</v>
       </c>
       <c r="D100" t="n">
-        <v>44.68</v>
+        <v>44.44</v>
       </c>
       <c r="E100" t="n">
-        <v>44.64</v>
+        <v>43.5</v>
       </c>
       <c r="F100" t="n">
-        <v>8650.3349</v>
+        <v>7939.8573</v>
       </c>
       <c r="G100" t="n">
-        <v>472806.394323199</v>
+        <v>490147.517423199</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4136,22 +4306,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>44.67</v>
+        <v>44.31</v>
       </c>
       <c r="C101" t="n">
-        <v>44.68</v>
+        <v>44.31</v>
       </c>
       <c r="D101" t="n">
-        <v>44.68</v>
+        <v>44.31</v>
       </c>
       <c r="E101" t="n">
-        <v>44.38</v>
+        <v>44.31</v>
       </c>
       <c r="F101" t="n">
-        <v>457</v>
+        <v>351.5016</v>
       </c>
       <c r="G101" t="n">
-        <v>473263.394323199</v>
+        <v>489796.0158231989</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4172,22 +4342,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>44.67</v>
+        <v>43.5</v>
       </c>
       <c r="C102" t="n">
-        <v>44.67</v>
+        <v>44.69</v>
       </c>
       <c r="D102" t="n">
-        <v>44.67</v>
+        <v>44.69</v>
       </c>
       <c r="E102" t="n">
-        <v>44.67</v>
+        <v>42.51</v>
       </c>
       <c r="F102" t="n">
-        <v>19</v>
+        <v>4019.8837</v>
       </c>
       <c r="G102" t="n">
-        <v>473244.394323199</v>
+        <v>493815.899523199</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4208,22 +4378,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>44.68</v>
+        <v>43.7</v>
       </c>
       <c r="C103" t="n">
-        <v>44.68</v>
+        <v>44.38</v>
       </c>
       <c r="D103" t="n">
-        <v>44.68</v>
+        <v>44.49</v>
       </c>
       <c r="E103" t="n">
-        <v>44.68</v>
+        <v>43.7</v>
       </c>
       <c r="F103" t="n">
-        <v>19</v>
+        <v>23514.1518</v>
       </c>
       <c r="G103" t="n">
-        <v>473263.394323199</v>
+        <v>470301.747723199</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4244,22 +4414,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>44.68</v>
+        <v>44.38</v>
       </c>
       <c r="C104" t="n">
-        <v>44.82</v>
+        <v>44.49</v>
       </c>
       <c r="D104" t="n">
-        <v>44.82</v>
+        <v>44.49</v>
       </c>
       <c r="E104" t="n">
-        <v>44.68</v>
+        <v>43.3</v>
       </c>
       <c r="F104" t="n">
-        <v>4000</v>
+        <v>17287.0899</v>
       </c>
       <c r="G104" t="n">
-        <v>477263.394323199</v>
+        <v>487588.837623199</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4280,22 +4450,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>44.65</v>
+        <v>44.61</v>
       </c>
       <c r="C105" t="n">
-        <v>44.29</v>
+        <v>44.3</v>
       </c>
       <c r="D105" t="n">
-        <v>44.65</v>
+        <v>44.61</v>
       </c>
       <c r="E105" t="n">
-        <v>44.29</v>
+        <v>43.5</v>
       </c>
       <c r="F105" t="n">
-        <v>400</v>
+        <v>5834.93</v>
       </c>
       <c r="G105" t="n">
-        <v>476863.394323199</v>
+        <v>481753.907623199</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4316,22 +4486,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>44.82</v>
+        <v>43.9</v>
       </c>
       <c r="C106" t="n">
-        <v>44.82</v>
+        <v>44.5</v>
       </c>
       <c r="D106" t="n">
-        <v>44.82</v>
+        <v>44.5</v>
       </c>
       <c r="E106" t="n">
-        <v>44.82</v>
+        <v>43.6</v>
       </c>
       <c r="F106" t="n">
-        <v>19</v>
+        <v>15206.7216</v>
       </c>
       <c r="G106" t="n">
-        <v>476882.394323199</v>
+        <v>496960.629223199</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4355,19 +4525,19 @@
         <v>44.3</v>
       </c>
       <c r="C107" t="n">
-        <v>44.7</v>
+        <v>44.49</v>
       </c>
       <c r="D107" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="E107" t="n">
-        <v>44.21</v>
+        <v>44.3</v>
       </c>
       <c r="F107" t="n">
-        <v>2447.7894</v>
+        <v>1699</v>
       </c>
       <c r="G107" t="n">
-        <v>474434.604923199</v>
+        <v>495261.629223199</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4388,22 +4558,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>44.21</v>
+        <v>44.48</v>
       </c>
       <c r="C108" t="n">
-        <v>44</v>
+        <v>44.5</v>
       </c>
       <c r="D108" t="n">
-        <v>44.21</v>
+        <v>44.5</v>
       </c>
       <c r="E108" t="n">
-        <v>44</v>
+        <v>44.46</v>
       </c>
       <c r="F108" t="n">
-        <v>49104.4746</v>
+        <v>2891.2436</v>
       </c>
       <c r="G108" t="n">
-        <v>425330.130323199</v>
+        <v>498152.872823199</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4424,22 +4594,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>44.1</v>
+        <v>44.59</v>
       </c>
       <c r="C109" t="n">
-        <v>43.9</v>
+        <v>44.59</v>
       </c>
       <c r="D109" t="n">
-        <v>44.1</v>
+        <v>44.59</v>
       </c>
       <c r="E109" t="n">
-        <v>43.9</v>
+        <v>44.59</v>
       </c>
       <c r="F109" t="n">
-        <v>5165.083</v>
+        <v>19</v>
       </c>
       <c r="G109" t="n">
-        <v>420165.047323199</v>
+        <v>498171.872823199</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4460,22 +4630,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>44.3</v>
+        <v>44.48</v>
       </c>
       <c r="C110" t="n">
-        <v>43.7</v>
+        <v>44.48</v>
       </c>
       <c r="D110" t="n">
-        <v>44.3</v>
+        <v>44.48</v>
       </c>
       <c r="E110" t="n">
-        <v>43.7</v>
+        <v>44.48</v>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G110" t="n">
-        <v>420135.047323199</v>
+        <v>498159.872823199</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4496,22 +4666,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>44</v>
+        <v>44.38</v>
       </c>
       <c r="C111" t="n">
-        <v>44</v>
+        <v>44.19</v>
       </c>
       <c r="D111" t="n">
-        <v>44</v>
+        <v>44.38</v>
       </c>
       <c r="E111" t="n">
         <v>44</v>
       </c>
       <c r="F111" t="n">
-        <v>100</v>
+        <v>5104</v>
       </c>
       <c r="G111" t="n">
-        <v>420235.047323199</v>
+        <v>493055.872823199</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4535,19 +4705,19 @@
         <v>44</v>
       </c>
       <c r="C112" t="n">
-        <v>43.5</v>
+        <v>44.29</v>
       </c>
       <c r="D112" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="E112" t="n">
         <v>44</v>
       </c>
-      <c r="E112" t="n">
-        <v>43.5</v>
-      </c>
       <c r="F112" t="n">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="G112" t="n">
-        <v>420197.047323199</v>
+        <v>493214.872823199</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4568,22 +4738,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="C113" t="n">
         <v>44</v>
       </c>
-      <c r="C113" t="n">
-        <v>43.22</v>
-      </c>
       <c r="D113" t="n">
-        <v>44</v>
+        <v>44.39</v>
       </c>
       <c r="E113" t="n">
-        <v>43.22</v>
+        <v>43.89</v>
       </c>
       <c r="F113" t="n">
-        <v>240</v>
+        <v>8408.3218</v>
       </c>
       <c r="G113" t="n">
-        <v>419957.047323199</v>
+        <v>484806.551023199</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4604,22 +4774,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>44</v>
+        <v>44.29</v>
       </c>
       <c r="C114" t="n">
-        <v>44.5</v>
+        <v>44.29</v>
       </c>
       <c r="D114" t="n">
-        <v>44.5</v>
+        <v>44.29</v>
       </c>
       <c r="E114" t="n">
-        <v>44</v>
+        <v>44.29</v>
       </c>
       <c r="F114" t="n">
-        <v>634.4028505617978</v>
+        <v>16</v>
       </c>
       <c r="G114" t="n">
-        <v>420591.4501737608</v>
+        <v>484822.551023199</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4640,22 +4810,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="C115" t="n">
-        <v>43.46</v>
+        <v>43.9</v>
       </c>
       <c r="D115" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="E115" t="n">
-        <v>43.46</v>
+        <v>43.9</v>
       </c>
       <c r="F115" t="n">
-        <v>38</v>
+        <v>2500</v>
       </c>
       <c r="G115" t="n">
-        <v>420553.4501737608</v>
+        <v>482322.551023199</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4679,19 +4849,19 @@
         <v>44.2</v>
       </c>
       <c r="C116" t="n">
-        <v>44.2</v>
+        <v>44.29</v>
       </c>
       <c r="D116" t="n">
-        <v>44.2</v>
+        <v>44.29</v>
       </c>
       <c r="E116" t="n">
         <v>44.2</v>
       </c>
       <c r="F116" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G116" t="n">
-        <v>420565.4501737608</v>
+        <v>482351.551023199</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4712,22 +4882,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>44.3</v>
+        <v>43.9</v>
       </c>
       <c r="C117" t="n">
-        <v>44.79</v>
+        <v>43.6</v>
       </c>
       <c r="D117" t="n">
-        <v>44.79</v>
+        <v>43.9</v>
       </c>
       <c r="E117" t="n">
-        <v>44.2</v>
+        <v>42.72</v>
       </c>
       <c r="F117" t="n">
-        <v>10728.511</v>
+        <v>70669.72289999999</v>
       </c>
       <c r="G117" t="n">
-        <v>431293.9611737608</v>
+        <v>411681.828123199</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4748,22 +4918,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>44.69</v>
+        <v>43.6</v>
       </c>
       <c r="C118" t="n">
-        <v>45.3</v>
+        <v>43.88</v>
       </c>
       <c r="D118" t="n">
-        <v>45.45</v>
+        <v>43.88</v>
       </c>
       <c r="E118" t="n">
-        <v>43.71</v>
+        <v>42.72</v>
       </c>
       <c r="F118" t="n">
-        <v>99835.38280000001</v>
+        <v>29827.201</v>
       </c>
       <c r="G118" t="n">
-        <v>531129.3439737607</v>
+        <v>441509.029123199</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4784,22 +4954,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>45.3</v>
+        <v>43.08</v>
       </c>
       <c r="C119" t="n">
-        <v>44</v>
+        <v>43.48</v>
       </c>
       <c r="D119" t="n">
-        <v>46.39</v>
+        <v>43.9</v>
       </c>
       <c r="E119" t="n">
-        <v>43.82</v>
+        <v>42.73</v>
       </c>
       <c r="F119" t="n">
-        <v>40003.2445</v>
+        <v>46032.6282</v>
       </c>
       <c r="G119" t="n">
-        <v>491126.0994737607</v>
+        <v>395476.400923199</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4820,22 +4990,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>45.85</v>
+        <v>43.58</v>
       </c>
       <c r="C120" t="n">
-        <v>45.4</v>
+        <v>43.58</v>
       </c>
       <c r="D120" t="n">
-        <v>45.85</v>
+        <v>43.58</v>
       </c>
       <c r="E120" t="n">
-        <v>45.1</v>
+        <v>42.83</v>
       </c>
       <c r="F120" t="n">
-        <v>137</v>
+        <v>25622</v>
       </c>
       <c r="G120" t="n">
-        <v>491263.0994737607</v>
+        <v>421098.400923199</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4856,22 +5026,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>44.8</v>
+        <v>43.78</v>
       </c>
       <c r="C121" t="n">
-        <v>45.46</v>
+        <v>43.8</v>
       </c>
       <c r="D121" t="n">
-        <v>45.46</v>
+        <v>43.8</v>
       </c>
       <c r="E121" t="n">
-        <v>44.05</v>
+        <v>43.67</v>
       </c>
       <c r="F121" t="n">
-        <v>10820</v>
+        <v>2030</v>
       </c>
       <c r="G121" t="n">
-        <v>502083.0994737607</v>
+        <v>423128.400923199</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4892,22 +5062,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>45.18</v>
+        <v>43.8</v>
       </c>
       <c r="C122" t="n">
-        <v>45.18</v>
+        <v>43.57</v>
       </c>
       <c r="D122" t="n">
-        <v>45.18</v>
+        <v>43.8</v>
       </c>
       <c r="E122" t="n">
-        <v>45.18</v>
+        <v>43.56</v>
       </c>
       <c r="F122" t="n">
-        <v>240</v>
+        <v>2118</v>
       </c>
       <c r="G122" t="n">
-        <v>501843.0994737607</v>
+        <v>421010.400923199</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4928,22 +5098,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>44.5</v>
+        <v>43.89</v>
       </c>
       <c r="C123" t="n">
-        <v>44.04</v>
+        <v>43.6</v>
       </c>
       <c r="D123" t="n">
-        <v>44.5</v>
+        <v>43.89</v>
       </c>
       <c r="E123" t="n">
-        <v>44.04</v>
+        <v>43.54</v>
       </c>
       <c r="F123" t="n">
-        <v>50000</v>
+        <v>12960.5572</v>
       </c>
       <c r="G123" t="n">
-        <v>451843.0994737607</v>
+        <v>433970.958123199</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4964,22 +5134,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>44.7</v>
+        <v>43.1</v>
       </c>
       <c r="C124" t="n">
-        <v>44.7</v>
+        <v>43.1</v>
       </c>
       <c r="D124" t="n">
-        <v>44.7</v>
+        <v>43.1</v>
       </c>
       <c r="E124" t="n">
-        <v>44.7</v>
+        <v>43.1</v>
       </c>
       <c r="F124" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G124" t="n">
-        <v>451855.0994737607</v>
+        <v>433954.958123199</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5000,22 +5170,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>44.8</v>
+        <v>43.79</v>
       </c>
       <c r="C125" t="n">
-        <v>44.8</v>
+        <v>43.99</v>
       </c>
       <c r="D125" t="n">
-        <v>44.8</v>
+        <v>43.99</v>
       </c>
       <c r="E125" t="n">
-        <v>44.8</v>
+        <v>43.7</v>
       </c>
       <c r="F125" t="n">
-        <v>12</v>
+        <v>45027.4356</v>
       </c>
       <c r="G125" t="n">
-        <v>451867.0994737607</v>
+        <v>478982.393723199</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5036,22 +5206,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>44.4</v>
+        <v>43.61</v>
       </c>
       <c r="C126" t="n">
-        <v>44.4</v>
+        <v>44.71</v>
       </c>
       <c r="D126" t="n">
-        <v>44.4</v>
+        <v>44.71</v>
       </c>
       <c r="E126" t="n">
-        <v>44.4</v>
+        <v>43.6</v>
       </c>
       <c r="F126" t="n">
-        <v>2000</v>
+        <v>22488.6066</v>
       </c>
       <c r="G126" t="n">
-        <v>449867.0994737607</v>
+        <v>501471.000323199</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5072,22 +5242,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="C127" t="n">
-        <v>44.7</v>
+        <v>44.71</v>
       </c>
       <c r="D127" t="n">
-        <v>44.7</v>
+        <v>44.71</v>
       </c>
       <c r="E127" t="n">
-        <v>44.7</v>
+        <v>44.46</v>
       </c>
       <c r="F127" t="n">
-        <v>12</v>
+        <v>147.77</v>
       </c>
       <c r="G127" t="n">
-        <v>449879.0994737607</v>
+        <v>501471.000323199</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5108,22 +5278,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>44.6</v>
+        <v>44.59</v>
       </c>
       <c r="C128" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="D128" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="E128" t="n">
-        <v>44.6</v>
+        <v>44.46</v>
       </c>
       <c r="F128" t="n">
-        <v>261</v>
+        <v>20014.2711</v>
       </c>
       <c r="G128" t="n">
-        <v>450140.0994737607</v>
+        <v>481456.729223199</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5144,22 +5314,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>44.8</v>
+        <v>44.68</v>
       </c>
       <c r="C129" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="D129" t="n">
-        <v>44.9</v>
+        <v>44.68</v>
       </c>
       <c r="E129" t="n">
-        <v>44.8</v>
+        <v>44.64</v>
       </c>
       <c r="F129" t="n">
-        <v>5639</v>
+        <v>8650.3349</v>
       </c>
       <c r="G129" t="n">
-        <v>455779.0994737607</v>
+        <v>472806.394323199</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5180,22 +5350,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="C130" t="n">
-        <v>44.9</v>
+        <v>44.68</v>
       </c>
       <c r="D130" t="n">
-        <v>44.9</v>
+        <v>44.68</v>
       </c>
       <c r="E130" t="n">
-        <v>44.9</v>
+        <v>44.38</v>
       </c>
       <c r="F130" t="n">
-        <v>4000</v>
+        <v>457</v>
       </c>
       <c r="G130" t="n">
-        <v>455779.0994737607</v>
+        <v>473263.394323199</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5216,22 +5386,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="C131" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="D131" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="E131" t="n">
-        <v>44.9</v>
+        <v>44.67</v>
       </c>
       <c r="F131" t="n">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="G131" t="n">
-        <v>455779.0994737607</v>
+        <v>473244.394323199</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5252,22 +5422,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>44.9</v>
+        <v>44.68</v>
       </c>
       <c r="C132" t="n">
-        <v>45</v>
+        <v>44.68</v>
       </c>
       <c r="D132" t="n">
-        <v>45</v>
+        <v>44.68</v>
       </c>
       <c r="E132" t="n">
-        <v>44.9</v>
+        <v>44.68</v>
       </c>
       <c r="F132" t="n">
-        <v>3900</v>
+        <v>19</v>
       </c>
       <c r="G132" t="n">
-        <v>459679.0994737607</v>
+        <v>473263.394323199</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5288,22 +5458,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>45</v>
+        <v>44.68</v>
       </c>
       <c r="C133" t="n">
-        <v>45.05</v>
+        <v>44.82</v>
       </c>
       <c r="D133" t="n">
-        <v>45.05</v>
+        <v>44.82</v>
       </c>
       <c r="E133" t="n">
-        <v>45</v>
+        <v>44.68</v>
       </c>
       <c r="F133" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="G133" t="n">
-        <v>464279.0994737607</v>
+        <v>477263.394323199</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5324,22 +5494,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>44.41</v>
+        <v>44.65</v>
       </c>
       <c r="C134" t="n">
-        <v>44.94</v>
+        <v>44.29</v>
       </c>
       <c r="D134" t="n">
-        <v>44.94</v>
+        <v>44.65</v>
       </c>
       <c r="E134" t="n">
-        <v>44.41</v>
+        <v>44.29</v>
       </c>
       <c r="F134" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="G134" t="n">
-        <v>462579.0994737607</v>
+        <v>476863.394323199</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5360,22 +5530,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>44.94</v>
+        <v>44.82</v>
       </c>
       <c r="C135" t="n">
-        <v>45.05</v>
+        <v>44.82</v>
       </c>
       <c r="D135" t="n">
-        <v>45.05</v>
+        <v>44.82</v>
       </c>
       <c r="E135" t="n">
-        <v>44.94</v>
+        <v>44.82</v>
       </c>
       <c r="F135" t="n">
-        <v>5968</v>
+        <v>19</v>
       </c>
       <c r="G135" t="n">
-        <v>468547.0994737607</v>
+        <v>476882.394323199</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5396,22 +5566,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>45.03</v>
+        <v>44.3</v>
       </c>
       <c r="C136" t="n">
-        <v>44.94</v>
+        <v>44.7</v>
       </c>
       <c r="D136" t="n">
-        <v>45.03</v>
+        <v>44.7</v>
       </c>
       <c r="E136" t="n">
-        <v>44.94</v>
+        <v>44.21</v>
       </c>
       <c r="F136" t="n">
-        <v>22235</v>
+        <v>2447.7894</v>
       </c>
       <c r="G136" t="n">
-        <v>446312.0994737607</v>
+        <v>474434.604923199</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5432,22 +5602,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>45.04</v>
+        <v>44.21</v>
       </c>
       <c r="C137" t="n">
-        <v>45.04</v>
+        <v>44</v>
       </c>
       <c r="D137" t="n">
-        <v>45.04</v>
+        <v>44.21</v>
       </c>
       <c r="E137" t="n">
-        <v>45.04</v>
+        <v>44</v>
       </c>
       <c r="F137" t="n">
-        <v>19</v>
+        <v>49104.4746</v>
       </c>
       <c r="G137" t="n">
-        <v>446331.0994737607</v>
+        <v>425330.130323199</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5468,22 +5638,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>44.94</v>
+        <v>44.1</v>
       </c>
       <c r="C138" t="n">
-        <v>44.7</v>
+        <v>43.9</v>
       </c>
       <c r="D138" t="n">
-        <v>44.94</v>
+        <v>44.1</v>
       </c>
       <c r="E138" t="n">
-        <v>44.7</v>
+        <v>43.9</v>
       </c>
       <c r="F138" t="n">
-        <v>1498.9139</v>
+        <v>5165.083</v>
       </c>
       <c r="G138" t="n">
-        <v>444832.1855737607</v>
+        <v>420165.047323199</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5504,22 +5674,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>45</v>
+        <v>44.3</v>
       </c>
       <c r="C139" t="n">
-        <v>45.03</v>
+        <v>43.7</v>
       </c>
       <c r="D139" t="n">
-        <v>45.03</v>
+        <v>44.3</v>
       </c>
       <c r="E139" t="n">
-        <v>44.95</v>
+        <v>43.7</v>
       </c>
       <c r="F139" t="n">
-        <v>3572.114175734695</v>
+        <v>30</v>
       </c>
       <c r="G139" t="n">
-        <v>448404.2997494954</v>
+        <v>420135.047323199</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5540,22 +5710,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>44.7</v>
+        <v>44</v>
       </c>
       <c r="C140" t="n">
-        <v>44.94</v>
+        <v>44</v>
       </c>
       <c r="D140" t="n">
-        <v>44.94</v>
+        <v>44</v>
       </c>
       <c r="E140" t="n">
-        <v>44.7</v>
+        <v>44</v>
       </c>
       <c r="F140" t="n">
-        <v>2013</v>
+        <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>446391.2997494954</v>
+        <v>420235.047323199</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5576,22 +5746,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>44.71</v>
+        <v>44</v>
       </c>
       <c r="C141" t="n">
-        <v>44.9</v>
+        <v>43.5</v>
       </c>
       <c r="D141" t="n">
-        <v>44.9</v>
+        <v>44</v>
       </c>
       <c r="E141" t="n">
-        <v>44.71</v>
+        <v>43.5</v>
       </c>
       <c r="F141" t="n">
-        <v>4719.3196</v>
+        <v>38</v>
       </c>
       <c r="G141" t="n">
-        <v>441671.9801494954</v>
+        <v>420197.047323199</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5612,22 +5782,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>44.7</v>
+        <v>44</v>
       </c>
       <c r="C142" t="n">
-        <v>44.9</v>
+        <v>43.22</v>
       </c>
       <c r="D142" t="n">
-        <v>44.9</v>
+        <v>44</v>
       </c>
       <c r="E142" t="n">
-        <v>44.68</v>
+        <v>43.22</v>
       </c>
       <c r="F142" t="n">
-        <v>2626.9385</v>
+        <v>240</v>
       </c>
       <c r="G142" t="n">
-        <v>441671.9801494954</v>
+        <v>419957.047323199</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5643,6 +5813,1050 @@
       </c>
       <c r="N142" t="inlineStr"/>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>44</v>
+      </c>
+      <c r="C143" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>44</v>
+      </c>
+      <c r="F143" t="n">
+        <v>634.4028505617978</v>
+      </c>
+      <c r="G143" t="n">
+        <v>420591.4501737608</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="D144" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="F144" t="n">
+        <v>38</v>
+      </c>
+      <c r="G144" t="n">
+        <v>420553.4501737608</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>12</v>
+      </c>
+      <c r="G145" t="n">
+        <v>420565.4501737608</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>44.79</v>
+      </c>
+      <c r="D146" t="n">
+        <v>44.79</v>
+      </c>
+      <c r="E146" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10728.511</v>
+      </c>
+      <c r="G146" t="n">
+        <v>431293.9611737608</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>44.69</v>
+      </c>
+      <c r="C147" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="D147" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="E147" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="F147" t="n">
+        <v>99835.38280000001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>531129.3439737607</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>44</v>
+      </c>
+      <c r="D148" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="E148" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="F148" t="n">
+        <v>40003.2445</v>
+      </c>
+      <c r="G148" t="n">
+        <v>491126.0994737607</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="C149" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D149" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="E149" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>137</v>
+      </c>
+      <c r="G149" t="n">
+        <v>491263.0994737607</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>45.46</v>
+      </c>
+      <c r="D150" t="n">
+        <v>45.46</v>
+      </c>
+      <c r="E150" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10820</v>
+      </c>
+      <c r="G150" t="n">
+        <v>502083.0994737607</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="C151" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="D151" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="E151" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="F151" t="n">
+        <v>240</v>
+      </c>
+      <c r="G151" t="n">
+        <v>501843.0994737607</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>44.04</v>
+      </c>
+      <c r="D152" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>44.04</v>
+      </c>
+      <c r="F152" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>451843.0994737607</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="D153" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>12</v>
+      </c>
+      <c r="G153" t="n">
+        <v>451855.0994737607</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12</v>
+      </c>
+      <c r="G154" t="n">
+        <v>451867.0994737607</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C155" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="D155" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>449867.0994737607</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>12</v>
+      </c>
+      <c r="G156" t="n">
+        <v>449879.0994737607</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>261</v>
+      </c>
+      <c r="G157" t="n">
+        <v>450140.0994737607</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5639</v>
+      </c>
+      <c r="G158" t="n">
+        <v>455779.0994737607</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>455779.0994737607</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>400</v>
+      </c>
+      <c r="G160" t="n">
+        <v>455779.0994737607</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>45</v>
+      </c>
+      <c r="D161" t="n">
+        <v>45</v>
+      </c>
+      <c r="E161" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3900</v>
+      </c>
+      <c r="G161" t="n">
+        <v>459679.0994737607</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>45</v>
+      </c>
+      <c r="C162" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="D162" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="E162" t="n">
+        <v>45</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4600</v>
+      </c>
+      <c r="G162" t="n">
+        <v>464279.0994737607</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>44.41</v>
+      </c>
+      <c r="C163" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="D163" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="E163" t="n">
+        <v>44.41</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G163" t="n">
+        <v>462579.0994737607</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="C164" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="D164" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="E164" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5968</v>
+      </c>
+      <c r="G164" t="n">
+        <v>468547.0994737607</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="C165" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="D165" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="E165" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="F165" t="n">
+        <v>22235</v>
+      </c>
+      <c r="G165" t="n">
+        <v>446312.0994737607</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="C166" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="D166" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="E166" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="n">
+        <v>446331.0994737607</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="C167" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="E167" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1498.9139</v>
+      </c>
+      <c r="G167" t="n">
+        <v>444832.1855737607</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>45</v>
+      </c>
+      <c r="C168" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="D168" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="E168" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3572.114175734695</v>
+      </c>
+      <c r="G168" t="n">
+        <v>448404.2997494954</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="D169" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="E169" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G169" t="n">
+        <v>446391.2997494954</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="C170" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4719.3196</v>
+      </c>
+      <c r="G170" t="n">
+        <v>441671.9801494954</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="C171" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>44.68</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2626.9385</v>
+      </c>
+      <c r="G171" t="n">
+        <v>441671.9801494954</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-13 BackTest PAY.xlsx
+++ b/BackTest/2020-01-13 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-40408.97897680105</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-48423.76097680105</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>45.4</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>-56088.87477680105</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>45</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>-42602.87477680105</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>44.62</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>45.6</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>45</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +679,21 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>45</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +718,21 @@
         <v>-45084.33477680105</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>45</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +757,21 @@
         <v>-28962.44917680105</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>44.9</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +796,21 @@
         <v>-41611.01747680105</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>45.6</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +835,21 @@
         <v>59573.70882319895</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>44.8</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,22 +874,21 @@
         <v>34488.54652319895</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,20 +915,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -994,20 +952,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1032,24 +987,19 @@
         <v>24858.77982319895</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>44.95</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1074,24 +1024,19 @@
         <v>-6773.83837680105</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1116,24 +1061,21 @@
         <v>-9484.45537680105</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>44.82</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1158,24 +1100,19 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>44.39</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1200,24 +1137,19 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1242,24 +1174,19 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1284,24 +1211,21 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>44.17</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1326,24 +1250,21 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>44.17</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1368,24 +1289,21 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>44.17</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1410,24 +1328,21 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>44.17</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1452,24 +1367,19 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1494,24 +1404,19 @@
         <v>-43066.88537680104</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1536,24 +1441,19 @@
         <v>-33266.51847680104</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>44.07</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1578,24 +1478,19 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1620,24 +1515,19 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1662,24 +1552,19 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1704,24 +1589,19 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1746,24 +1626,19 @@
         <v>-23876.51787680104</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1788,24 +1663,19 @@
         <v>-27138.51787680104</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>44.87</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1832,20 +1702,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1872,20 +1739,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1912,20 +1776,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1952,20 +1813,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1992,20 +1850,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2032,20 +1887,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2072,20 +1924,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2112,20 +1961,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2152,20 +1998,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2192,20 +2035,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2232,20 +2072,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2272,20 +2109,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2312,20 +2146,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2352,20 +2183,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2392,20 +2220,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2432,20 +2257,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2472,20 +2294,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2512,20 +2331,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2552,20 +2368,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2592,20 +2405,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2632,20 +2442,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2672,20 +2479,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2712,20 +2516,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2752,20 +2553,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2790,22 +2588,17 @@
         <v>504630.067323199</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2830,22 +2623,15 @@
         <v>563527.319823199</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2870,22 +2656,15 @@
         <v>615129.4035231989</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2910,22 +2689,15 @@
         <v>604604.6186231989</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2952,20 +2724,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2990,20 +2755,15 @@
         <v>638843.2439231989</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L64" t="n">
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3028,18 +2788,15 @@
         <v>571519.1836231989</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3064,18 +2821,15 @@
         <v>571519.1836231989</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3100,18 +2854,15 @@
         <v>516535.4101231989</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3136,18 +2887,15 @@
         <v>490543.9037231989</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3172,18 +2920,15 @@
         <v>477887.1188231988</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3208,18 +2953,15 @@
         <v>440472.5702231989</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3244,18 +2986,15 @@
         <v>499666.1958231989</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3280,18 +3019,15 @@
         <v>544139.2012231989</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3318,16 +3054,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3354,16 +3087,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3390,16 +3120,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3426,16 +3153,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3460,18 +3184,15 @@
         <v>528844.9954231989</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3496,18 +3217,15 @@
         <v>569382.384923199</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3532,18 +3250,15 @@
         <v>561957.384923199</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3568,18 +3283,15 @@
         <v>517933.5045231989</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3604,18 +3316,15 @@
         <v>518015.5045231989</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3640,18 +3349,15 @@
         <v>500474.8330231989</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3678,16 +3384,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3714,16 +3417,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3748,18 +3448,15 @@
         <v>483150.154723199</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3784,18 +3481,15 @@
         <v>483216.154723199</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3822,16 +3516,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3856,18 +3547,15 @@
         <v>484305.154723199</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3894,16 +3582,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3930,16 +3615,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3966,16 +3648,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4000,18 +3679,15 @@
         <v>479213.154723199</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4036,18 +3712,15 @@
         <v>479913.154723199</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4072,18 +3745,15 @@
         <v>441151.446623199</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4110,16 +3780,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4146,16 +3813,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4182,16 +3846,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4218,16 +3879,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4254,16 +3912,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4290,16 +3945,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4326,16 +3978,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4362,16 +4011,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4398,16 +4044,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4434,16 +4077,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4470,16 +4110,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4506,16 +4143,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4542,16 +4176,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4578,16 +4209,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4614,16 +4242,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4650,16 +4275,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4686,16 +4308,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4722,16 +4341,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4758,16 +4374,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4794,16 +4407,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4830,16 +4440,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4866,16 +4473,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4902,16 +4506,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4938,16 +4539,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4974,16 +4572,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5010,16 +4605,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5046,16 +4638,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5082,16 +4671,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5118,16 +4704,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5154,16 +4737,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5190,16 +4770,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5226,16 +4803,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5262,16 +4836,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5298,16 +4869,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5334,16 +4902,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5370,16 +4935,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5406,16 +4968,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5442,16 +5001,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5478,16 +5034,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5514,16 +5067,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5550,16 +5100,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5586,16 +5133,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5622,16 +5166,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5658,16 +5199,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5694,16 +5232,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5730,16 +5265,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5766,16 +5298,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5802,16 +5331,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5836,18 +5362,19 @@
         <v>420591.4501737608</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>43.22</v>
+      </c>
+      <c r="J143" t="n">
+        <v>43.22</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5872,18 +5399,23 @@
         <v>420553.4501737608</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>44.5</v>
+      </c>
+      <c r="J144" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5908,18 +5440,23 @@
         <v>420565.4501737608</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>43.46</v>
+      </c>
+      <c r="J145" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5944,18 +5481,23 @@
         <v>431293.9611737608</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>44.2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5982,16 +5524,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6018,16 +5563,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6054,16 +5602,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6090,16 +5641,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6126,16 +5680,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6162,16 +5719,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6198,16 +5758,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6232,18 +5795,23 @@
         <v>451867.0994737607</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>44.7</v>
+      </c>
+      <c r="J154" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6270,16 +5838,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6306,16 +5877,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6340,18 +5914,23 @@
         <v>450140.0994737607</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>44.7</v>
+      </c>
+      <c r="J157" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6376,18 +5955,23 @@
         <v>455779.0994737607</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>44.8</v>
+      </c>
+      <c r="J158" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6414,16 +5998,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6448,18 +6035,23 @@
         <v>455779.0994737607</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>44.9</v>
+      </c>
+      <c r="J160" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6486,16 +6078,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6522,16 +6117,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6558,16 +6156,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6594,16 +6195,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6630,16 +6234,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6666,16 +6273,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6702,16 +6312,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6738,16 +6351,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6774,16 +6390,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6810,16 +6429,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6846,18 +6468,21 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest PAY.xlsx
+++ b/BackTest/2020-01-13 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-40408.97897680105</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-48423.76097680105</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>45.4</v>
@@ -523,7 +523,7 @@
         <v>-56088.87477680105</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>45</v>
@@ -562,7 +562,7 @@
         <v>-42602.87477680105</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>44.62</v>
@@ -601,7 +601,7 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>45.6</v>
@@ -640,7 +640,7 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>45</v>
@@ -679,7 +679,7 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>45</v>
@@ -718,7 +718,7 @@
         <v>-45084.33477680105</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>45</v>
@@ -757,7 +757,7 @@
         <v>-28962.44917680105</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>44.9</v>
@@ -796,7 +796,7 @@
         <v>-41611.01747680105</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>45.6</v>
@@ -835,7 +835,7 @@
         <v>59573.70882319895</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>44.8</v>
@@ -874,7 +874,7 @@
         <v>34488.54652319895</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>45.7</v>
@@ -913,9 +913,11 @@
         <v>26626.17702319895</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>45</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -950,9 +952,11 @@
         <v>26626.17702319895</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>44.95</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -987,9 +991,11 @@
         <v>24858.77982319895</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>44.95</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1024,9 +1030,11 @@
         <v>-6773.83837680105</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>44.9</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1061,7 +1069,7 @@
         <v>-9484.45537680105</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>44.82</v>
@@ -1100,9 +1108,11 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>44.39</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1137,9 +1147,11 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>44.9</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1174,9 +1186,11 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>44.9</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1211,7 +1225,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>44.17</v>
@@ -1250,7 +1264,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>44.17</v>
@@ -1289,7 +1303,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>44.17</v>
@@ -1328,7 +1342,7 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>44.17</v>
@@ -1367,9 +1381,11 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>44.17</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1404,9 +1420,11 @@
         <v>-43066.88537680104</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>44.17</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1441,9 +1459,11 @@
         <v>-33266.51847680104</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>44.07</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1478,9 +1498,11 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>44.17</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1515,9 +1537,11 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1552,9 +1576,11 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1589,9 +1615,11 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1626,9 +1654,11 @@
         <v>-23876.51787680104</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1663,9 +1693,11 @@
         <v>-27138.51787680104</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>44.87</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1700,9 +1732,11 @@
         <v>-23848.51787680104</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>44.59</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1737,9 +1771,11 @@
         <v>-23848.51787680104</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1774,9 +1810,11 @@
         <v>-28427.39657680105</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -2588,16 +2626,18 @@
         <v>504630.067323199</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2623,11 +2663,15 @@
         <v>563527.319823199</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2656,11 +2700,15 @@
         <v>615129.4035231989</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2689,11 +2737,15 @@
         <v>604604.6186231989</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2726,7 +2778,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2755,11 +2811,15 @@
         <v>638843.2439231989</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +2848,15 @@
         <v>571519.1836231989</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2821,11 +2885,15 @@
         <v>571519.1836231989</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2854,11 +2922,15 @@
         <v>516535.4101231989</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2887,11 +2959,15 @@
         <v>490543.9037231989</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2920,11 +2996,15 @@
         <v>477887.1188231988</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2953,11 +3033,15 @@
         <v>440472.5702231989</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2986,11 +3070,15 @@
         <v>499666.1958231989</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3019,11 +3107,15 @@
         <v>544139.2012231989</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3056,7 +3148,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3089,7 +3185,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3122,7 +3222,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3155,7 +3259,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3184,11 +3292,15 @@
         <v>528844.9954231989</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3217,11 +3329,15 @@
         <v>569382.384923199</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3250,11 +3366,15 @@
         <v>561957.384923199</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3283,11 +3403,15 @@
         <v>517933.5045231989</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3316,11 +3440,15 @@
         <v>518015.5045231989</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3349,14 +3477,16 @@
         <v>500474.8330231989</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3382,7 +3512,7 @@
         <v>482922.154723199</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3415,7 +3545,7 @@
         <v>482818.154723199</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3448,7 +3578,7 @@
         <v>483150.154723199</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3481,7 +3611,7 @@
         <v>483216.154723199</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3514,7 +3644,7 @@
         <v>483149.154723199</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3547,7 +3677,7 @@
         <v>484305.154723199</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3613,7 +3743,7 @@
         <v>479802.154723199</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3679,7 +3809,7 @@
         <v>479213.154723199</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3712,7 +3842,7 @@
         <v>479913.154723199</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3745,7 +3875,7 @@
         <v>441151.446623199</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3778,7 +3908,7 @@
         <v>502936.733023199</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3811,7 +3941,7 @@
         <v>497636.733023199</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3844,7 +3974,7 @@
         <v>484800.3747231989</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3877,7 +4007,7 @@
         <v>489000.3747231989</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3910,7 +4040,7 @@
         <v>498087.3747231989</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3943,7 +4073,7 @@
         <v>490147.517423199</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3976,7 +4106,7 @@
         <v>489796.0158231989</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4009,7 +4139,7 @@
         <v>493815.899523199</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4042,7 +4172,7 @@
         <v>470301.747723199</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4075,7 +4205,7 @@
         <v>487588.837623199</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4108,7 +4238,7 @@
         <v>481753.907623199</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4141,7 +4271,7 @@
         <v>496960.629223199</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4174,7 +4304,7 @@
         <v>495261.629223199</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4207,7 +4337,7 @@
         <v>498152.872823199</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4240,7 +4370,7 @@
         <v>498171.872823199</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4273,7 +4403,7 @@
         <v>498159.872823199</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4306,7 +4436,7 @@
         <v>493055.872823199</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4339,7 +4469,7 @@
         <v>493214.872823199</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4372,7 +4502,7 @@
         <v>484806.551023199</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4405,7 +4535,7 @@
         <v>484822.551023199</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4438,7 +4568,7 @@
         <v>482322.551023199</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -5362,14 +5492,10 @@
         <v>420591.4501737608</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="J143" t="n">
-        <v>43.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5399,19 +5525,11 @@
         <v>420553.4501737608</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5440,19 +5558,11 @@
         <v>420565.4501737608</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>43.46</v>
-      </c>
-      <c r="J145" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5481,19 +5591,11 @@
         <v>431293.9611737608</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="J146" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5525,14 +5627,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5564,14 +5660,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5603,14 +5693,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5642,14 +5726,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5681,14 +5759,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5720,14 +5792,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5759,14 +5825,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5795,19 +5855,11 @@
         <v>451867.0994737607</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J154" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5839,14 +5891,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5878,14 +5924,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5914,19 +5954,11 @@
         <v>450140.0994737607</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="J157" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5955,19 +5987,11 @@
         <v>455779.0994737607</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="J158" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5999,14 +6023,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6035,19 +6053,11 @@
         <v>455779.0994737607</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="J160" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6079,14 +6089,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6118,14 +6122,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6157,14 +6155,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6196,14 +6188,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6235,14 +6221,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6274,14 +6254,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6313,14 +6287,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6352,14 +6320,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6391,14 +6353,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6430,14 +6386,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6469,20 +6419,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
       <c r="M171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest PAY.xlsx
+++ b/BackTest/2020-01-13 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-40408.97897680105</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-48423.76097680105</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>45.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-56088.87477680105</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-42602.87477680105</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>44.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>45.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-45084.33477680105</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-28962.44917680105</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>44.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-41611.01747680105</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>45.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>59573.70882319895</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>44.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>34488.54652319895</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>45.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>26626.17702319895</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>26626.17702319895</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>44.95</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>24858.77982319895</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>44.95</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>-6773.83837680105</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>44.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>-9484.45537680105</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>44.82</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1012,11 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>44.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1045,11 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>44.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1078,11 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>44.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1111,11 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>44.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1144,11 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>44.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1177,11 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>44.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1210,11 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>44.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1381,17 +1243,11 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>44.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,17 +1276,11 @@
         <v>-43066.88537680104</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>44.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1459,17 +1309,11 @@
         <v>-33266.51847680104</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>44.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1342,11 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>44.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1537,17 +1375,11 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>43.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1576,17 +1408,11 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>43.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1615,17 +1441,11 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>43.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1654,17 +1474,11 @@
         <v>-23876.51787680104</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>43.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1693,17 +1507,11 @@
         <v>-27138.51787680104</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>44.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,17 +1540,11 @@
         <v>-23848.51787680104</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>44.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1771,17 +1573,11 @@
         <v>-23848.51787680104</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>44.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1815,12 +1611,10 @@
       <c r="I37" t="n">
         <v>44.6</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1849,13 +1643,17 @@
         <v>25333.51482319895</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>44.59</v>
+      </c>
+      <c r="J38" t="n">
+        <v>44.6</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1886,13 +1684,17 @@
         <v>25333.51482319895</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>44.6</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1927,11 +1729,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1964,11 +1762,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2001,11 +1795,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2038,11 +1828,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2075,11 +1861,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2112,11 +1894,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2149,11 +1927,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2186,11 +1960,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2223,11 +1993,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2260,11 +2026,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2297,11 +2059,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2334,11 +2092,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2371,11 +2125,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2408,11 +2158,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2445,11 +2191,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2482,11 +2224,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2519,11 +2257,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2556,11 +2290,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2593,11 +2323,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2630,11 +2356,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2667,11 +2389,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2704,11 +2422,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2741,11 +2455,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2778,11 +2488,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2815,11 +2521,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2852,11 +2554,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2889,11 +2587,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2620,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2963,11 +2653,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3000,11 +2686,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3037,11 +2719,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3074,11 +2752,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3111,11 +2785,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3148,11 +2818,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3185,11 +2851,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3222,11 +2884,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3259,11 +2917,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3296,11 +2950,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3333,11 +2983,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3370,11 +3016,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3403,15 +3045,11 @@
         <v>517933.5045231989</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3440,15 +3078,11 @@
         <v>518015.5045231989</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3481,12 +3115,10 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
       <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3578,7 +3210,7 @@
         <v>483150.154723199</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3677,7 +3309,7 @@
         <v>484305.154723199</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3710,7 +3342,7 @@
         <v>480232.154723199</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3809,7 +3441,7 @@
         <v>479213.154723199</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3842,7 +3474,7 @@
         <v>479913.154723199</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3875,7 +3507,7 @@
         <v>441151.446623199</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3908,7 +3540,7 @@
         <v>502936.733023199</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3941,7 +3573,7 @@
         <v>497636.733023199</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3974,7 +3606,7 @@
         <v>484800.3747231989</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4007,7 +3639,7 @@
         <v>489000.3747231989</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4040,7 +3672,7 @@
         <v>498087.3747231989</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4073,7 +3705,7 @@
         <v>490147.517423199</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4106,7 +3738,7 @@
         <v>489796.0158231989</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4139,7 +3771,7 @@
         <v>493815.899523199</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4172,7 +3804,7 @@
         <v>470301.747723199</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4205,7 +3837,7 @@
         <v>487588.837623199</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4238,7 +3870,7 @@
         <v>481753.907623199</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4271,7 +3903,7 @@
         <v>496960.629223199</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4304,7 +3936,7 @@
         <v>495261.629223199</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4337,7 +3969,7 @@
         <v>498152.872823199</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4370,7 +4002,7 @@
         <v>498171.872823199</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4403,7 +4035,7 @@
         <v>498159.872823199</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4436,7 +4068,7 @@
         <v>493055.872823199</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4469,7 +4101,7 @@
         <v>493214.872823199</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4502,7 +4134,7 @@
         <v>484806.551023199</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4535,7 +4167,7 @@
         <v>484822.551023199</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4568,7 +4200,7 @@
         <v>482322.551023199</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -6427,6 +6059,6 @@
       <c r="M171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest PAY.xlsx
+++ b/BackTest/2020-01-13 BackTest PAY.xlsx
@@ -451,7 +451,7 @@
         <v>-40408.97897680105</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-48423.76097680105</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45.4</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-56088.87477680105</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-42602.87477680105</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>44.62</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>45.6</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>45</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-42684.33477680105</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>45</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>-45084.33477680105</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>45</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>-28962.44917680105</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>44.9</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>-41611.01747680105</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>45.6</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>59573.70882319895</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>44.8</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +878,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +911,15 @@
         <v>26626.17702319895</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +948,17 @@
         <v>26626.17702319895</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>44.95</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +987,15 @@
         <v>24858.77982319895</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1024,17 @@
         <v>-6773.83837680105</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>44.9</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1063,17 @@
         <v>-9484.45537680105</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>44.82</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1102,17 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>44.39</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1141,17 @@
         <v>-7116.97737680105</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>44.9</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1180,17 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>44.9</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1219,17 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>44.17</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1258,17 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>44.17</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1297,17 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>44.17</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1336,17 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>44.17</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1375,17 @@
         <v>-18100.88537680105</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>44.17</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1414,17 @@
         <v>-43066.88537680104</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>44.17</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1453,17 @@
         <v>-33266.51847680104</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>44.07</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1492,17 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>44.17</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1531,17 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1570,17 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1609,17 @@
         <v>-44239.26787680104</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1648,17 @@
         <v>-23876.51787680104</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1687,17 @@
         <v>-27138.51787680104</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>44.87</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1730,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1767,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,15 +1800,15 @@
         <v>-28427.39657680105</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,17 +1837,13 @@
         <v>25333.51482319895</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>44.59</v>
-      </c>
-      <c r="J38" t="n">
-        <v>44.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1684,17 +1874,13 @@
         <v>25333.51482319895</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>44.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1729,7 +1915,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1762,7 +1952,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1795,7 +1989,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1828,7 +2026,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1861,7 +2063,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1894,7 +2100,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1927,7 +2137,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1960,7 +2174,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1993,7 +2211,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2026,7 +2248,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2059,7 +2285,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2092,7 +2322,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2125,7 +2359,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2158,7 +2396,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2191,7 +2433,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2224,7 +2470,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2257,7 +2507,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2290,7 +2544,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2323,7 +2581,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2356,7 +2618,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2389,7 +2655,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2422,7 +2692,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2455,7 +2729,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2762,16 @@
         <v>695076.7896231989</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2517,7 +2797,7 @@
         <v>638843.2439231989</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2550,7 +2830,7 @@
         <v>571519.1836231989</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2583,7 +2863,7 @@
         <v>571519.1836231989</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2616,7 +2896,7 @@
         <v>516535.4101231989</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2649,7 +2929,7 @@
         <v>490543.9037231989</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2682,7 +2962,7 @@
         <v>477887.1188231988</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2715,7 +2995,7 @@
         <v>440472.5702231989</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3045,7 +3325,7 @@
         <v>517933.5045231989</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3078,7 +3358,7 @@
         <v>518015.5045231989</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3111,7 +3391,7 @@
         <v>500474.8330231989</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3144,7 +3424,7 @@
         <v>482922.154723199</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3177,7 +3457,7 @@
         <v>482818.154723199</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3210,7 +3490,7 @@
         <v>483150.154723199</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3243,7 +3523,7 @@
         <v>483216.154723199</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3276,7 +3556,7 @@
         <v>483149.154723199</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3309,7 +3589,7 @@
         <v>484305.154723199</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3342,7 +3622,7 @@
         <v>480232.154723199</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3375,7 +3655,7 @@
         <v>479802.154723199</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>

--- a/BackTest/2020-01-13 BackTest PAY.xlsx
+++ b/BackTest/2020-01-13 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>8547.5843</v>
       </c>
       <c r="G2" t="n">
-        <v>-40408.97897680105</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>8014.782</v>
       </c>
       <c r="G3" t="n">
-        <v>-48423.76097680105</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>45.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>7665.1138</v>
       </c>
       <c r="G4" t="n">
-        <v>-56088.87477680105</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>13486</v>
       </c>
       <c r="G5" t="n">
-        <v>-42602.87477680105</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>44.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +563,15 @@
         <v>81.45999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>-42684.33477680105</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>45.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +593,21 @@
         <v>97583.9097</v>
       </c>
       <c r="G7" t="n">
-        <v>-42684.33477680105</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
         <v>45</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +629,19 @@
         <v>713.9473</v>
       </c>
       <c r="G8" t="n">
-        <v>-42684.33477680105</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +663,19 @@
         <v>2400</v>
       </c>
       <c r="G9" t="n">
-        <v>-45084.33477680105</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>45</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +697,19 @@
         <v>16121.8856</v>
       </c>
       <c r="G10" t="n">
-        <v>-28962.44917680105</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +731,19 @@
         <v>12648.5683</v>
       </c>
       <c r="G11" t="n">
-        <v>-41611.01747680105</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +765,19 @@
         <v>101184.7263</v>
       </c>
       <c r="G12" t="n">
-        <v>59573.70882319895</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,22 +799,19 @@
         <v>25085.1623</v>
       </c>
       <c r="G13" t="n">
-        <v>34488.54652319895</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,22 +833,19 @@
         <v>7862.3695</v>
       </c>
       <c r="G14" t="n">
-        <v>26626.17702319895</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -945,24 +867,19 @@
         <v>20734.7383</v>
       </c>
       <c r="G15" t="n">
-        <v>26626.17702319895</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>44.95</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -984,22 +901,19 @@
         <v>1767.3972</v>
       </c>
       <c r="G16" t="n">
-        <v>24858.77982319895</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1021,24 +935,21 @@
         <v>31632.6182</v>
       </c>
       <c r="G17" t="n">
-        <v>-6773.83837680105</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
         <v>44.9</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1060,24 +971,19 @@
         <v>2710.617</v>
       </c>
       <c r="G18" t="n">
-        <v>-9484.45537680105</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>44.82</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1099,24 +1005,19 @@
         <v>2367.478</v>
       </c>
       <c r="G19" t="n">
-        <v>-7116.97737680105</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>44.39</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1138,24 +1039,19 @@
         <v>465.3886</v>
       </c>
       <c r="G20" t="n">
-        <v>-7116.97737680105</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1177,24 +1073,19 @@
         <v>10983.908</v>
       </c>
       <c r="G21" t="n">
-        <v>-18100.88537680105</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1216,24 +1107,19 @@
         <v>1139.2305</v>
       </c>
       <c r="G22" t="n">
-        <v>-18100.88537680105</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1255,24 +1141,19 @@
         <v>92.76949999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>-18100.88537680105</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1294,24 +1175,19 @@
         <v>2724</v>
       </c>
       <c r="G24" t="n">
-        <v>-18100.88537680105</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1333,24 +1209,19 @@
         <v>6028.8226</v>
       </c>
       <c r="G25" t="n">
-        <v>-18100.88537680105</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1372,24 +1243,19 @@
         <v>4000</v>
       </c>
       <c r="G26" t="n">
-        <v>-18100.88537680105</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1411,24 +1277,19 @@
         <v>24966</v>
       </c>
       <c r="G27" t="n">
-        <v>-43066.88537680104</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1450,24 +1311,19 @@
         <v>9800.366900000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-33266.51847680104</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>44.07</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1489,24 +1345,19 @@
         <v>10972.7494</v>
       </c>
       <c r="G29" t="n">
-        <v>-44239.26787680104</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1528,24 +1379,19 @@
         <v>90000</v>
       </c>
       <c r="G30" t="n">
-        <v>-44239.26787680104</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1567,24 +1413,19 @@
         <v>17000</v>
       </c>
       <c r="G31" t="n">
-        <v>-44239.26787680104</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1606,24 +1447,19 @@
         <v>3345.4116</v>
       </c>
       <c r="G32" t="n">
-        <v>-44239.26787680104</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1645,24 +1481,19 @@
         <v>20362.75</v>
       </c>
       <c r="G33" t="n">
-        <v>-23876.51787680104</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1684,24 +1515,19 @@
         <v>3262</v>
       </c>
       <c r="G34" t="n">
-        <v>-27138.51787680104</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>44.87</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1723,22 +1549,19 @@
         <v>3290</v>
       </c>
       <c r="G35" t="n">
-        <v>-23848.51787680104</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1760,22 +1583,19 @@
         <v>19019.6156</v>
       </c>
       <c r="G36" t="n">
-        <v>-23848.51787680104</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1797,22 +1617,19 @@
         <v>4578.8787</v>
       </c>
       <c r="G37" t="n">
-        <v>-28427.39657680105</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1834,22 +1651,19 @@
         <v>53760.9114</v>
       </c>
       <c r="G38" t="n">
-        <v>25333.51482319895</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1871,22 +1685,19 @@
         <v>11712.14</v>
       </c>
       <c r="G39" t="n">
-        <v>25333.51482319895</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1908,22 +1719,19 @@
         <v>197.91</v>
       </c>
       <c r="G40" t="n">
-        <v>25333.51482319895</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1945,22 +1753,19 @@
         <v>57970.5129</v>
       </c>
       <c r="G41" t="n">
-        <v>83304.02772319896</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1982,22 +1787,19 @@
         <v>8154.9967</v>
       </c>
       <c r="G42" t="n">
-        <v>83304.02772319896</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2019,22 +1821,19 @@
         <v>2591</v>
       </c>
       <c r="G43" t="n">
-        <v>85895.02772319896</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2056,22 +1855,19 @@
         <v>89136.1767</v>
       </c>
       <c r="G44" t="n">
-        <v>175031.2044231989</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2093,22 +1889,19 @@
         <v>1376.44</v>
       </c>
       <c r="G45" t="n">
-        <v>175031.2044231989</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2130,22 +1923,19 @@
         <v>1889.562</v>
       </c>
       <c r="G46" t="n">
-        <v>175031.2044231989</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2167,22 +1957,19 @@
         <v>38413.7527</v>
       </c>
       <c r="G47" t="n">
-        <v>136617.4517231989</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2204,22 +1991,19 @@
         <v>22412.07</v>
       </c>
       <c r="G48" t="n">
-        <v>114205.3817231989</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2241,22 +2025,19 @@
         <v>11398.1307</v>
       </c>
       <c r="G49" t="n">
-        <v>125603.5124231989</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2278,22 +2059,19 @@
         <v>17107.666</v>
       </c>
       <c r="G50" t="n">
-        <v>108495.8464231989</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2315,22 +2093,19 @@
         <v>786.395</v>
       </c>
       <c r="G51" t="n">
-        <v>109282.2414231989</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2352,22 +2127,19 @@
         <v>16466.7184</v>
       </c>
       <c r="G52" t="n">
-        <v>109282.2414231989</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2389,22 +2161,19 @@
         <v>4600</v>
       </c>
       <c r="G53" t="n">
-        <v>113882.2414231989</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2426,22 +2195,19 @@
         <v>81551.9056</v>
       </c>
       <c r="G54" t="n">
-        <v>195434.1470231989</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2463,22 +2229,19 @@
         <v>40019.7812</v>
       </c>
       <c r="G55" t="n">
-        <v>235453.9282231989</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2500,22 +2263,19 @@
         <v>127222.6631</v>
       </c>
       <c r="G56" t="n">
-        <v>235453.9282231989</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2537,22 +2297,19 @@
         <v>132833.4835</v>
       </c>
       <c r="G57" t="n">
-        <v>368287.411723199</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2574,22 +2331,19 @@
         <v>194589.0117</v>
       </c>
       <c r="G58" t="n">
-        <v>562876.423423199</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2611,22 +2365,19 @@
         <v>58246.3561</v>
       </c>
       <c r="G59" t="n">
-        <v>504630.067323199</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2648,22 +2399,19 @@
         <v>58897.2525</v>
       </c>
       <c r="G60" t="n">
-        <v>563527.319823199</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2685,22 +2433,19 @@
         <v>51602.0837</v>
       </c>
       <c r="G61" t="n">
-        <v>615129.4035231989</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2722,22 +2467,19 @@
         <v>10524.7849</v>
       </c>
       <c r="G62" t="n">
-        <v>604604.6186231989</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2759,20 +2501,19 @@
         <v>90472.171</v>
       </c>
       <c r="G63" t="n">
-        <v>695076.7896231989</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2794,18 +2535,19 @@
         <v>56233.5457</v>
       </c>
       <c r="G64" t="n">
-        <v>638843.2439231989</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2827,18 +2569,17 @@
         <v>67324.0603</v>
       </c>
       <c r="G65" t="n">
-        <v>571519.1836231989</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2860,18 +2601,15 @@
         <v>29048.1525</v>
       </c>
       <c r="G66" t="n">
-        <v>571519.1836231989</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2893,18 +2631,15 @@
         <v>54983.7735</v>
       </c>
       <c r="G67" t="n">
-        <v>516535.4101231989</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2926,18 +2661,15 @@
         <v>25991.5064</v>
       </c>
       <c r="G68" t="n">
-        <v>490543.9037231989</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2959,18 +2691,15 @@
         <v>12656.7849</v>
       </c>
       <c r="G69" t="n">
-        <v>477887.1188231988</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2992,18 +2721,15 @@
         <v>37414.5486</v>
       </c>
       <c r="G70" t="n">
-        <v>440472.5702231989</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3025,18 +2751,15 @@
         <v>59193.6256</v>
       </c>
       <c r="G71" t="n">
-        <v>499666.1958231989</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3058,18 +2781,15 @@
         <v>44473.0054</v>
       </c>
       <c r="G72" t="n">
-        <v>544139.2012231989</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3091,18 +2811,15 @@
         <v>3122.0853</v>
       </c>
       <c r="G73" t="n">
-        <v>541017.1159231989</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3124,18 +2841,15 @@
         <v>27351.2979</v>
       </c>
       <c r="G74" t="n">
-        <v>513665.8180231989</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3157,18 +2871,15 @@
         <v>20979.4011</v>
       </c>
       <c r="G75" t="n">
-        <v>534645.2191231989</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3190,18 +2901,15 @@
         <v>66</v>
       </c>
       <c r="G76" t="n">
-        <v>534579.2191231989</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3223,18 +2931,15 @@
         <v>5734.2237</v>
       </c>
       <c r="G77" t="n">
-        <v>528844.9954231989</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3256,18 +2961,15 @@
         <v>40537.3895</v>
       </c>
       <c r="G78" t="n">
-        <v>569382.384923199</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3289,18 +2991,15 @@
         <v>7425</v>
       </c>
       <c r="G79" t="n">
-        <v>561957.384923199</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3322,18 +3021,15 @@
         <v>44023.8804</v>
       </c>
       <c r="G80" t="n">
-        <v>517933.5045231989</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3355,18 +3051,15 @@
         <v>82</v>
       </c>
       <c r="G81" t="n">
-        <v>518015.5045231989</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3388,18 +3081,15 @@
         <v>17540.6715</v>
       </c>
       <c r="G82" t="n">
-        <v>500474.8330231989</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3421,18 +3111,15 @@
         <v>17552.6783</v>
       </c>
       <c r="G83" t="n">
-        <v>482922.154723199</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3454,18 +3141,15 @@
         <v>104</v>
       </c>
       <c r="G84" t="n">
-        <v>482818.154723199</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3487,18 +3171,15 @@
         <v>332</v>
       </c>
       <c r="G85" t="n">
-        <v>483150.154723199</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3520,18 +3201,15 @@
         <v>66</v>
       </c>
       <c r="G86" t="n">
-        <v>483216.154723199</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3553,18 +3231,15 @@
         <v>67</v>
       </c>
       <c r="G87" t="n">
-        <v>483149.154723199</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3586,18 +3261,15 @@
         <v>1156</v>
       </c>
       <c r="G88" t="n">
-        <v>484305.154723199</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3619,18 +3291,15 @@
         <v>4073</v>
       </c>
       <c r="G89" t="n">
-        <v>480232.154723199</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3652,18 +3321,15 @@
         <v>430</v>
       </c>
       <c r="G90" t="n">
-        <v>479802.154723199</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3685,18 +3351,15 @@
         <v>542</v>
       </c>
       <c r="G91" t="n">
-        <v>479260.154723199</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3718,18 +3381,15 @@
         <v>47</v>
       </c>
       <c r="G92" t="n">
-        <v>479213.154723199</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3751,18 +3411,15 @@
         <v>700</v>
       </c>
       <c r="G93" t="n">
-        <v>479913.154723199</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3784,18 +3441,15 @@
         <v>38761.7081</v>
       </c>
       <c r="G94" t="n">
-        <v>441151.446623199</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3817,18 +3471,15 @@
         <v>61785.2864</v>
       </c>
       <c r="G95" t="n">
-        <v>502936.733023199</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3850,18 +3501,15 @@
         <v>5300</v>
       </c>
       <c r="G96" t="n">
-        <v>497636.733023199</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3883,18 +3531,21 @@
         <v>12836.3583</v>
       </c>
       <c r="G97" t="n">
-        <v>484800.3747231989</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3916,18 +3567,19 @@
         <v>4200</v>
       </c>
       <c r="G98" t="n">
-        <v>489000.3747231989</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3949,18 +3601,21 @@
         <v>9087</v>
       </c>
       <c r="G99" t="n">
-        <v>498087.3747231989</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>43.51</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3982,18 +3637,19 @@
         <v>7939.8573</v>
       </c>
       <c r="G100" t="n">
-        <v>490147.517423199</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4015,18 +3671,19 @@
         <v>351.5016</v>
       </c>
       <c r="G101" t="n">
-        <v>489796.0158231989</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4048,18 +3705,19 @@
         <v>4019.8837</v>
       </c>
       <c r="G102" t="n">
-        <v>493815.899523199</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4081,18 +3739,19 @@
         <v>23514.1518</v>
       </c>
       <c r="G103" t="n">
-        <v>470301.747723199</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4114,18 +3773,19 @@
         <v>17287.0899</v>
       </c>
       <c r="G104" t="n">
-        <v>487588.837623199</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4147,18 +3807,21 @@
         <v>5834.93</v>
       </c>
       <c r="G105" t="n">
-        <v>481753.907623199</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>44.49</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4180,18 +3843,21 @@
         <v>15206.7216</v>
       </c>
       <c r="G106" t="n">
-        <v>496960.629223199</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>44.3</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4213,18 +3879,21 @@
         <v>1699</v>
       </c>
       <c r="G107" t="n">
-        <v>495261.629223199</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4246,18 +3915,21 @@
         <v>2891.2436</v>
       </c>
       <c r="G108" t="n">
-        <v>498152.872823199</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>44.49</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4279,18 +3951,21 @@
         <v>19</v>
       </c>
       <c r="G109" t="n">
-        <v>498171.872823199</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4312,18 +3987,19 @@
         <v>12</v>
       </c>
       <c r="G110" t="n">
-        <v>498159.872823199</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4345,18 +4021,19 @@
         <v>5104</v>
       </c>
       <c r="G111" t="n">
-        <v>493055.872823199</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4378,18 +4055,19 @@
         <v>159</v>
       </c>
       <c r="G112" t="n">
-        <v>493214.872823199</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4411,18 +4089,19 @@
         <v>8408.3218</v>
       </c>
       <c r="G113" t="n">
-        <v>484806.551023199</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4444,18 +4123,21 @@
         <v>16</v>
       </c>
       <c r="G114" t="n">
-        <v>484822.551023199</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4477,18 +4159,19 @@
         <v>2500</v>
       </c>
       <c r="G115" t="n">
-        <v>482322.551023199</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4510,18 +4193,21 @@
         <v>29</v>
       </c>
       <c r="G116" t="n">
-        <v>482351.551023199</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4543,18 +4229,19 @@
         <v>70669.72289999999</v>
       </c>
       <c r="G117" t="n">
-        <v>411681.828123199</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4576,18 +4263,19 @@
         <v>29827.201</v>
       </c>
       <c r="G118" t="n">
-        <v>441509.029123199</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4609,18 +4297,19 @@
         <v>46032.6282</v>
       </c>
       <c r="G119" t="n">
-        <v>395476.400923199</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4642,18 +4331,21 @@
         <v>25622</v>
       </c>
       <c r="G120" t="n">
-        <v>421098.400923199</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>43.48</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4675,18 +4367,21 @@
         <v>2030</v>
       </c>
       <c r="G121" t="n">
-        <v>423128.400923199</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>43.58</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4708,18 +4403,19 @@
         <v>2118</v>
       </c>
       <c r="G122" t="n">
-        <v>421010.400923199</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4741,18 +4437,19 @@
         <v>12960.5572</v>
       </c>
       <c r="G123" t="n">
-        <v>433970.958123199</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4774,18 +4471,21 @@
         <v>16</v>
       </c>
       <c r="G124" t="n">
-        <v>433954.958123199</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4807,18 +4507,19 @@
         <v>45027.4356</v>
       </c>
       <c r="G125" t="n">
-        <v>478982.393723199</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4840,18 +4541,19 @@
         <v>22488.6066</v>
       </c>
       <c r="G126" t="n">
-        <v>501471.000323199</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4873,18 +4575,19 @@
         <v>147.77</v>
       </c>
       <c r="G127" t="n">
-        <v>501471.000323199</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4906,18 +4609,19 @@
         <v>20014.2711</v>
       </c>
       <c r="G128" t="n">
-        <v>481456.729223199</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4939,18 +4643,19 @@
         <v>8650.3349</v>
       </c>
       <c r="G129" t="n">
-        <v>472806.394323199</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4972,18 +4677,19 @@
         <v>457</v>
       </c>
       <c r="G130" t="n">
-        <v>473263.394323199</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5005,18 +4711,19 @@
         <v>19</v>
       </c>
       <c r="G131" t="n">
-        <v>473244.394323199</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5038,18 +4745,19 @@
         <v>19</v>
       </c>
       <c r="G132" t="n">
-        <v>473263.394323199</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5071,18 +4779,19 @@
         <v>4000</v>
       </c>
       <c r="G133" t="n">
-        <v>477263.394323199</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5104,18 +4813,19 @@
         <v>400</v>
       </c>
       <c r="G134" t="n">
-        <v>476863.394323199</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5137,18 +4847,19 @@
         <v>19</v>
       </c>
       <c r="G135" t="n">
-        <v>476882.394323199</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5170,18 +4881,19 @@
         <v>2447.7894</v>
       </c>
       <c r="G136" t="n">
-        <v>474434.604923199</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5203,18 +4915,19 @@
         <v>49104.4746</v>
       </c>
       <c r="G137" t="n">
-        <v>425330.130323199</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5236,18 +4949,19 @@
         <v>5165.083</v>
       </c>
       <c r="G138" t="n">
-        <v>420165.047323199</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5269,18 +4983,19 @@
         <v>30</v>
       </c>
       <c r="G139" t="n">
-        <v>420135.047323199</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5302,18 +5017,19 @@
         <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>420235.047323199</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5335,18 +5051,19 @@
         <v>38</v>
       </c>
       <c r="G141" t="n">
-        <v>420197.047323199</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5368,18 +5085,19 @@
         <v>240</v>
       </c>
       <c r="G142" t="n">
-        <v>419957.047323199</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5401,18 +5119,19 @@
         <v>634.4028505617978</v>
       </c>
       <c r="G143" t="n">
-        <v>420591.4501737608</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5434,18 +5153,19 @@
         <v>38</v>
       </c>
       <c r="G144" t="n">
-        <v>420553.4501737608</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5467,18 +5187,19 @@
         <v>12</v>
       </c>
       <c r="G145" t="n">
-        <v>420565.4501737608</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5500,18 +5221,19 @@
         <v>10728.511</v>
       </c>
       <c r="G146" t="n">
-        <v>431293.9611737608</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5533,18 +5255,19 @@
         <v>99835.38280000001</v>
       </c>
       <c r="G147" t="n">
-        <v>531129.3439737607</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5566,18 +5289,19 @@
         <v>40003.2445</v>
       </c>
       <c r="G148" t="n">
-        <v>491126.0994737607</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5599,18 +5323,19 @@
         <v>137</v>
       </c>
       <c r="G149" t="n">
-        <v>491263.0994737607</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5632,18 +5357,19 @@
         <v>10820</v>
       </c>
       <c r="G150" t="n">
-        <v>502083.0994737607</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5665,18 +5391,19 @@
         <v>240</v>
       </c>
       <c r="G151" t="n">
-        <v>501843.0994737607</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5698,18 +5425,19 @@
         <v>50000</v>
       </c>
       <c r="G152" t="n">
-        <v>451843.0994737607</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5731,18 +5459,19 @@
         <v>12</v>
       </c>
       <c r="G153" t="n">
-        <v>451855.0994737607</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5764,18 +5493,19 @@
         <v>12</v>
       </c>
       <c r="G154" t="n">
-        <v>451867.0994737607</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5797,18 +5527,19 @@
         <v>2000</v>
       </c>
       <c r="G155" t="n">
-        <v>449867.0994737607</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5830,18 +5561,19 @@
         <v>12</v>
       </c>
       <c r="G156" t="n">
-        <v>449879.0994737607</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5863,18 +5595,19 @@
         <v>261</v>
       </c>
       <c r="G157" t="n">
-        <v>450140.0994737607</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5896,18 +5629,19 @@
         <v>5639</v>
       </c>
       <c r="G158" t="n">
-        <v>455779.0994737607</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5929,18 +5663,19 @@
         <v>4000</v>
       </c>
       <c r="G159" t="n">
-        <v>455779.0994737607</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5962,18 +5697,19 @@
         <v>400</v>
       </c>
       <c r="G160" t="n">
-        <v>455779.0994737607</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5995,18 +5731,19 @@
         <v>3900</v>
       </c>
       <c r="G161" t="n">
-        <v>459679.0994737607</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6028,18 +5765,19 @@
         <v>4600</v>
       </c>
       <c r="G162" t="n">
-        <v>464279.0994737607</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6061,18 +5799,19 @@
         <v>1700</v>
       </c>
       <c r="G163" t="n">
-        <v>462579.0994737607</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6094,18 +5833,19 @@
         <v>5968</v>
       </c>
       <c r="G164" t="n">
-        <v>468547.0994737607</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6127,18 +5867,19 @@
         <v>22235</v>
       </c>
       <c r="G165" t="n">
-        <v>446312.0994737607</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6160,18 +5901,19 @@
         <v>19</v>
       </c>
       <c r="G166" t="n">
-        <v>446331.0994737607</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6193,18 +5935,19 @@
         <v>1498.9139</v>
       </c>
       <c r="G167" t="n">
-        <v>444832.1855737607</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6226,18 +5969,19 @@
         <v>3572.114175734695</v>
       </c>
       <c r="G168" t="n">
-        <v>448404.2997494954</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6259,18 +6003,19 @@
         <v>2013</v>
       </c>
       <c r="G169" t="n">
-        <v>446391.2997494954</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6292,18 +6037,19 @@
         <v>4719.3196</v>
       </c>
       <c r="G170" t="n">
-        <v>441671.9801494954</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6325,18 +6071,19 @@
         <v>2626.9385</v>
       </c>
       <c r="G171" t="n">
-        <v>441671.9801494954</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
